--- a/Cash Book/Expenditure Mian Anjum Saeed.xlsx
+++ b/Cash Book/Expenditure Mian Anjum Saeed.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Mian-Industries\Cash Book\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9663E21A-8C19-47CC-ADB6-F44DB27A1D41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E12429AC-1F20-4C77-8CCA-1D3CDD41AC60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="43">
   <si>
     <t>Date</t>
   </si>
@@ -143,6 +143,18 @@
   <si>
     <t>Exhaust fan + Drawer lock</t>
   </si>
+  <si>
+    <t>Baraf</t>
+  </si>
+  <si>
+    <t>Needles</t>
+  </si>
+  <si>
+    <t>miscellaneous</t>
+  </si>
+  <si>
+    <t>Petrol</t>
+  </si>
 </sst>
 </file>
 
@@ -151,7 +163,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -193,6 +205,12 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -444,7 +462,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -522,6 +540,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -740,7 +759,7 @@
   <dimension ref="A1:Z998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -778,7 +797,7 @@
       <c r="J1" s="25"/>
       <c r="K1" s="6">
         <f>D93</f>
-        <v>203760</v>
+        <v>226230</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="14.25" customHeight="1">
@@ -796,7 +815,7 @@
       <c r="J2" s="28"/>
       <c r="K2" s="10">
         <f>F95</f>
-        <v>46240</v>
+        <v>23770</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="14.25" customHeight="1">
@@ -1256,58 +1275,98 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A27" s="16"/>
-      <c r="B27" s="15"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="13"/>
+      <c r="A27" s="16">
+        <v>45860</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="13">
+        <v>100</v>
+      </c>
       <c r="E27" s="14"/>
       <c r="F27" s="9">
         <f t="shared" si="0"/>
-        <v>46240</v>
+        <v>46140</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A28" s="16"/>
-      <c r="B28" s="15"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="13"/>
+      <c r="A28" s="16">
+        <v>45860</v>
+      </c>
+      <c r="B28" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D28" s="13">
+        <v>20000</v>
+      </c>
       <c r="E28" s="14"/>
       <c r="F28" s="9">
         <f t="shared" si="0"/>
-        <v>46240</v>
+        <v>26140</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A29" s="16"/>
-      <c r="B29" s="15"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="13"/>
+      <c r="A29" s="16">
+        <v>45860</v>
+      </c>
+      <c r="B29" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D29" s="13">
+        <v>1800</v>
+      </c>
       <c r="E29" s="14"/>
       <c r="F29" s="9">
         <f t="shared" si="0"/>
-        <v>46240</v>
+        <v>24340</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A30" s="16"/>
-      <c r="B30" s="15"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="13"/>
+      <c r="A30" s="16">
+        <v>45860</v>
+      </c>
+      <c r="B30" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D30" s="13">
+        <v>170</v>
+      </c>
       <c r="E30" s="14"/>
       <c r="F30" s="9">
         <f t="shared" si="0"/>
-        <v>46240</v>
+        <v>24170</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A31" s="16"/>
-      <c r="B31" s="15"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="13"/>
+      <c r="A31" s="16">
+        <v>45861</v>
+      </c>
+      <c r="B31" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="D31" s="13">
+        <v>400</v>
+      </c>
       <c r="E31" s="14"/>
       <c r="F31" s="9">
         <f t="shared" si="0"/>
-        <v>46240</v>
+        <v>23770</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="14.25" customHeight="1">
@@ -1318,7 +1377,7 @@
       <c r="E32" s="14"/>
       <c r="F32" s="9">
         <f t="shared" si="0"/>
-        <v>46240</v>
+        <v>23770</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="14.25" customHeight="1">
@@ -1329,7 +1388,7 @@
       <c r="E33" s="14"/>
       <c r="F33" s="9">
         <f t="shared" si="0"/>
-        <v>46240</v>
+        <v>23770</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="14.25" customHeight="1">
@@ -1340,7 +1399,7 @@
       <c r="E34" s="14"/>
       <c r="F34" s="9">
         <f t="shared" si="0"/>
-        <v>46240</v>
+        <v>23770</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="14.25" customHeight="1">
@@ -1351,7 +1410,7 @@
       <c r="E35" s="14"/>
       <c r="F35" s="9">
         <f t="shared" si="0"/>
-        <v>46240</v>
+        <v>23770</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="14.25" customHeight="1">
@@ -1362,7 +1421,7 @@
       <c r="E36" s="14"/>
       <c r="F36" s="9">
         <f t="shared" si="0"/>
-        <v>46240</v>
+        <v>23770</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="14.25" customHeight="1">
@@ -1373,7 +1432,7 @@
       <c r="E37" s="14"/>
       <c r="F37" s="9">
         <f t="shared" si="0"/>
-        <v>46240</v>
+        <v>23770</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="14.25" customHeight="1">
@@ -1384,7 +1443,7 @@
       <c r="E38" s="14"/>
       <c r="F38" s="9">
         <f t="shared" si="0"/>
-        <v>46240</v>
+        <v>23770</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="14.25" customHeight="1">
@@ -1395,7 +1454,7 @@
       <c r="E39" s="14"/>
       <c r="F39" s="9">
         <f t="shared" si="0"/>
-        <v>46240</v>
+        <v>23770</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="14.25" customHeight="1">
@@ -1406,7 +1465,7 @@
       <c r="E40" s="14"/>
       <c r="F40" s="9">
         <f t="shared" si="0"/>
-        <v>46240</v>
+        <v>23770</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="14.25" customHeight="1">
@@ -1417,7 +1476,7 @@
       <c r="E41" s="14"/>
       <c r="F41" s="9">
         <f t="shared" si="0"/>
-        <v>46240</v>
+        <v>23770</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="14.25" customHeight="1">
@@ -1428,7 +1487,7 @@
       <c r="E42" s="14"/>
       <c r="F42" s="9">
         <f t="shared" si="0"/>
-        <v>46240</v>
+        <v>23770</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="14.25" customHeight="1">
@@ -1439,7 +1498,7 @@
       <c r="E43" s="14"/>
       <c r="F43" s="9">
         <f t="shared" si="0"/>
-        <v>46240</v>
+        <v>23770</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="14.25" customHeight="1">
@@ -1450,7 +1509,7 @@
       <c r="E44" s="14"/>
       <c r="F44" s="9">
         <f t="shared" si="0"/>
-        <v>46240</v>
+        <v>23770</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="14.25" customHeight="1">
@@ -1461,7 +1520,7 @@
       <c r="E45" s="14"/>
       <c r="F45" s="9">
         <f t="shared" si="0"/>
-        <v>46240</v>
+        <v>23770</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="14.25" customHeight="1">
@@ -1472,7 +1531,7 @@
       <c r="E46" s="14"/>
       <c r="F46" s="9">
         <f t="shared" si="0"/>
-        <v>46240</v>
+        <v>23770</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="14.25" customHeight="1">
@@ -1483,7 +1542,7 @@
       <c r="E47" s="14"/>
       <c r="F47" s="9">
         <f t="shared" si="0"/>
-        <v>46240</v>
+        <v>23770</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="14.25" customHeight="1">
@@ -1494,7 +1553,7 @@
       <c r="E48" s="14"/>
       <c r="F48" s="9">
         <f t="shared" si="0"/>
-        <v>46240</v>
+        <v>23770</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="14.25" customHeight="1">
@@ -1505,7 +1564,7 @@
       <c r="E49" s="14"/>
       <c r="F49" s="9">
         <f t="shared" si="0"/>
-        <v>46240</v>
+        <v>23770</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="14.25" customHeight="1">
@@ -1516,7 +1575,7 @@
       <c r="E50" s="14"/>
       <c r="F50" s="9">
         <f t="shared" si="0"/>
-        <v>46240</v>
+        <v>23770</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="14.25" customHeight="1">
@@ -1527,7 +1586,7 @@
       <c r="E51" s="14"/>
       <c r="F51" s="9">
         <f t="shared" si="0"/>
-        <v>46240</v>
+        <v>23770</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="14.25" customHeight="1">
@@ -1538,7 +1597,7 @@
       <c r="E52" s="14"/>
       <c r="F52" s="9">
         <f t="shared" si="0"/>
-        <v>46240</v>
+        <v>23770</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="14.25" customHeight="1">
@@ -1549,7 +1608,7 @@
       <c r="E53" s="14"/>
       <c r="F53" s="9">
         <f t="shared" si="0"/>
-        <v>46240</v>
+        <v>23770</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="14.25" customHeight="1">
@@ -1560,7 +1619,7 @@
       <c r="E54" s="14"/>
       <c r="F54" s="9">
         <f t="shared" si="0"/>
-        <v>46240</v>
+        <v>23770</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="14.25" customHeight="1">
@@ -1571,7 +1630,7 @@
       <c r="E55" s="14"/>
       <c r="F55" s="9">
         <f t="shared" si="0"/>
-        <v>46240</v>
+        <v>23770</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="14.25" customHeight="1">
@@ -1582,7 +1641,7 @@
       <c r="E56" s="14"/>
       <c r="F56" s="9">
         <f t="shared" si="0"/>
-        <v>46240</v>
+        <v>23770</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="14.25" customHeight="1">
@@ -1593,7 +1652,7 @@
       <c r="E57" s="14"/>
       <c r="F57" s="9">
         <f t="shared" si="0"/>
-        <v>46240</v>
+        <v>23770</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="14.25" customHeight="1">
@@ -1604,7 +1663,7 @@
       <c r="E58" s="14"/>
       <c r="F58" s="9">
         <f t="shared" si="0"/>
-        <v>46240</v>
+        <v>23770</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="14.25" customHeight="1">
@@ -1615,7 +1674,7 @@
       <c r="E59" s="14"/>
       <c r="F59" s="9">
         <f t="shared" si="0"/>
-        <v>46240</v>
+        <v>23770</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="14.25" customHeight="1">
@@ -1626,7 +1685,7 @@
       <c r="E60" s="14"/>
       <c r="F60" s="9">
         <f t="shared" si="0"/>
-        <v>46240</v>
+        <v>23770</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="14.25" customHeight="1">
@@ -1637,7 +1696,7 @@
       <c r="E61" s="14"/>
       <c r="F61" s="9">
         <f t="shared" si="0"/>
-        <v>46240</v>
+        <v>23770</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="14.25" customHeight="1">
@@ -1648,7 +1707,7 @@
       <c r="E62" s="14"/>
       <c r="F62" s="9">
         <f t="shared" si="0"/>
-        <v>46240</v>
+        <v>23770</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="14.25" customHeight="1">
@@ -1659,7 +1718,7 @@
       <c r="E63" s="14"/>
       <c r="F63" s="9">
         <f t="shared" si="0"/>
-        <v>46240</v>
+        <v>23770</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="14.25" customHeight="1">
@@ -1670,7 +1729,7 @@
       <c r="E64" s="14"/>
       <c r="F64" s="9">
         <f t="shared" si="0"/>
-        <v>46240</v>
+        <v>23770</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="14.25" customHeight="1">
@@ -1681,7 +1740,7 @@
       <c r="E65" s="14"/>
       <c r="F65" s="9">
         <f t="shared" si="0"/>
-        <v>46240</v>
+        <v>23770</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="14.25" customHeight="1">
@@ -1692,7 +1751,7 @@
       <c r="E66" s="14"/>
       <c r="F66" s="9">
         <f t="shared" si="0"/>
-        <v>46240</v>
+        <v>23770</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="14.25" customHeight="1">
@@ -1703,7 +1762,7 @@
       <c r="E67" s="14"/>
       <c r="F67" s="9">
         <f t="shared" si="0"/>
-        <v>46240</v>
+        <v>23770</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="14.25" customHeight="1">
@@ -1714,7 +1773,7 @@
       <c r="E68" s="14"/>
       <c r="F68" s="9">
         <f t="shared" si="0"/>
-        <v>46240</v>
+        <v>23770</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="14.25" customHeight="1">
@@ -1725,7 +1784,7 @@
       <c r="E69" s="14"/>
       <c r="F69" s="9">
         <f t="shared" si="0"/>
-        <v>46240</v>
+        <v>23770</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="14.25" customHeight="1">
@@ -1736,7 +1795,7 @@
       <c r="E70" s="14"/>
       <c r="F70" s="9">
         <f t="shared" si="0"/>
-        <v>46240</v>
+        <v>23770</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="14.25" customHeight="1">
@@ -1747,7 +1806,7 @@
       <c r="E71" s="14"/>
       <c r="F71" s="9">
         <f t="shared" si="0"/>
-        <v>46240</v>
+        <v>23770</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="14.25" customHeight="1">
@@ -1758,7 +1817,7 @@
       <c r="E72" s="14"/>
       <c r="F72" s="9">
         <f t="shared" si="0"/>
-        <v>46240</v>
+        <v>23770</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="14.25" customHeight="1">
@@ -1769,7 +1828,7 @@
       <c r="E73" s="14"/>
       <c r="F73" s="9">
         <f t="shared" si="0"/>
-        <v>46240</v>
+        <v>23770</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="14.25" customHeight="1">
@@ -1780,7 +1839,7 @@
       <c r="E74" s="14"/>
       <c r="F74" s="9">
         <f t="shared" si="0"/>
-        <v>46240</v>
+        <v>23770</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="14.25" customHeight="1">
@@ -1791,7 +1850,7 @@
       <c r="E75" s="14"/>
       <c r="F75" s="9">
         <f t="shared" si="0"/>
-        <v>46240</v>
+        <v>23770</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="14.25" customHeight="1">
@@ -1802,7 +1861,7 @@
       <c r="E76" s="14"/>
       <c r="F76" s="9">
         <f t="shared" si="0"/>
-        <v>46240</v>
+        <v>23770</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="14.25" customHeight="1">
@@ -1813,7 +1872,7 @@
       <c r="E77" s="14"/>
       <c r="F77" s="9">
         <f t="shared" si="0"/>
-        <v>46240</v>
+        <v>23770</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="14.25" customHeight="1">
@@ -1824,7 +1883,7 @@
       <c r="E78" s="14"/>
       <c r="F78" s="9">
         <f t="shared" si="0"/>
-        <v>46240</v>
+        <v>23770</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="14.25" customHeight="1">
@@ -1835,7 +1894,7 @@
       <c r="E79" s="14"/>
       <c r="F79" s="9">
         <f t="shared" si="0"/>
-        <v>46240</v>
+        <v>23770</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="14.25" customHeight="1">
@@ -1846,7 +1905,7 @@
       <c r="E80" s="14"/>
       <c r="F80" s="9">
         <f t="shared" si="0"/>
-        <v>46240</v>
+        <v>23770</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="14.25" customHeight="1">
@@ -1857,7 +1916,7 @@
       <c r="E81" s="14"/>
       <c r="F81" s="9">
         <f t="shared" si="0"/>
-        <v>46240</v>
+        <v>23770</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="14.25" customHeight="1">
@@ -1868,7 +1927,7 @@
       <c r="E82" s="14"/>
       <c r="F82" s="9">
         <f t="shared" si="0"/>
-        <v>46240</v>
+        <v>23770</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="14.25" customHeight="1">
@@ -1879,7 +1938,7 @@
       <c r="E83" s="14"/>
       <c r="F83" s="9">
         <f t="shared" si="0"/>
-        <v>46240</v>
+        <v>23770</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="14.25" customHeight="1">
@@ -1890,7 +1949,7 @@
       <c r="E84" s="14"/>
       <c r="F84" s="9">
         <f t="shared" si="0"/>
-        <v>46240</v>
+        <v>23770</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="14.25" customHeight="1">
@@ -1901,7 +1960,7 @@
       <c r="E85" s="14"/>
       <c r="F85" s="9">
         <f t="shared" si="0"/>
-        <v>46240</v>
+        <v>23770</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="14.25" customHeight="1">
@@ -1912,7 +1971,7 @@
       <c r="E86" s="14"/>
       <c r="F86" s="9">
         <f t="shared" si="0"/>
-        <v>46240</v>
+        <v>23770</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="14.25" customHeight="1">
@@ -1923,7 +1982,7 @@
       <c r="E87" s="14"/>
       <c r="F87" s="9">
         <f t="shared" si="0"/>
-        <v>46240</v>
+        <v>23770</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="14.25" customHeight="1">
@@ -1933,7 +1992,7 @@
       <c r="E88" s="14"/>
       <c r="F88" s="9">
         <f t="shared" si="0"/>
-        <v>46240</v>
+        <v>23770</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="14.25" customHeight="1">
@@ -1944,7 +2003,7 @@
       <c r="E89" s="14"/>
       <c r="F89" s="9">
         <f t="shared" si="0"/>
-        <v>46240</v>
+        <v>23770</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="14.25" customHeight="1">
@@ -1955,7 +2014,7 @@
       <c r="E90" s="14"/>
       <c r="F90" s="9">
         <f t="shared" si="0"/>
-        <v>46240</v>
+        <v>23770</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="14.25" customHeight="1">
@@ -1966,7 +2025,7 @@
       <c r="E91" s="14"/>
       <c r="F91" s="9">
         <f t="shared" si="0"/>
-        <v>46240</v>
+        <v>23770</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="14.25" customHeight="1">
@@ -1977,7 +2036,7 @@
       <c r="E92" s="14"/>
       <c r="F92" s="9">
         <f t="shared" si="0"/>
-        <v>46240</v>
+        <v>23770</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="14.25" customHeight="1">
@@ -1988,12 +2047,12 @@
       <c r="C93" s="25"/>
       <c r="D93" s="6">
         <f>SUM(D3:D92)</f>
-        <v>203760</v>
+        <v>226230</v>
       </c>
       <c r="E93" s="17"/>
       <c r="F93" s="9">
         <f t="shared" ref="F93:F94" si="1">F91</f>
-        <v>46240</v>
+        <v>23770</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="14.25" customHeight="1">
@@ -2009,7 +2068,7 @@
       </c>
       <c r="F94" s="9">
         <f t="shared" si="1"/>
-        <v>46240</v>
+        <v>23770</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="14.25" customHeight="1">
@@ -2022,7 +2081,7 @@
       <c r="E95" s="32"/>
       <c r="F95" s="19">
         <f>F92</f>
-        <v>46240</v>
+        <v>23770</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="14.25" customHeight="1"/>
@@ -6889,6 +6948,6 @@
     <mergeCell ref="A95:E95"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Cash Book/Expenditure Mian Anjum Saeed.xlsx
+++ b/Cash Book/Expenditure Mian Anjum Saeed.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Mian-Industries\Cash Book\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mian-Industries\Cash Book\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E12429AC-1F20-4C77-8CCA-1D3CDD41AC60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Up untill 2025" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="zt5VEtdFQn/DbdUmDWlfVAnffxhstJbwJwC9e/aXKFI="/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="47">
   <si>
     <t>Date</t>
   </si>
@@ -147,19 +146,31 @@
     <t>Baraf</t>
   </si>
   <si>
-    <t>Needles</t>
-  </si>
-  <si>
     <t>miscellaneous</t>
   </si>
   <si>
-    <t>Petrol</t>
+    <t>AA bobbin 5 Boxes</t>
+  </si>
+  <si>
+    <t>Needles purchased from Tariq</t>
+  </si>
+  <si>
+    <t>From Arshad sb</t>
+  </si>
+  <si>
+    <t>Mian Arshad</t>
+  </si>
+  <si>
+    <t>Murtaza</t>
+  </si>
+  <si>
+    <t>Hussain lace payment</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
@@ -462,7 +473,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -522,6 +533,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -540,7 +552,8 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -755,20 +768,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="30.5703125" customWidth="1"/>
-    <col min="2" max="2" width="40.28515625" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" customWidth="1"/>
-    <col min="6" max="26" width="8.7109375" customWidth="1"/>
+    <col min="1" max="1" width="30.5546875" customWidth="1"/>
+    <col min="2" max="2" width="44.6640625" customWidth="1"/>
+    <col min="4" max="4" width="9.88671875" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" customWidth="1"/>
+    <col min="6" max="26" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="14.25" customHeight="1">
@@ -790,32 +803,41 @@
       <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="24"/>
-      <c r="J1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="26"/>
       <c r="K1" s="6">
         <f>D93</f>
-        <v>226230</v>
+        <v>293330</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="14.25" customHeight="1">
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
+      <c r="A2" s="11">
+        <v>45854</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" s="8"/>
-      <c r="E2" s="4"/>
+      <c r="E2" s="4">
+        <v>250000</v>
+      </c>
       <c r="F2" s="9">
         <v>250000</v>
       </c>
-      <c r="H2" s="26" t="s">
+      <c r="H2" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="27"/>
-      <c r="J2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="29"/>
       <c r="K2" s="10">
         <f>F95</f>
-        <v>23770</v>
+        <v>456670</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="14.25" customHeight="1">
@@ -1297,8 +1319,8 @@
       <c r="A28" s="16">
         <v>45860</v>
       </c>
-      <c r="B28" s="33" t="s">
-        <v>40</v>
+      <c r="B28" s="23" t="s">
+        <v>42</v>
       </c>
       <c r="C28" s="15" t="s">
         <v>23</v>
@@ -1316,7 +1338,7 @@
       <c r="A29" s="16">
         <v>45860</v>
       </c>
-      <c r="B29" s="33" t="s">
+      <c r="B29" s="23" t="s">
         <v>25</v>
       </c>
       <c r="C29" s="15" t="s">
@@ -1335,8 +1357,8 @@
       <c r="A30" s="16">
         <v>45860</v>
       </c>
-      <c r="B30" s="33" t="s">
-        <v>41</v>
+      <c r="B30" s="23" t="s">
+        <v>40</v>
       </c>
       <c r="C30" s="15" t="s">
         <v>23</v>
@@ -1354,41 +1376,49 @@
       <c r="A31" s="16">
         <v>45861</v>
       </c>
-      <c r="B31" s="33" t="s">
-        <v>42</v>
+      <c r="B31" s="23" t="s">
+        <v>41</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="D31" s="13">
-        <v>400</v>
+        <v>67500</v>
       </c>
       <c r="E31" s="14"/>
       <c r="F31" s="9">
         <f t="shared" si="0"/>
-        <v>23770</v>
+        <v>-43330</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A32" s="16"/>
-      <c r="B32" s="15"/>
-      <c r="C32" s="15"/>
+      <c r="A32" s="11">
+        <v>45855</v>
+      </c>
+      <c r="B32" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>45</v>
+      </c>
       <c r="D32" s="13"/>
-      <c r="E32" s="14"/>
+      <c r="E32" s="14">
+        <v>500000</v>
+      </c>
       <c r="F32" s="9">
         <f t="shared" si="0"/>
-        <v>23770</v>
+        <v>456670</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A33" s="16"/>
-      <c r="B33" s="15"/>
+      <c r="A33" s="11"/>
+      <c r="B33" s="35"/>
       <c r="C33" s="15"/>
       <c r="D33" s="13"/>
       <c r="E33" s="14"/>
       <c r="F33" s="9">
         <f t="shared" si="0"/>
-        <v>23770</v>
+        <v>456670</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="14.25" customHeight="1">
@@ -1399,7 +1429,7 @@
       <c r="E34" s="14"/>
       <c r="F34" s="9">
         <f t="shared" si="0"/>
-        <v>23770</v>
+        <v>456670</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="14.25" customHeight="1">
@@ -1410,7 +1440,7 @@
       <c r="E35" s="14"/>
       <c r="F35" s="9">
         <f t="shared" si="0"/>
-        <v>23770</v>
+        <v>456670</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="14.25" customHeight="1">
@@ -1421,7 +1451,7 @@
       <c r="E36" s="14"/>
       <c r="F36" s="9">
         <f t="shared" si="0"/>
-        <v>23770</v>
+        <v>456670</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="14.25" customHeight="1">
@@ -1432,7 +1462,7 @@
       <c r="E37" s="14"/>
       <c r="F37" s="9">
         <f t="shared" si="0"/>
-        <v>23770</v>
+        <v>456670</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="14.25" customHeight="1">
@@ -1443,7 +1473,7 @@
       <c r="E38" s="14"/>
       <c r="F38" s="9">
         <f t="shared" si="0"/>
-        <v>23770</v>
+        <v>456670</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="14.25" customHeight="1">
@@ -1454,7 +1484,7 @@
       <c r="E39" s="14"/>
       <c r="F39" s="9">
         <f t="shared" si="0"/>
-        <v>23770</v>
+        <v>456670</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="14.25" customHeight="1">
@@ -1465,7 +1495,7 @@
       <c r="E40" s="14"/>
       <c r="F40" s="9">
         <f t="shared" si="0"/>
-        <v>23770</v>
+        <v>456670</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="14.25" customHeight="1">
@@ -1476,7 +1506,7 @@
       <c r="E41" s="14"/>
       <c r="F41" s="9">
         <f t="shared" si="0"/>
-        <v>23770</v>
+        <v>456670</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="14.25" customHeight="1">
@@ -1487,7 +1517,7 @@
       <c r="E42" s="14"/>
       <c r="F42" s="9">
         <f t="shared" si="0"/>
-        <v>23770</v>
+        <v>456670</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="14.25" customHeight="1">
@@ -1498,7 +1528,7 @@
       <c r="E43" s="14"/>
       <c r="F43" s="9">
         <f t="shared" si="0"/>
-        <v>23770</v>
+        <v>456670</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="14.25" customHeight="1">
@@ -1509,7 +1539,7 @@
       <c r="E44" s="14"/>
       <c r="F44" s="9">
         <f t="shared" si="0"/>
-        <v>23770</v>
+        <v>456670</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="14.25" customHeight="1">
@@ -1520,7 +1550,7 @@
       <c r="E45" s="14"/>
       <c r="F45" s="9">
         <f t="shared" si="0"/>
-        <v>23770</v>
+        <v>456670</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="14.25" customHeight="1">
@@ -1531,7 +1561,7 @@
       <c r="E46" s="14"/>
       <c r="F46" s="9">
         <f t="shared" si="0"/>
-        <v>23770</v>
+        <v>456670</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="14.25" customHeight="1">
@@ -1542,7 +1572,7 @@
       <c r="E47" s="14"/>
       <c r="F47" s="9">
         <f t="shared" si="0"/>
-        <v>23770</v>
+        <v>456670</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="14.25" customHeight="1">
@@ -1553,7 +1583,7 @@
       <c r="E48" s="14"/>
       <c r="F48" s="9">
         <f t="shared" si="0"/>
-        <v>23770</v>
+        <v>456670</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="14.25" customHeight="1">
@@ -1564,7 +1594,7 @@
       <c r="E49" s="14"/>
       <c r="F49" s="9">
         <f t="shared" si="0"/>
-        <v>23770</v>
+        <v>456670</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="14.25" customHeight="1">
@@ -1575,7 +1605,7 @@
       <c r="E50" s="14"/>
       <c r="F50" s="9">
         <f t="shared" si="0"/>
-        <v>23770</v>
+        <v>456670</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="14.25" customHeight="1">
@@ -1586,7 +1616,7 @@
       <c r="E51" s="14"/>
       <c r="F51" s="9">
         <f t="shared" si="0"/>
-        <v>23770</v>
+        <v>456670</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="14.25" customHeight="1">
@@ -1597,7 +1627,7 @@
       <c r="E52" s="14"/>
       <c r="F52" s="9">
         <f t="shared" si="0"/>
-        <v>23770</v>
+        <v>456670</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="14.25" customHeight="1">
@@ -1608,7 +1638,7 @@
       <c r="E53" s="14"/>
       <c r="F53" s="9">
         <f t="shared" si="0"/>
-        <v>23770</v>
+        <v>456670</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="14.25" customHeight="1">
@@ -1619,7 +1649,7 @@
       <c r="E54" s="14"/>
       <c r="F54" s="9">
         <f t="shared" si="0"/>
-        <v>23770</v>
+        <v>456670</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="14.25" customHeight="1">
@@ -1630,7 +1660,7 @@
       <c r="E55" s="14"/>
       <c r="F55" s="9">
         <f t="shared" si="0"/>
-        <v>23770</v>
+        <v>456670</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="14.25" customHeight="1">
@@ -1641,7 +1671,7 @@
       <c r="E56" s="14"/>
       <c r="F56" s="9">
         <f t="shared" si="0"/>
-        <v>23770</v>
+        <v>456670</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="14.25" customHeight="1">
@@ -1652,7 +1682,7 @@
       <c r="E57" s="14"/>
       <c r="F57" s="9">
         <f t="shared" si="0"/>
-        <v>23770</v>
+        <v>456670</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="14.25" customHeight="1">
@@ -1663,7 +1693,7 @@
       <c r="E58" s="14"/>
       <c r="F58" s="9">
         <f t="shared" si="0"/>
-        <v>23770</v>
+        <v>456670</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="14.25" customHeight="1">
@@ -1674,7 +1704,7 @@
       <c r="E59" s="14"/>
       <c r="F59" s="9">
         <f t="shared" si="0"/>
-        <v>23770</v>
+        <v>456670</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="14.25" customHeight="1">
@@ -1685,7 +1715,7 @@
       <c r="E60" s="14"/>
       <c r="F60" s="9">
         <f t="shared" si="0"/>
-        <v>23770</v>
+        <v>456670</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="14.25" customHeight="1">
@@ -1696,7 +1726,7 @@
       <c r="E61" s="14"/>
       <c r="F61" s="9">
         <f t="shared" si="0"/>
-        <v>23770</v>
+        <v>456670</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="14.25" customHeight="1">
@@ -1707,7 +1737,7 @@
       <c r="E62" s="14"/>
       <c r="F62" s="9">
         <f t="shared" si="0"/>
-        <v>23770</v>
+        <v>456670</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="14.25" customHeight="1">
@@ -1718,7 +1748,7 @@
       <c r="E63" s="14"/>
       <c r="F63" s="9">
         <f t="shared" si="0"/>
-        <v>23770</v>
+        <v>456670</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="14.25" customHeight="1">
@@ -1729,7 +1759,7 @@
       <c r="E64" s="14"/>
       <c r="F64" s="9">
         <f t="shared" si="0"/>
-        <v>23770</v>
+        <v>456670</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="14.25" customHeight="1">
@@ -1740,7 +1770,7 @@
       <c r="E65" s="14"/>
       <c r="F65" s="9">
         <f t="shared" si="0"/>
-        <v>23770</v>
+        <v>456670</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="14.25" customHeight="1">
@@ -1751,7 +1781,7 @@
       <c r="E66" s="14"/>
       <c r="F66" s="9">
         <f t="shared" si="0"/>
-        <v>23770</v>
+        <v>456670</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="14.25" customHeight="1">
@@ -1762,7 +1792,7 @@
       <c r="E67" s="14"/>
       <c r="F67" s="9">
         <f t="shared" si="0"/>
-        <v>23770</v>
+        <v>456670</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="14.25" customHeight="1">
@@ -1773,7 +1803,7 @@
       <c r="E68" s="14"/>
       <c r="F68" s="9">
         <f t="shared" si="0"/>
-        <v>23770</v>
+        <v>456670</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="14.25" customHeight="1">
@@ -1784,7 +1814,7 @@
       <c r="E69" s="14"/>
       <c r="F69" s="9">
         <f t="shared" si="0"/>
-        <v>23770</v>
+        <v>456670</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="14.25" customHeight="1">
@@ -1795,7 +1825,7 @@
       <c r="E70" s="14"/>
       <c r="F70" s="9">
         <f t="shared" si="0"/>
-        <v>23770</v>
+        <v>456670</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="14.25" customHeight="1">
@@ -1806,7 +1836,7 @@
       <c r="E71" s="14"/>
       <c r="F71" s="9">
         <f t="shared" si="0"/>
-        <v>23770</v>
+        <v>456670</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="14.25" customHeight="1">
@@ -1817,7 +1847,7 @@
       <c r="E72" s="14"/>
       <c r="F72" s="9">
         <f t="shared" si="0"/>
-        <v>23770</v>
+        <v>456670</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="14.25" customHeight="1">
@@ -1828,7 +1858,7 @@
       <c r="E73" s="14"/>
       <c r="F73" s="9">
         <f t="shared" si="0"/>
-        <v>23770</v>
+        <v>456670</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="14.25" customHeight="1">
@@ -1839,7 +1869,7 @@
       <c r="E74" s="14"/>
       <c r="F74" s="9">
         <f t="shared" si="0"/>
-        <v>23770</v>
+        <v>456670</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="14.25" customHeight="1">
@@ -1850,7 +1880,7 @@
       <c r="E75" s="14"/>
       <c r="F75" s="9">
         <f t="shared" si="0"/>
-        <v>23770</v>
+        <v>456670</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="14.25" customHeight="1">
@@ -1861,7 +1891,7 @@
       <c r="E76" s="14"/>
       <c r="F76" s="9">
         <f t="shared" si="0"/>
-        <v>23770</v>
+        <v>456670</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="14.25" customHeight="1">
@@ -1872,7 +1902,7 @@
       <c r="E77" s="14"/>
       <c r="F77" s="9">
         <f t="shared" si="0"/>
-        <v>23770</v>
+        <v>456670</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="14.25" customHeight="1">
@@ -1883,7 +1913,7 @@
       <c r="E78" s="14"/>
       <c r="F78" s="9">
         <f t="shared" si="0"/>
-        <v>23770</v>
+        <v>456670</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="14.25" customHeight="1">
@@ -1894,7 +1924,7 @@
       <c r="E79" s="14"/>
       <c r="F79" s="9">
         <f t="shared" si="0"/>
-        <v>23770</v>
+        <v>456670</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="14.25" customHeight="1">
@@ -1905,7 +1935,7 @@
       <c r="E80" s="14"/>
       <c r="F80" s="9">
         <f t="shared" si="0"/>
-        <v>23770</v>
+        <v>456670</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="14.25" customHeight="1">
@@ -1916,7 +1946,7 @@
       <c r="E81" s="14"/>
       <c r="F81" s="9">
         <f t="shared" si="0"/>
-        <v>23770</v>
+        <v>456670</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="14.25" customHeight="1">
@@ -1927,7 +1957,7 @@
       <c r="E82" s="14"/>
       <c r="F82" s="9">
         <f t="shared" si="0"/>
-        <v>23770</v>
+        <v>456670</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="14.25" customHeight="1">
@@ -1938,7 +1968,7 @@
       <c r="E83" s="14"/>
       <c r="F83" s="9">
         <f t="shared" si="0"/>
-        <v>23770</v>
+        <v>456670</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="14.25" customHeight="1">
@@ -1949,7 +1979,7 @@
       <c r="E84" s="14"/>
       <c r="F84" s="9">
         <f t="shared" si="0"/>
-        <v>23770</v>
+        <v>456670</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="14.25" customHeight="1">
@@ -1960,7 +1990,7 @@
       <c r="E85" s="14"/>
       <c r="F85" s="9">
         <f t="shared" si="0"/>
-        <v>23770</v>
+        <v>456670</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="14.25" customHeight="1">
@@ -1971,7 +2001,7 @@
       <c r="E86" s="14"/>
       <c r="F86" s="9">
         <f t="shared" si="0"/>
-        <v>23770</v>
+        <v>456670</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="14.25" customHeight="1">
@@ -1982,7 +2012,7 @@
       <c r="E87" s="14"/>
       <c r="F87" s="9">
         <f t="shared" si="0"/>
-        <v>23770</v>
+        <v>456670</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="14.25" customHeight="1">
@@ -1992,7 +2022,7 @@
       <c r="E88" s="14"/>
       <c r="F88" s="9">
         <f t="shared" si="0"/>
-        <v>23770</v>
+        <v>456670</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="14.25" customHeight="1">
@@ -2003,7 +2033,7 @@
       <c r="E89" s="14"/>
       <c r="F89" s="9">
         <f t="shared" si="0"/>
-        <v>23770</v>
+        <v>456670</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="14.25" customHeight="1">
@@ -2014,7 +2044,7 @@
       <c r="E90" s="14"/>
       <c r="F90" s="9">
         <f t="shared" si="0"/>
-        <v>23770</v>
+        <v>456670</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="14.25" customHeight="1">
@@ -2025,7 +2055,7 @@
       <c r="E91" s="14"/>
       <c r="F91" s="9">
         <f t="shared" si="0"/>
-        <v>23770</v>
+        <v>456670</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="14.25" customHeight="1">
@@ -2036,52 +2066,52 @@
       <c r="E92" s="14"/>
       <c r="F92" s="9">
         <f t="shared" si="0"/>
-        <v>23770</v>
+        <v>456670</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A93" s="23" t="s">
+      <c r="A93" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B93" s="24"/>
-      <c r="C93" s="25"/>
+      <c r="B93" s="25"/>
+      <c r="C93" s="26"/>
       <c r="D93" s="6">
         <f>SUM(D3:D92)</f>
-        <v>226230</v>
+        <v>293330</v>
       </c>
       <c r="E93" s="17"/>
       <c r="F93" s="9">
         <f t="shared" ref="F93:F94" si="1">F91</f>
-        <v>23770</v>
+        <v>456670</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A94" s="29" t="s">
+      <c r="A94" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="B94" s="27"/>
-      <c r="C94" s="27"/>
-      <c r="D94" s="28"/>
+      <c r="B94" s="28"/>
+      <c r="C94" s="28"/>
+      <c r="D94" s="29"/>
       <c r="E94" s="18">
         <f>SUM(E11:E92)</f>
-        <v>0</v>
+        <v>500000</v>
       </c>
       <c r="F94" s="9">
         <f t="shared" si="1"/>
-        <v>23770</v>
+        <v>456670</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A95" s="30" t="s">
+      <c r="A95" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="B95" s="31"/>
-      <c r="C95" s="31"/>
-      <c r="D95" s="31"/>
-      <c r="E95" s="32"/>
+      <c r="B95" s="32"/>
+      <c r="C95" s="32"/>
+      <c r="D95" s="32"/>
+      <c r="E95" s="33"/>
       <c r="F95" s="19">
         <f>F92</f>
-        <v>23770</v>
+        <v>456670</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="14.25" customHeight="1"/>

--- a/Cash Book/Expenditure Mian Anjum Saeed.xlsx
+++ b/Cash Book/Expenditure Mian Anjum Saeed.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="48">
   <si>
     <t>Date</t>
   </si>
@@ -165,6 +165,9 @@
   </si>
   <si>
     <t>Hussain lace payment</t>
+  </si>
+  <si>
+    <t>Cash payment to Shabaz</t>
   </si>
 </sst>
 </file>
@@ -534,6 +537,8 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -552,8 +557,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -771,8 +774,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z998"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -803,14 +806,14 @@
       <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="H1" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="25"/>
-      <c r="J1" s="26"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="28"/>
       <c r="K1" s="6">
         <f>D93</f>
-        <v>293330</v>
+        <v>643330</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="14.25" customHeight="1">
@@ -830,14 +833,14 @@
       <c r="F2" s="9">
         <v>250000</v>
       </c>
-      <c r="H2" s="27" t="s">
+      <c r="H2" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="28"/>
-      <c r="J2" s="29"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="31"/>
       <c r="K2" s="10">
         <f>F95</f>
-        <v>456670</v>
+        <v>106670</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="14.25" customHeight="1">
@@ -1395,7 +1398,7 @@
       <c r="A32" s="11">
         <v>45855</v>
       </c>
-      <c r="B32" s="34" t="s">
+      <c r="B32" s="24" t="s">
         <v>46</v>
       </c>
       <c r="C32" s="15" t="s">
@@ -1411,14 +1414,22 @@
       </c>
     </row>
     <row r="33" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A33" s="11"/>
-      <c r="B33" s="35"/>
-      <c r="C33" s="15"/>
-      <c r="D33" s="13"/>
+      <c r="A33" s="11">
+        <v>45859</v>
+      </c>
+      <c r="B33" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="C33" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D33" s="13">
+        <v>350000</v>
+      </c>
       <c r="E33" s="14"/>
       <c r="F33" s="9">
         <f t="shared" si="0"/>
-        <v>456670</v>
+        <v>106670</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="14.25" customHeight="1">
@@ -1429,7 +1440,7 @@
       <c r="E34" s="14"/>
       <c r="F34" s="9">
         <f t="shared" si="0"/>
-        <v>456670</v>
+        <v>106670</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="14.25" customHeight="1">
@@ -1440,7 +1451,7 @@
       <c r="E35" s="14"/>
       <c r="F35" s="9">
         <f t="shared" si="0"/>
-        <v>456670</v>
+        <v>106670</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="14.25" customHeight="1">
@@ -1451,7 +1462,7 @@
       <c r="E36" s="14"/>
       <c r="F36" s="9">
         <f t="shared" si="0"/>
-        <v>456670</v>
+        <v>106670</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="14.25" customHeight="1">
@@ -1462,7 +1473,7 @@
       <c r="E37" s="14"/>
       <c r="F37" s="9">
         <f t="shared" si="0"/>
-        <v>456670</v>
+        <v>106670</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="14.25" customHeight="1">
@@ -1473,7 +1484,7 @@
       <c r="E38" s="14"/>
       <c r="F38" s="9">
         <f t="shared" si="0"/>
-        <v>456670</v>
+        <v>106670</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="14.25" customHeight="1">
@@ -1484,7 +1495,7 @@
       <c r="E39" s="14"/>
       <c r="F39" s="9">
         <f t="shared" si="0"/>
-        <v>456670</v>
+        <v>106670</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="14.25" customHeight="1">
@@ -1495,7 +1506,7 @@
       <c r="E40" s="14"/>
       <c r="F40" s="9">
         <f t="shared" si="0"/>
-        <v>456670</v>
+        <v>106670</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="14.25" customHeight="1">
@@ -1506,7 +1517,7 @@
       <c r="E41" s="14"/>
       <c r="F41" s="9">
         <f t="shared" si="0"/>
-        <v>456670</v>
+        <v>106670</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="14.25" customHeight="1">
@@ -1517,7 +1528,7 @@
       <c r="E42" s="14"/>
       <c r="F42" s="9">
         <f t="shared" si="0"/>
-        <v>456670</v>
+        <v>106670</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="14.25" customHeight="1">
@@ -1528,7 +1539,7 @@
       <c r="E43" s="14"/>
       <c r="F43" s="9">
         <f t="shared" si="0"/>
-        <v>456670</v>
+        <v>106670</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="14.25" customHeight="1">
@@ -1539,7 +1550,7 @@
       <c r="E44" s="14"/>
       <c r="F44" s="9">
         <f t="shared" si="0"/>
-        <v>456670</v>
+        <v>106670</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="14.25" customHeight="1">
@@ -1550,7 +1561,7 @@
       <c r="E45" s="14"/>
       <c r="F45" s="9">
         <f t="shared" si="0"/>
-        <v>456670</v>
+        <v>106670</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="14.25" customHeight="1">
@@ -1561,7 +1572,7 @@
       <c r="E46" s="14"/>
       <c r="F46" s="9">
         <f t="shared" si="0"/>
-        <v>456670</v>
+        <v>106670</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="14.25" customHeight="1">
@@ -1572,7 +1583,7 @@
       <c r="E47" s="14"/>
       <c r="F47" s="9">
         <f t="shared" si="0"/>
-        <v>456670</v>
+        <v>106670</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="14.25" customHeight="1">
@@ -1583,7 +1594,7 @@
       <c r="E48" s="14"/>
       <c r="F48" s="9">
         <f t="shared" si="0"/>
-        <v>456670</v>
+        <v>106670</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="14.25" customHeight="1">
@@ -1594,7 +1605,7 @@
       <c r="E49" s="14"/>
       <c r="F49" s="9">
         <f t="shared" si="0"/>
-        <v>456670</v>
+        <v>106670</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="14.25" customHeight="1">
@@ -1605,7 +1616,7 @@
       <c r="E50" s="14"/>
       <c r="F50" s="9">
         <f t="shared" si="0"/>
-        <v>456670</v>
+        <v>106670</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="14.25" customHeight="1">
@@ -1616,7 +1627,7 @@
       <c r="E51" s="14"/>
       <c r="F51" s="9">
         <f t="shared" si="0"/>
-        <v>456670</v>
+        <v>106670</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="14.25" customHeight="1">
@@ -1627,7 +1638,7 @@
       <c r="E52" s="14"/>
       <c r="F52" s="9">
         <f t="shared" si="0"/>
-        <v>456670</v>
+        <v>106670</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="14.25" customHeight="1">
@@ -1638,7 +1649,7 @@
       <c r="E53" s="14"/>
       <c r="F53" s="9">
         <f t="shared" si="0"/>
-        <v>456670</v>
+        <v>106670</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="14.25" customHeight="1">
@@ -1649,7 +1660,7 @@
       <c r="E54" s="14"/>
       <c r="F54" s="9">
         <f t="shared" si="0"/>
-        <v>456670</v>
+        <v>106670</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="14.25" customHeight="1">
@@ -1660,7 +1671,7 @@
       <c r="E55" s="14"/>
       <c r="F55" s="9">
         <f t="shared" si="0"/>
-        <v>456670</v>
+        <v>106670</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="14.25" customHeight="1">
@@ -1671,7 +1682,7 @@
       <c r="E56" s="14"/>
       <c r="F56" s="9">
         <f t="shared" si="0"/>
-        <v>456670</v>
+        <v>106670</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="14.25" customHeight="1">
@@ -1682,7 +1693,7 @@
       <c r="E57" s="14"/>
       <c r="F57" s="9">
         <f t="shared" si="0"/>
-        <v>456670</v>
+        <v>106670</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="14.25" customHeight="1">
@@ -1693,7 +1704,7 @@
       <c r="E58" s="14"/>
       <c r="F58" s="9">
         <f t="shared" si="0"/>
-        <v>456670</v>
+        <v>106670</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="14.25" customHeight="1">
@@ -1704,7 +1715,7 @@
       <c r="E59" s="14"/>
       <c r="F59" s="9">
         <f t="shared" si="0"/>
-        <v>456670</v>
+        <v>106670</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="14.25" customHeight="1">
@@ -1715,7 +1726,7 @@
       <c r="E60" s="14"/>
       <c r="F60" s="9">
         <f t="shared" si="0"/>
-        <v>456670</v>
+        <v>106670</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="14.25" customHeight="1">
@@ -1726,7 +1737,7 @@
       <c r="E61" s="14"/>
       <c r="F61" s="9">
         <f t="shared" si="0"/>
-        <v>456670</v>
+        <v>106670</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="14.25" customHeight="1">
@@ -1737,7 +1748,7 @@
       <c r="E62" s="14"/>
       <c r="F62" s="9">
         <f t="shared" si="0"/>
-        <v>456670</v>
+        <v>106670</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="14.25" customHeight="1">
@@ -1748,7 +1759,7 @@
       <c r="E63" s="14"/>
       <c r="F63" s="9">
         <f t="shared" si="0"/>
-        <v>456670</v>
+        <v>106670</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="14.25" customHeight="1">
@@ -1759,7 +1770,7 @@
       <c r="E64" s="14"/>
       <c r="F64" s="9">
         <f t="shared" si="0"/>
-        <v>456670</v>
+        <v>106670</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="14.25" customHeight="1">
@@ -1770,7 +1781,7 @@
       <c r="E65" s="14"/>
       <c r="F65" s="9">
         <f t="shared" si="0"/>
-        <v>456670</v>
+        <v>106670</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="14.25" customHeight="1">
@@ -1781,7 +1792,7 @@
       <c r="E66" s="14"/>
       <c r="F66" s="9">
         <f t="shared" si="0"/>
-        <v>456670</v>
+        <v>106670</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="14.25" customHeight="1">
@@ -1792,7 +1803,7 @@
       <c r="E67" s="14"/>
       <c r="F67" s="9">
         <f t="shared" si="0"/>
-        <v>456670</v>
+        <v>106670</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="14.25" customHeight="1">
@@ -1803,7 +1814,7 @@
       <c r="E68" s="14"/>
       <c r="F68" s="9">
         <f t="shared" si="0"/>
-        <v>456670</v>
+        <v>106670</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="14.25" customHeight="1">
@@ -1814,7 +1825,7 @@
       <c r="E69" s="14"/>
       <c r="F69" s="9">
         <f t="shared" si="0"/>
-        <v>456670</v>
+        <v>106670</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="14.25" customHeight="1">
@@ -1825,7 +1836,7 @@
       <c r="E70" s="14"/>
       <c r="F70" s="9">
         <f t="shared" si="0"/>
-        <v>456670</v>
+        <v>106670</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="14.25" customHeight="1">
@@ -1836,7 +1847,7 @@
       <c r="E71" s="14"/>
       <c r="F71" s="9">
         <f t="shared" si="0"/>
-        <v>456670</v>
+        <v>106670</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="14.25" customHeight="1">
@@ -1847,7 +1858,7 @@
       <c r="E72" s="14"/>
       <c r="F72" s="9">
         <f t="shared" si="0"/>
-        <v>456670</v>
+        <v>106670</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="14.25" customHeight="1">
@@ -1858,7 +1869,7 @@
       <c r="E73" s="14"/>
       <c r="F73" s="9">
         <f t="shared" si="0"/>
-        <v>456670</v>
+        <v>106670</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="14.25" customHeight="1">
@@ -1869,7 +1880,7 @@
       <c r="E74" s="14"/>
       <c r="F74" s="9">
         <f t="shared" si="0"/>
-        <v>456670</v>
+        <v>106670</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="14.25" customHeight="1">
@@ -1880,7 +1891,7 @@
       <c r="E75" s="14"/>
       <c r="F75" s="9">
         <f t="shared" si="0"/>
-        <v>456670</v>
+        <v>106670</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="14.25" customHeight="1">
@@ -1891,7 +1902,7 @@
       <c r="E76" s="14"/>
       <c r="F76" s="9">
         <f t="shared" si="0"/>
-        <v>456670</v>
+        <v>106670</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="14.25" customHeight="1">
@@ -1902,7 +1913,7 @@
       <c r="E77" s="14"/>
       <c r="F77" s="9">
         <f t="shared" si="0"/>
-        <v>456670</v>
+        <v>106670</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="14.25" customHeight="1">
@@ -1913,7 +1924,7 @@
       <c r="E78" s="14"/>
       <c r="F78" s="9">
         <f t="shared" si="0"/>
-        <v>456670</v>
+        <v>106670</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="14.25" customHeight="1">
@@ -1924,7 +1935,7 @@
       <c r="E79" s="14"/>
       <c r="F79" s="9">
         <f t="shared" si="0"/>
-        <v>456670</v>
+        <v>106670</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="14.25" customHeight="1">
@@ -1935,7 +1946,7 @@
       <c r="E80" s="14"/>
       <c r="F80" s="9">
         <f t="shared" si="0"/>
-        <v>456670</v>
+        <v>106670</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="14.25" customHeight="1">
@@ -1946,7 +1957,7 @@
       <c r="E81" s="14"/>
       <c r="F81" s="9">
         <f t="shared" si="0"/>
-        <v>456670</v>
+        <v>106670</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="14.25" customHeight="1">
@@ -1957,7 +1968,7 @@
       <c r="E82" s="14"/>
       <c r="F82" s="9">
         <f t="shared" si="0"/>
-        <v>456670</v>
+        <v>106670</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="14.25" customHeight="1">
@@ -1968,7 +1979,7 @@
       <c r="E83" s="14"/>
       <c r="F83" s="9">
         <f t="shared" si="0"/>
-        <v>456670</v>
+        <v>106670</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="14.25" customHeight="1">
@@ -1979,7 +1990,7 @@
       <c r="E84" s="14"/>
       <c r="F84" s="9">
         <f t="shared" si="0"/>
-        <v>456670</v>
+        <v>106670</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="14.25" customHeight="1">
@@ -1990,7 +2001,7 @@
       <c r="E85" s="14"/>
       <c r="F85" s="9">
         <f t="shared" si="0"/>
-        <v>456670</v>
+        <v>106670</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="14.25" customHeight="1">
@@ -2001,7 +2012,7 @@
       <c r="E86" s="14"/>
       <c r="F86" s="9">
         <f t="shared" si="0"/>
-        <v>456670</v>
+        <v>106670</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="14.25" customHeight="1">
@@ -2012,7 +2023,7 @@
       <c r="E87" s="14"/>
       <c r="F87" s="9">
         <f t="shared" si="0"/>
-        <v>456670</v>
+        <v>106670</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="14.25" customHeight="1">
@@ -2022,7 +2033,7 @@
       <c r="E88" s="14"/>
       <c r="F88" s="9">
         <f t="shared" si="0"/>
-        <v>456670</v>
+        <v>106670</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="14.25" customHeight="1">
@@ -2033,7 +2044,7 @@
       <c r="E89" s="14"/>
       <c r="F89" s="9">
         <f t="shared" si="0"/>
-        <v>456670</v>
+        <v>106670</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="14.25" customHeight="1">
@@ -2044,7 +2055,7 @@
       <c r="E90" s="14"/>
       <c r="F90" s="9">
         <f t="shared" si="0"/>
-        <v>456670</v>
+        <v>106670</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="14.25" customHeight="1">
@@ -2055,7 +2066,7 @@
       <c r="E91" s="14"/>
       <c r="F91" s="9">
         <f t="shared" si="0"/>
-        <v>456670</v>
+        <v>106670</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="14.25" customHeight="1">
@@ -2066,52 +2077,52 @@
       <c r="E92" s="14"/>
       <c r="F92" s="9">
         <f t="shared" si="0"/>
-        <v>456670</v>
+        <v>106670</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A93" s="24" t="s">
+      <c r="A93" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B93" s="25"/>
-      <c r="C93" s="26"/>
+      <c r="B93" s="27"/>
+      <c r="C93" s="28"/>
       <c r="D93" s="6">
         <f>SUM(D3:D92)</f>
-        <v>293330</v>
+        <v>643330</v>
       </c>
       <c r="E93" s="17"/>
       <c r="F93" s="9">
         <f t="shared" ref="F93:F94" si="1">F91</f>
-        <v>456670</v>
+        <v>106670</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A94" s="30" t="s">
+      <c r="A94" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="B94" s="28"/>
-      <c r="C94" s="28"/>
-      <c r="D94" s="29"/>
+      <c r="B94" s="30"/>
+      <c r="C94" s="30"/>
+      <c r="D94" s="31"/>
       <c r="E94" s="18">
         <f>SUM(E11:E92)</f>
         <v>500000</v>
       </c>
       <c r="F94" s="9">
         <f t="shared" si="1"/>
-        <v>456670</v>
+        <v>106670</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A95" s="31" t="s">
+      <c r="A95" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B95" s="32"/>
-      <c r="C95" s="32"/>
-      <c r="D95" s="32"/>
-      <c r="E95" s="33"/>
+      <c r="B95" s="34"/>
+      <c r="C95" s="34"/>
+      <c r="D95" s="34"/>
+      <c r="E95" s="35"/>
       <c r="F95" s="19">
         <f>F92</f>
-        <v>456670</v>
+        <v>106670</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="14.25" customHeight="1"/>

--- a/Cash Book/Expenditure Mian Anjum Saeed.xlsx
+++ b/Cash Book/Expenditure Mian Anjum Saeed.xlsx
@@ -1,21 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mian-Industries\Cash Book\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Mian-Industries\Mian-Industries\Cash Book\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AAE2E49-21C6-47E0-8CE1-9CE01B754A57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Up untill 2025" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="zt5VEtdFQn/DbdUmDWlfVAnffxhstJbwJwC9e/aXKFI="/>
     </ext>
@@ -173,7 +185,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
@@ -476,7 +488,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -537,8 +549,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -771,20 +781,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z998"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="30.5546875" customWidth="1"/>
-    <col min="2" max="2" width="44.6640625" customWidth="1"/>
-    <col min="4" max="4" width="9.88671875" customWidth="1"/>
-    <col min="5" max="5" width="11.5546875" customWidth="1"/>
-    <col min="6" max="26" width="8.6640625" customWidth="1"/>
+    <col min="1" max="1" width="30.5703125" customWidth="1"/>
+    <col min="2" max="2" width="44.7109375" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" customWidth="1"/>
+    <col min="6" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="14.25" customHeight="1">
@@ -806,11 +816,11 @@
       <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="26" t="s">
+      <c r="H1" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="27"/>
-      <c r="J1" s="28"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="26"/>
       <c r="K1" s="6">
         <f>D93</f>
         <v>643330</v>
@@ -833,14 +843,14 @@
       <c r="F2" s="9">
         <v>250000</v>
       </c>
-      <c r="H2" s="29" t="s">
+      <c r="H2" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="30"/>
-      <c r="J2" s="31"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="29"/>
       <c r="K2" s="10">
         <f>F95</f>
-        <v>106670</v>
+        <v>-393330</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="14.25" customHeight="1">
@@ -1398,7 +1408,7 @@
       <c r="A32" s="11">
         <v>45855</v>
       </c>
-      <c r="B32" s="24" t="s">
+      <c r="B32" s="12" t="s">
         <v>46</v>
       </c>
       <c r="C32" s="15" t="s">
@@ -1406,18 +1416,18 @@
       </c>
       <c r="D32" s="13"/>
       <c r="E32" s="14">
-        <v>500000</v>
+        <v>0</v>
       </c>
       <c r="F32" s="9">
         <f t="shared" si="0"/>
-        <v>456670</v>
+        <v>-43330</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="14.25" customHeight="1">
       <c r="A33" s="11">
         <v>45859</v>
       </c>
-      <c r="B33" s="25" t="s">
+      <c r="B33" s="15" t="s">
         <v>47</v>
       </c>
       <c r="C33" s="15" t="s">
@@ -1429,7 +1439,7 @@
       <c r="E33" s="14"/>
       <c r="F33" s="9">
         <f t="shared" si="0"/>
-        <v>106670</v>
+        <v>-393330</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="14.25" customHeight="1">
@@ -1440,7 +1450,7 @@
       <c r="E34" s="14"/>
       <c r="F34" s="9">
         <f t="shared" si="0"/>
-        <v>106670</v>
+        <v>-393330</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="14.25" customHeight="1">
@@ -1451,7 +1461,7 @@
       <c r="E35" s="14"/>
       <c r="F35" s="9">
         <f t="shared" si="0"/>
-        <v>106670</v>
+        <v>-393330</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="14.25" customHeight="1">
@@ -1462,7 +1472,7 @@
       <c r="E36" s="14"/>
       <c r="F36" s="9">
         <f t="shared" si="0"/>
-        <v>106670</v>
+        <v>-393330</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="14.25" customHeight="1">
@@ -1473,7 +1483,7 @@
       <c r="E37" s="14"/>
       <c r="F37" s="9">
         <f t="shared" si="0"/>
-        <v>106670</v>
+        <v>-393330</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="14.25" customHeight="1">
@@ -1484,7 +1494,7 @@
       <c r="E38" s="14"/>
       <c r="F38" s="9">
         <f t="shared" si="0"/>
-        <v>106670</v>
+        <v>-393330</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="14.25" customHeight="1">
@@ -1495,7 +1505,7 @@
       <c r="E39" s="14"/>
       <c r="F39" s="9">
         <f t="shared" si="0"/>
-        <v>106670</v>
+        <v>-393330</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="14.25" customHeight="1">
@@ -1506,7 +1516,7 @@
       <c r="E40" s="14"/>
       <c r="F40" s="9">
         <f t="shared" si="0"/>
-        <v>106670</v>
+        <v>-393330</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="14.25" customHeight="1">
@@ -1517,7 +1527,7 @@
       <c r="E41" s="14"/>
       <c r="F41" s="9">
         <f t="shared" si="0"/>
-        <v>106670</v>
+        <v>-393330</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="14.25" customHeight="1">
@@ -1528,7 +1538,7 @@
       <c r="E42" s="14"/>
       <c r="F42" s="9">
         <f t="shared" si="0"/>
-        <v>106670</v>
+        <v>-393330</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="14.25" customHeight="1">
@@ -1539,7 +1549,7 @@
       <c r="E43" s="14"/>
       <c r="F43" s="9">
         <f t="shared" si="0"/>
-        <v>106670</v>
+        <v>-393330</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="14.25" customHeight="1">
@@ -1550,7 +1560,7 @@
       <c r="E44" s="14"/>
       <c r="F44" s="9">
         <f t="shared" si="0"/>
-        <v>106670</v>
+        <v>-393330</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="14.25" customHeight="1">
@@ -1561,7 +1571,7 @@
       <c r="E45" s="14"/>
       <c r="F45" s="9">
         <f t="shared" si="0"/>
-        <v>106670</v>
+        <v>-393330</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="14.25" customHeight="1">
@@ -1572,7 +1582,7 @@
       <c r="E46" s="14"/>
       <c r="F46" s="9">
         <f t="shared" si="0"/>
-        <v>106670</v>
+        <v>-393330</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="14.25" customHeight="1">
@@ -1583,7 +1593,7 @@
       <c r="E47" s="14"/>
       <c r="F47" s="9">
         <f t="shared" si="0"/>
-        <v>106670</v>
+        <v>-393330</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="14.25" customHeight="1">
@@ -1594,7 +1604,7 @@
       <c r="E48" s="14"/>
       <c r="F48" s="9">
         <f t="shared" si="0"/>
-        <v>106670</v>
+        <v>-393330</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="14.25" customHeight="1">
@@ -1605,7 +1615,7 @@
       <c r="E49" s="14"/>
       <c r="F49" s="9">
         <f t="shared" si="0"/>
-        <v>106670</v>
+        <v>-393330</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="14.25" customHeight="1">
@@ -1616,7 +1626,7 @@
       <c r="E50" s="14"/>
       <c r="F50" s="9">
         <f t="shared" si="0"/>
-        <v>106670</v>
+        <v>-393330</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="14.25" customHeight="1">
@@ -1627,7 +1637,7 @@
       <c r="E51" s="14"/>
       <c r="F51" s="9">
         <f t="shared" si="0"/>
-        <v>106670</v>
+        <v>-393330</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="14.25" customHeight="1">
@@ -1638,7 +1648,7 @@
       <c r="E52" s="14"/>
       <c r="F52" s="9">
         <f t="shared" si="0"/>
-        <v>106670</v>
+        <v>-393330</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="14.25" customHeight="1">
@@ -1649,7 +1659,7 @@
       <c r="E53" s="14"/>
       <c r="F53" s="9">
         <f t="shared" si="0"/>
-        <v>106670</v>
+        <v>-393330</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="14.25" customHeight="1">
@@ -1660,7 +1670,7 @@
       <c r="E54" s="14"/>
       <c r="F54" s="9">
         <f t="shared" si="0"/>
-        <v>106670</v>
+        <v>-393330</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="14.25" customHeight="1">
@@ -1671,7 +1681,7 @@
       <c r="E55" s="14"/>
       <c r="F55" s="9">
         <f t="shared" si="0"/>
-        <v>106670</v>
+        <v>-393330</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="14.25" customHeight="1">
@@ -1682,7 +1692,7 @@
       <c r="E56" s="14"/>
       <c r="F56" s="9">
         <f t="shared" si="0"/>
-        <v>106670</v>
+        <v>-393330</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="14.25" customHeight="1">
@@ -1693,7 +1703,7 @@
       <c r="E57" s="14"/>
       <c r="F57" s="9">
         <f t="shared" si="0"/>
-        <v>106670</v>
+        <v>-393330</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="14.25" customHeight="1">
@@ -1704,7 +1714,7 @@
       <c r="E58" s="14"/>
       <c r="F58" s="9">
         <f t="shared" si="0"/>
-        <v>106670</v>
+        <v>-393330</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="14.25" customHeight="1">
@@ -1715,7 +1725,7 @@
       <c r="E59" s="14"/>
       <c r="F59" s="9">
         <f t="shared" si="0"/>
-        <v>106670</v>
+        <v>-393330</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="14.25" customHeight="1">
@@ -1726,7 +1736,7 @@
       <c r="E60" s="14"/>
       <c r="F60" s="9">
         <f t="shared" si="0"/>
-        <v>106670</v>
+        <v>-393330</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="14.25" customHeight="1">
@@ -1737,7 +1747,7 @@
       <c r="E61" s="14"/>
       <c r="F61" s="9">
         <f t="shared" si="0"/>
-        <v>106670</v>
+        <v>-393330</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="14.25" customHeight="1">
@@ -1748,7 +1758,7 @@
       <c r="E62" s="14"/>
       <c r="F62" s="9">
         <f t="shared" si="0"/>
-        <v>106670</v>
+        <v>-393330</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="14.25" customHeight="1">
@@ -1759,7 +1769,7 @@
       <c r="E63" s="14"/>
       <c r="F63" s="9">
         <f t="shared" si="0"/>
-        <v>106670</v>
+        <v>-393330</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="14.25" customHeight="1">
@@ -1770,7 +1780,7 @@
       <c r="E64" s="14"/>
       <c r="F64" s="9">
         <f t="shared" si="0"/>
-        <v>106670</v>
+        <v>-393330</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="14.25" customHeight="1">
@@ -1781,7 +1791,7 @@
       <c r="E65" s="14"/>
       <c r="F65" s="9">
         <f t="shared" si="0"/>
-        <v>106670</v>
+        <v>-393330</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="14.25" customHeight="1">
@@ -1792,7 +1802,7 @@
       <c r="E66" s="14"/>
       <c r="F66" s="9">
         <f t="shared" si="0"/>
-        <v>106670</v>
+        <v>-393330</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="14.25" customHeight="1">
@@ -1803,7 +1813,7 @@
       <c r="E67" s="14"/>
       <c r="F67" s="9">
         <f t="shared" si="0"/>
-        <v>106670</v>
+        <v>-393330</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="14.25" customHeight="1">
@@ -1814,7 +1824,7 @@
       <c r="E68" s="14"/>
       <c r="F68" s="9">
         <f t="shared" si="0"/>
-        <v>106670</v>
+        <v>-393330</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="14.25" customHeight="1">
@@ -1825,7 +1835,7 @@
       <c r="E69" s="14"/>
       <c r="F69" s="9">
         <f t="shared" si="0"/>
-        <v>106670</v>
+        <v>-393330</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="14.25" customHeight="1">
@@ -1836,7 +1846,7 @@
       <c r="E70" s="14"/>
       <c r="F70" s="9">
         <f t="shared" si="0"/>
-        <v>106670</v>
+        <v>-393330</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="14.25" customHeight="1">
@@ -1847,7 +1857,7 @@
       <c r="E71" s="14"/>
       <c r="F71" s="9">
         <f t="shared" si="0"/>
-        <v>106670</v>
+        <v>-393330</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="14.25" customHeight="1">
@@ -1858,7 +1868,7 @@
       <c r="E72" s="14"/>
       <c r="F72" s="9">
         <f t="shared" si="0"/>
-        <v>106670</v>
+        <v>-393330</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="14.25" customHeight="1">
@@ -1869,7 +1879,7 @@
       <c r="E73" s="14"/>
       <c r="F73" s="9">
         <f t="shared" si="0"/>
-        <v>106670</v>
+        <v>-393330</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="14.25" customHeight="1">
@@ -1880,7 +1890,7 @@
       <c r="E74" s="14"/>
       <c r="F74" s="9">
         <f t="shared" si="0"/>
-        <v>106670</v>
+        <v>-393330</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="14.25" customHeight="1">
@@ -1891,7 +1901,7 @@
       <c r="E75" s="14"/>
       <c r="F75" s="9">
         <f t="shared" si="0"/>
-        <v>106670</v>
+        <v>-393330</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="14.25" customHeight="1">
@@ -1902,7 +1912,7 @@
       <c r="E76" s="14"/>
       <c r="F76" s="9">
         <f t="shared" si="0"/>
-        <v>106670</v>
+        <v>-393330</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="14.25" customHeight="1">
@@ -1913,7 +1923,7 @@
       <c r="E77" s="14"/>
       <c r="F77" s="9">
         <f t="shared" si="0"/>
-        <v>106670</v>
+        <v>-393330</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="14.25" customHeight="1">
@@ -1924,7 +1934,7 @@
       <c r="E78" s="14"/>
       <c r="F78" s="9">
         <f t="shared" si="0"/>
-        <v>106670</v>
+        <v>-393330</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="14.25" customHeight="1">
@@ -1935,7 +1945,7 @@
       <c r="E79" s="14"/>
       <c r="F79" s="9">
         <f t="shared" si="0"/>
-        <v>106670</v>
+        <v>-393330</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="14.25" customHeight="1">
@@ -1946,7 +1956,7 @@
       <c r="E80" s="14"/>
       <c r="F80" s="9">
         <f t="shared" si="0"/>
-        <v>106670</v>
+        <v>-393330</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="14.25" customHeight="1">
@@ -1957,7 +1967,7 @@
       <c r="E81" s="14"/>
       <c r="F81" s="9">
         <f t="shared" si="0"/>
-        <v>106670</v>
+        <v>-393330</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="14.25" customHeight="1">
@@ -1968,7 +1978,7 @@
       <c r="E82" s="14"/>
       <c r="F82" s="9">
         <f t="shared" si="0"/>
-        <v>106670</v>
+        <v>-393330</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="14.25" customHeight="1">
@@ -1979,7 +1989,7 @@
       <c r="E83" s="14"/>
       <c r="F83" s="9">
         <f t="shared" si="0"/>
-        <v>106670</v>
+        <v>-393330</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="14.25" customHeight="1">
@@ -1990,7 +2000,7 @@
       <c r="E84" s="14"/>
       <c r="F84" s="9">
         <f t="shared" si="0"/>
-        <v>106670</v>
+        <v>-393330</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="14.25" customHeight="1">
@@ -2001,7 +2011,7 @@
       <c r="E85" s="14"/>
       <c r="F85" s="9">
         <f t="shared" si="0"/>
-        <v>106670</v>
+        <v>-393330</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="14.25" customHeight="1">
@@ -2012,7 +2022,7 @@
       <c r="E86" s="14"/>
       <c r="F86" s="9">
         <f t="shared" si="0"/>
-        <v>106670</v>
+        <v>-393330</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="14.25" customHeight="1">
@@ -2023,7 +2033,7 @@
       <c r="E87" s="14"/>
       <c r="F87" s="9">
         <f t="shared" si="0"/>
-        <v>106670</v>
+        <v>-393330</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="14.25" customHeight="1">
@@ -2033,7 +2043,7 @@
       <c r="E88" s="14"/>
       <c r="F88" s="9">
         <f t="shared" si="0"/>
-        <v>106670</v>
+        <v>-393330</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="14.25" customHeight="1">
@@ -2044,7 +2054,7 @@
       <c r="E89" s="14"/>
       <c r="F89" s="9">
         <f t="shared" si="0"/>
-        <v>106670</v>
+        <v>-393330</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="14.25" customHeight="1">
@@ -2055,7 +2065,7 @@
       <c r="E90" s="14"/>
       <c r="F90" s="9">
         <f t="shared" si="0"/>
-        <v>106670</v>
+        <v>-393330</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="14.25" customHeight="1">
@@ -2066,7 +2076,7 @@
       <c r="E91" s="14"/>
       <c r="F91" s="9">
         <f t="shared" si="0"/>
-        <v>106670</v>
+        <v>-393330</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="14.25" customHeight="1">
@@ -2077,15 +2087,15 @@
       <c r="E92" s="14"/>
       <c r="F92" s="9">
         <f t="shared" si="0"/>
-        <v>106670</v>
+        <v>-393330</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A93" s="26" t="s">
+      <c r="A93" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B93" s="27"/>
-      <c r="C93" s="28"/>
+      <c r="B93" s="25"/>
+      <c r="C93" s="26"/>
       <c r="D93" s="6">
         <f>SUM(D3:D92)</f>
         <v>643330</v>
@@ -2093,36 +2103,36 @@
       <c r="E93" s="17"/>
       <c r="F93" s="9">
         <f t="shared" ref="F93:F94" si="1">F91</f>
-        <v>106670</v>
+        <v>-393330</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A94" s="32" t="s">
+      <c r="A94" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="B94" s="30"/>
-      <c r="C94" s="30"/>
-      <c r="D94" s="31"/>
+      <c r="B94" s="28"/>
+      <c r="C94" s="28"/>
+      <c r="D94" s="29"/>
       <c r="E94" s="18">
         <f>SUM(E11:E92)</f>
-        <v>500000</v>
+        <v>0</v>
       </c>
       <c r="F94" s="9">
         <f t="shared" si="1"/>
-        <v>106670</v>
+        <v>-393330</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A95" s="33" t="s">
+      <c r="A95" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="B95" s="34"/>
-      <c r="C95" s="34"/>
-      <c r="D95" s="34"/>
-      <c r="E95" s="35"/>
+      <c r="B95" s="32"/>
+      <c r="C95" s="32"/>
+      <c r="D95" s="32"/>
+      <c r="E95" s="33"/>
       <c r="F95" s="19">
         <f>F92</f>
-        <v>106670</v>
+        <v>-393330</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="14.25" customHeight="1"/>

--- a/Cash Book/Expenditure Mian Anjum Saeed.xlsx
+++ b/Cash Book/Expenditure Mian Anjum Saeed.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Mian-Industries\Mian-Industries\Cash Book\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Mian-Industries\Cash Book\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AAE2E49-21C6-47E0-8CE1-9CE01B754A57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Up untill 2025" sheetId="1" r:id="rId1"/>
@@ -185,7 +184,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
@@ -781,20 +780,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="30.5703125" customWidth="1"/>
-    <col min="2" max="2" width="44.7109375" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" customWidth="1"/>
-    <col min="6" max="26" width="8.7109375" customWidth="1"/>
+    <col min="1" max="1" width="30.5546875" customWidth="1"/>
+    <col min="2" max="2" width="44.6640625" customWidth="1"/>
+    <col min="4" max="4" width="9.88671875" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" customWidth="1"/>
+    <col min="6" max="26" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="14.25" customHeight="1">

--- a/Cash Book/Expenditure Mian Anjum Saeed.xlsx
+++ b/Cash Book/Expenditure Mian Anjum Saeed.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Mian-Industries\Cash Book\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E12429AC-1F20-4C77-8CCA-1D3CDD41AC60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D447E130-FC6B-4D61-9602-62001CBDEB84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="51">
   <si>
     <t>Date</t>
   </si>
@@ -154,6 +154,30 @@
   </si>
   <si>
     <t>Petrol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anjum Sahb For 22 Labor Advance </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shakeel </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anjum Sahb For 22 Staff Advance </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chokidar </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ali Designer </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Electrician Itms </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wooden Itms </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wooden Itms Additional </t>
   </si>
 </sst>
 </file>
@@ -522,6 +546,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -540,7 +565,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -758,8 +782,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z998"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -790,32 +814,35 @@
       <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="24"/>
-      <c r="J1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="26"/>
       <c r="K1" s="6">
         <f>D93</f>
-        <v>226230</v>
+        <v>336798</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="14.25" customHeight="1">
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
       <c r="D2" s="8"/>
-      <c r="E2" s="4"/>
+      <c r="E2" s="4">
+        <v>250000</v>
+      </c>
       <c r="F2" s="9">
+        <f>E2</f>
         <v>250000</v>
       </c>
-      <c r="H2" s="26" t="s">
+      <c r="H2" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="27"/>
-      <c r="J2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="29"/>
       <c r="K2" s="10">
         <f>F95</f>
-        <v>23770</v>
+        <v>-86798</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="14.25" customHeight="1">
@@ -833,7 +860,7 @@
       </c>
       <c r="E3" s="14"/>
       <c r="F3" s="9">
-        <f t="shared" ref="F3:F92" si="0">(E3-D3)+F2</f>
+        <f>F2+E3-D3</f>
         <v>216000</v>
       </c>
     </row>
@@ -852,7 +879,7 @@
       </c>
       <c r="E4" s="14"/>
       <c r="F4" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="F4:F53" si="0">F3+E4-D4</f>
         <v>208000</v>
       </c>
     </row>
@@ -1297,7 +1324,7 @@
       <c r="A28" s="16">
         <v>45860</v>
       </c>
-      <c r="B28" s="33" t="s">
+      <c r="B28" s="23" t="s">
         <v>40</v>
       </c>
       <c r="C28" s="15" t="s">
@@ -1316,7 +1343,7 @@
       <c r="A29" s="16">
         <v>45860</v>
       </c>
-      <c r="B29" s="33" t="s">
+      <c r="B29" s="23" t="s">
         <v>25</v>
       </c>
       <c r="C29" s="15" t="s">
@@ -1335,7 +1362,7 @@
       <c r="A30" s="16">
         <v>45860</v>
       </c>
-      <c r="B30" s="33" t="s">
+      <c r="B30" s="23" t="s">
         <v>41</v>
       </c>
       <c r="C30" s="15" t="s">
@@ -1354,7 +1381,7 @@
       <c r="A31" s="16">
         <v>45861</v>
       </c>
-      <c r="B31" s="33" t="s">
+      <c r="B31" s="23" t="s">
         <v>42</v>
       </c>
       <c r="C31" s="15" t="s">
@@ -1370,80 +1397,136 @@
       </c>
     </row>
     <row r="32" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A32" s="16"/>
-      <c r="B32" s="15"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="13"/>
+      <c r="A32" s="16">
+        <v>45861</v>
+      </c>
+      <c r="B32" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D32" s="13">
+        <v>10000</v>
+      </c>
       <c r="E32" s="14"/>
       <c r="F32" s="9">
         <f t="shared" si="0"/>
-        <v>23770</v>
+        <v>13770</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A33" s="16"/>
-      <c r="B33" s="15"/>
-      <c r="C33" s="15"/>
-      <c r="D33" s="13"/>
+      <c r="A33" s="16">
+        <v>45861</v>
+      </c>
+      <c r="B33" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C33" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D33" s="13">
+        <v>4000</v>
+      </c>
       <c r="E33" s="14"/>
       <c r="F33" s="9">
         <f t="shared" si="0"/>
-        <v>23770</v>
+        <v>9770</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A34" s="16"/>
-      <c r="B34" s="15"/>
-      <c r="C34" s="15"/>
-      <c r="D34" s="13"/>
+      <c r="A34" s="16">
+        <v>45861</v>
+      </c>
+      <c r="B34" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C34" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D34" s="13">
+        <v>10000</v>
+      </c>
       <c r="E34" s="14"/>
       <c r="F34" s="9">
         <f t="shared" si="0"/>
-        <v>23770</v>
+        <v>-230</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A35" s="16"/>
-      <c r="B35" s="15"/>
-      <c r="C35" s="15"/>
-      <c r="D35" s="13"/>
+      <c r="A35" s="16">
+        <v>45862</v>
+      </c>
+      <c r="B35" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C35" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" s="13">
+        <v>23500</v>
+      </c>
       <c r="E35" s="14"/>
       <c r="F35" s="9">
         <f t="shared" si="0"/>
-        <v>23770</v>
+        <v>-23730</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A36" s="16"/>
-      <c r="B36" s="15"/>
-      <c r="C36" s="15"/>
-      <c r="D36" s="13"/>
+      <c r="A36" s="16">
+        <v>45862</v>
+      </c>
+      <c r="B36" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="C36" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" s="13">
+        <v>12168</v>
+      </c>
       <c r="E36" s="14"/>
       <c r="F36" s="9">
         <f t="shared" si="0"/>
-        <v>23770</v>
+        <v>-35898</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A37" s="16"/>
-      <c r="B37" s="15"/>
-      <c r="C37" s="15"/>
-      <c r="D37" s="13"/>
+      <c r="A37" s="16">
+        <v>45863</v>
+      </c>
+      <c r="B37" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C37" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" s="13">
+        <v>48500</v>
+      </c>
       <c r="E37" s="14"/>
       <c r="F37" s="9">
         <f t="shared" si="0"/>
-        <v>23770</v>
+        <v>-84398</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A38" s="16"/>
-      <c r="B38" s="15"/>
-      <c r="C38" s="15"/>
-      <c r="D38" s="13"/>
+      <c r="A38" s="16">
+        <v>45863</v>
+      </c>
+      <c r="B38" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="C38" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" s="13">
+        <v>2400</v>
+      </c>
       <c r="E38" s="14"/>
       <c r="F38" s="9">
         <f t="shared" si="0"/>
-        <v>23770</v>
+        <v>-86798</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="14.25" customHeight="1">
@@ -1454,7 +1537,7 @@
       <c r="E39" s="14"/>
       <c r="F39" s="9">
         <f t="shared" si="0"/>
-        <v>23770</v>
+        <v>-86798</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="14.25" customHeight="1">
@@ -1465,7 +1548,7 @@
       <c r="E40" s="14"/>
       <c r="F40" s="9">
         <f t="shared" si="0"/>
-        <v>23770</v>
+        <v>-86798</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="14.25" customHeight="1">
@@ -1476,7 +1559,7 @@
       <c r="E41" s="14"/>
       <c r="F41" s="9">
         <f t="shared" si="0"/>
-        <v>23770</v>
+        <v>-86798</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="14.25" customHeight="1">
@@ -1487,7 +1570,7 @@
       <c r="E42" s="14"/>
       <c r="F42" s="9">
         <f t="shared" si="0"/>
-        <v>23770</v>
+        <v>-86798</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="14.25" customHeight="1">
@@ -1498,7 +1581,7 @@
       <c r="E43" s="14"/>
       <c r="F43" s="9">
         <f t="shared" si="0"/>
-        <v>23770</v>
+        <v>-86798</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="14.25" customHeight="1">
@@ -1509,7 +1592,7 @@
       <c r="E44" s="14"/>
       <c r="F44" s="9">
         <f t="shared" si="0"/>
-        <v>23770</v>
+        <v>-86798</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="14.25" customHeight="1">
@@ -1520,7 +1603,7 @@
       <c r="E45" s="14"/>
       <c r="F45" s="9">
         <f t="shared" si="0"/>
-        <v>23770</v>
+        <v>-86798</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="14.25" customHeight="1">
@@ -1531,7 +1614,7 @@
       <c r="E46" s="14"/>
       <c r="F46" s="9">
         <f t="shared" si="0"/>
-        <v>23770</v>
+        <v>-86798</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="14.25" customHeight="1">
@@ -1542,7 +1625,7 @@
       <c r="E47" s="14"/>
       <c r="F47" s="9">
         <f t="shared" si="0"/>
-        <v>23770</v>
+        <v>-86798</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="14.25" customHeight="1">
@@ -1553,7 +1636,7 @@
       <c r="E48" s="14"/>
       <c r="F48" s="9">
         <f t="shared" si="0"/>
-        <v>23770</v>
+        <v>-86798</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="14.25" customHeight="1">
@@ -1564,7 +1647,7 @@
       <c r="E49" s="14"/>
       <c r="F49" s="9">
         <f t="shared" si="0"/>
-        <v>23770</v>
+        <v>-86798</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="14.25" customHeight="1">
@@ -1575,7 +1658,7 @@
       <c r="E50" s="14"/>
       <c r="F50" s="9">
         <f t="shared" si="0"/>
-        <v>23770</v>
+        <v>-86798</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="14.25" customHeight="1">
@@ -1586,7 +1669,7 @@
       <c r="E51" s="14"/>
       <c r="F51" s="9">
         <f t="shared" si="0"/>
-        <v>23770</v>
+        <v>-86798</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="14.25" customHeight="1">
@@ -1597,7 +1680,7 @@
       <c r="E52" s="14"/>
       <c r="F52" s="9">
         <f t="shared" si="0"/>
-        <v>23770</v>
+        <v>-86798</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="14.25" customHeight="1">
@@ -1608,7 +1691,7 @@
       <c r="E53" s="14"/>
       <c r="F53" s="9">
         <f t="shared" si="0"/>
-        <v>23770</v>
+        <v>-86798</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="14.25" customHeight="1">
@@ -1618,8 +1701,8 @@
       <c r="D54" s="13"/>
       <c r="E54" s="14"/>
       <c r="F54" s="9">
-        <f t="shared" si="0"/>
-        <v>23770</v>
+        <f t="shared" ref="F3:F92" si="1">(E54-D54)+F53</f>
+        <v>-86798</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="14.25" customHeight="1">
@@ -1629,8 +1712,8 @@
       <c r="D55" s="13"/>
       <c r="E55" s="14"/>
       <c r="F55" s="9">
-        <f t="shared" si="0"/>
-        <v>23770</v>
+        <f t="shared" si="1"/>
+        <v>-86798</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="14.25" customHeight="1">
@@ -1640,8 +1723,8 @@
       <c r="D56" s="13"/>
       <c r="E56" s="14"/>
       <c r="F56" s="9">
-        <f t="shared" si="0"/>
-        <v>23770</v>
+        <f t="shared" si="1"/>
+        <v>-86798</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="14.25" customHeight="1">
@@ -1651,8 +1734,8 @@
       <c r="D57" s="13"/>
       <c r="E57" s="14"/>
       <c r="F57" s="9">
-        <f t="shared" si="0"/>
-        <v>23770</v>
+        <f t="shared" si="1"/>
+        <v>-86798</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="14.25" customHeight="1">
@@ -1662,8 +1745,8 @@
       <c r="D58" s="13"/>
       <c r="E58" s="14"/>
       <c r="F58" s="9">
-        <f t="shared" si="0"/>
-        <v>23770</v>
+        <f t="shared" si="1"/>
+        <v>-86798</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="14.25" customHeight="1">
@@ -1673,8 +1756,8 @@
       <c r="D59" s="13"/>
       <c r="E59" s="14"/>
       <c r="F59" s="9">
-        <f t="shared" si="0"/>
-        <v>23770</v>
+        <f t="shared" si="1"/>
+        <v>-86798</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="14.25" customHeight="1">
@@ -1684,8 +1767,8 @@
       <c r="D60" s="13"/>
       <c r="E60" s="14"/>
       <c r="F60" s="9">
-        <f t="shared" si="0"/>
-        <v>23770</v>
+        <f t="shared" si="1"/>
+        <v>-86798</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="14.25" customHeight="1">
@@ -1695,8 +1778,8 @@
       <c r="D61" s="13"/>
       <c r="E61" s="14"/>
       <c r="F61" s="9">
-        <f t="shared" si="0"/>
-        <v>23770</v>
+        <f t="shared" si="1"/>
+        <v>-86798</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="14.25" customHeight="1">
@@ -1706,8 +1789,8 @@
       <c r="D62" s="13"/>
       <c r="E62" s="14"/>
       <c r="F62" s="9">
-        <f t="shared" si="0"/>
-        <v>23770</v>
+        <f t="shared" si="1"/>
+        <v>-86798</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="14.25" customHeight="1">
@@ -1717,8 +1800,8 @@
       <c r="D63" s="13"/>
       <c r="E63" s="14"/>
       <c r="F63" s="9">
-        <f t="shared" si="0"/>
-        <v>23770</v>
+        <f t="shared" si="1"/>
+        <v>-86798</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="14.25" customHeight="1">
@@ -1728,8 +1811,8 @@
       <c r="D64" s="13"/>
       <c r="E64" s="14"/>
       <c r="F64" s="9">
-        <f t="shared" si="0"/>
-        <v>23770</v>
+        <f t="shared" si="1"/>
+        <v>-86798</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="14.25" customHeight="1">
@@ -1739,8 +1822,8 @@
       <c r="D65" s="13"/>
       <c r="E65" s="14"/>
       <c r="F65" s="9">
-        <f t="shared" si="0"/>
-        <v>23770</v>
+        <f t="shared" si="1"/>
+        <v>-86798</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="14.25" customHeight="1">
@@ -1750,8 +1833,8 @@
       <c r="D66" s="13"/>
       <c r="E66" s="14"/>
       <c r="F66" s="9">
-        <f t="shared" si="0"/>
-        <v>23770</v>
+        <f t="shared" si="1"/>
+        <v>-86798</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="14.25" customHeight="1">
@@ -1761,8 +1844,8 @@
       <c r="D67" s="13"/>
       <c r="E67" s="14"/>
       <c r="F67" s="9">
-        <f t="shared" si="0"/>
-        <v>23770</v>
+        <f t="shared" si="1"/>
+        <v>-86798</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="14.25" customHeight="1">
@@ -1772,8 +1855,8 @@
       <c r="D68" s="13"/>
       <c r="E68" s="14"/>
       <c r="F68" s="9">
-        <f t="shared" si="0"/>
-        <v>23770</v>
+        <f t="shared" si="1"/>
+        <v>-86798</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="14.25" customHeight="1">
@@ -1783,8 +1866,8 @@
       <c r="D69" s="13"/>
       <c r="E69" s="14"/>
       <c r="F69" s="9">
-        <f t="shared" si="0"/>
-        <v>23770</v>
+        <f t="shared" si="1"/>
+        <v>-86798</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="14.25" customHeight="1">
@@ -1794,8 +1877,8 @@
       <c r="D70" s="13"/>
       <c r="E70" s="14"/>
       <c r="F70" s="9">
-        <f t="shared" si="0"/>
-        <v>23770</v>
+        <f t="shared" si="1"/>
+        <v>-86798</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="14.25" customHeight="1">
@@ -1805,8 +1888,8 @@
       <c r="D71" s="13"/>
       <c r="E71" s="14"/>
       <c r="F71" s="9">
-        <f t="shared" si="0"/>
-        <v>23770</v>
+        <f t="shared" si="1"/>
+        <v>-86798</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="14.25" customHeight="1">
@@ -1816,8 +1899,8 @@
       <c r="D72" s="13"/>
       <c r="E72" s="14"/>
       <c r="F72" s="9">
-        <f t="shared" si="0"/>
-        <v>23770</v>
+        <f t="shared" si="1"/>
+        <v>-86798</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="14.25" customHeight="1">
@@ -1827,8 +1910,8 @@
       <c r="D73" s="13"/>
       <c r="E73" s="14"/>
       <c r="F73" s="9">
-        <f t="shared" si="0"/>
-        <v>23770</v>
+        <f t="shared" si="1"/>
+        <v>-86798</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="14.25" customHeight="1">
@@ -1838,8 +1921,8 @@
       <c r="D74" s="13"/>
       <c r="E74" s="14"/>
       <c r="F74" s="9">
-        <f t="shared" si="0"/>
-        <v>23770</v>
+        <f t="shared" si="1"/>
+        <v>-86798</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="14.25" customHeight="1">
@@ -1849,8 +1932,8 @@
       <c r="D75" s="13"/>
       <c r="E75" s="14"/>
       <c r="F75" s="9">
-        <f t="shared" si="0"/>
-        <v>23770</v>
+        <f t="shared" si="1"/>
+        <v>-86798</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="14.25" customHeight="1">
@@ -1860,8 +1943,8 @@
       <c r="D76" s="13"/>
       <c r="E76" s="14"/>
       <c r="F76" s="9">
-        <f t="shared" si="0"/>
-        <v>23770</v>
+        <f t="shared" si="1"/>
+        <v>-86798</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="14.25" customHeight="1">
@@ -1871,8 +1954,8 @@
       <c r="D77" s="13"/>
       <c r="E77" s="14"/>
       <c r="F77" s="9">
-        <f t="shared" si="0"/>
-        <v>23770</v>
+        <f t="shared" si="1"/>
+        <v>-86798</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="14.25" customHeight="1">
@@ -1882,8 +1965,8 @@
       <c r="D78" s="13"/>
       <c r="E78" s="14"/>
       <c r="F78" s="9">
-        <f t="shared" si="0"/>
-        <v>23770</v>
+        <f t="shared" si="1"/>
+        <v>-86798</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="14.25" customHeight="1">
@@ -1893,8 +1976,8 @@
       <c r="D79" s="13"/>
       <c r="E79" s="14"/>
       <c r="F79" s="9">
-        <f t="shared" si="0"/>
-        <v>23770</v>
+        <f t="shared" si="1"/>
+        <v>-86798</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="14.25" customHeight="1">
@@ -1904,8 +1987,8 @@
       <c r="D80" s="13"/>
       <c r="E80" s="14"/>
       <c r="F80" s="9">
-        <f t="shared" si="0"/>
-        <v>23770</v>
+        <f t="shared" si="1"/>
+        <v>-86798</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="14.25" customHeight="1">
@@ -1915,8 +1998,8 @@
       <c r="D81" s="13"/>
       <c r="E81" s="14"/>
       <c r="F81" s="9">
-        <f t="shared" si="0"/>
-        <v>23770</v>
+        <f t="shared" si="1"/>
+        <v>-86798</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="14.25" customHeight="1">
@@ -1926,8 +2009,8 @@
       <c r="D82" s="13"/>
       <c r="E82" s="14"/>
       <c r="F82" s="9">
-        <f t="shared" si="0"/>
-        <v>23770</v>
+        <f t="shared" si="1"/>
+        <v>-86798</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="14.25" customHeight="1">
@@ -1937,8 +2020,8 @@
       <c r="D83" s="13"/>
       <c r="E83" s="14"/>
       <c r="F83" s="9">
-        <f t="shared" si="0"/>
-        <v>23770</v>
+        <f t="shared" si="1"/>
+        <v>-86798</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="14.25" customHeight="1">
@@ -1948,8 +2031,8 @@
       <c r="D84" s="13"/>
       <c r="E84" s="14"/>
       <c r="F84" s="9">
-        <f t="shared" si="0"/>
-        <v>23770</v>
+        <f t="shared" si="1"/>
+        <v>-86798</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="14.25" customHeight="1">
@@ -1959,8 +2042,8 @@
       <c r="D85" s="13"/>
       <c r="E85" s="14"/>
       <c r="F85" s="9">
-        <f t="shared" si="0"/>
-        <v>23770</v>
+        <f t="shared" si="1"/>
+        <v>-86798</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="14.25" customHeight="1">
@@ -1970,8 +2053,8 @@
       <c r="D86" s="13"/>
       <c r="E86" s="14"/>
       <c r="F86" s="9">
-        <f t="shared" si="0"/>
-        <v>23770</v>
+        <f t="shared" si="1"/>
+        <v>-86798</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="14.25" customHeight="1">
@@ -1981,8 +2064,8 @@
       <c r="D87" s="13"/>
       <c r="E87" s="14"/>
       <c r="F87" s="9">
-        <f t="shared" si="0"/>
-        <v>23770</v>
+        <f t="shared" si="1"/>
+        <v>-86798</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="14.25" customHeight="1">
@@ -1991,8 +2074,8 @@
       <c r="D88" s="13"/>
       <c r="E88" s="14"/>
       <c r="F88" s="9">
-        <f t="shared" si="0"/>
-        <v>23770</v>
+        <f t="shared" si="1"/>
+        <v>-86798</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="14.25" customHeight="1">
@@ -2002,8 +2085,8 @@
       <c r="D89" s="13"/>
       <c r="E89" s="14"/>
       <c r="F89" s="9">
-        <f t="shared" si="0"/>
-        <v>23770</v>
+        <f t="shared" si="1"/>
+        <v>-86798</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="14.25" customHeight="1">
@@ -2013,8 +2096,8 @@
       <c r="D90" s="13"/>
       <c r="E90" s="14"/>
       <c r="F90" s="9">
-        <f t="shared" si="0"/>
-        <v>23770</v>
+        <f t="shared" si="1"/>
+        <v>-86798</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="14.25" customHeight="1">
@@ -2024,8 +2107,8 @@
       <c r="D91" s="13"/>
       <c r="E91" s="14"/>
       <c r="F91" s="9">
-        <f t="shared" si="0"/>
-        <v>23770</v>
+        <f t="shared" si="1"/>
+        <v>-86798</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="14.25" customHeight="1">
@@ -2035,53 +2118,53 @@
       <c r="D92" s="13"/>
       <c r="E92" s="14"/>
       <c r="F92" s="9">
-        <f t="shared" si="0"/>
-        <v>23770</v>
+        <f t="shared" si="1"/>
+        <v>-86798</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A93" s="23" t="s">
+      <c r="A93" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B93" s="24"/>
-      <c r="C93" s="25"/>
+      <c r="B93" s="25"/>
+      <c r="C93" s="26"/>
       <c r="D93" s="6">
         <f>SUM(D3:D92)</f>
-        <v>226230</v>
+        <v>336798</v>
       </c>
       <c r="E93" s="17"/>
       <c r="F93" s="9">
-        <f t="shared" ref="F93:F94" si="1">F91</f>
-        <v>23770</v>
+        <f t="shared" ref="F93:F94" si="2">F91</f>
+        <v>-86798</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A94" s="29" t="s">
+      <c r="A94" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="B94" s="27"/>
-      <c r="C94" s="27"/>
-      <c r="D94" s="28"/>
+      <c r="B94" s="28"/>
+      <c r="C94" s="28"/>
+      <c r="D94" s="29"/>
       <c r="E94" s="18">
         <f>SUM(E11:E92)</f>
         <v>0</v>
       </c>
       <c r="F94" s="9">
-        <f t="shared" si="1"/>
-        <v>23770</v>
+        <f t="shared" si="2"/>
+        <v>-86798</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A95" s="30" t="s">
+      <c r="A95" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="B95" s="31"/>
-      <c r="C95" s="31"/>
-      <c r="D95" s="31"/>
-      <c r="E95" s="32"/>
+      <c r="B95" s="32"/>
+      <c r="C95" s="32"/>
+      <c r="D95" s="32"/>
+      <c r="E95" s="33"/>
       <c r="F95" s="19">
         <f>F92</f>
-        <v>23770</v>
+        <v>-86798</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="14.25" customHeight="1"/>

--- a/Cash Book/Expenditure Mian Anjum Saeed.xlsx
+++ b/Cash Book/Expenditure Mian Anjum Saeed.xlsx
@@ -1,32 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Mian-Industries\Cash Book\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Mian-Industries\Cash Book\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D447E130-FC6B-4D61-9602-62001CBDEB84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Up untill 2025" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="zt5VEtdFQn/DbdUmDWlfVAnffxhstJbwJwC9e/aXKFI="/>
     </ext>
@@ -35,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="51">
   <si>
     <t>Date</t>
   </si>
@@ -157,34 +147,43 @@
     <t>Baraf</t>
   </si>
   <si>
+    <t>Needles</t>
+  </si>
+  <si>
     <t>miscellaneous</t>
   </si>
   <si>
-    <t>AA bobbin 5 Boxes</t>
+    <t>Petrol</t>
   </si>
   <si>
-    <t>Needles purchased from Tariq</t>
+    <t xml:space="preserve">Anjum Sahb For 22 Labor Advance </t>
   </si>
   <si>
-    <t>From Arshad sb</t>
+    <t xml:space="preserve">Shakeel </t>
   </si>
   <si>
-    <t>Mian Arshad</t>
+    <t xml:space="preserve">Anjum Sahb For 22 Staff Advance </t>
   </si>
   <si>
-    <t>Murtaza</t>
+    <t xml:space="preserve">Chokidar </t>
   </si>
   <si>
-    <t>Hussain lace payment</t>
+    <t xml:space="preserve">Ali Designer </t>
   </si>
   <si>
-    <t>Cash payment to Shabaz</t>
+    <t xml:space="preserve">Electrician Itms </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wooden Itms </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wooden Itms Additional </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
@@ -780,20 +779,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z998"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="30.5546875" customWidth="1"/>
-    <col min="2" max="2" width="44.6640625" customWidth="1"/>
-    <col min="4" max="4" width="9.88671875" customWidth="1"/>
-    <col min="5" max="5" width="11.5546875" customWidth="1"/>
-    <col min="6" max="26" width="8.6640625" customWidth="1"/>
+    <col min="1" max="1" width="30.5703125" customWidth="1"/>
+    <col min="2" max="2" width="40.28515625" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" customWidth="1"/>
+    <col min="6" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="14.25" customHeight="1">
@@ -822,24 +821,18 @@
       <c r="J1" s="26"/>
       <c r="K1" s="6">
         <f>D93</f>
-        <v>643330</v>
+        <v>336798</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A2" s="11">
-        <v>45854</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>44</v>
-      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
       <c r="D2" s="8"/>
       <c r="E2" s="4">
         <v>250000</v>
       </c>
       <c r="F2" s="9">
+        <f>E2</f>
         <v>250000</v>
       </c>
       <c r="H2" s="27" t="s">
@@ -849,7 +842,7 @@
       <c r="J2" s="29"/>
       <c r="K2" s="10">
         <f>F95</f>
-        <v>-393330</v>
+        <v>-86798</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="14.25" customHeight="1">
@@ -867,7 +860,7 @@
       </c>
       <c r="E3" s="14"/>
       <c r="F3" s="9">
-        <f t="shared" ref="F3:F92" si="0">(E3-D3)+F2</f>
+        <f>F2+E3-D3</f>
         <v>216000</v>
       </c>
     </row>
@@ -886,7 +879,7 @@
       </c>
       <c r="E4" s="14"/>
       <c r="F4" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="F4:F53" si="0">F3+E4-D4</f>
         <v>208000</v>
       </c>
     </row>
@@ -1332,7 +1325,7 @@
         <v>45860</v>
       </c>
       <c r="B28" s="23" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C28" s="15" t="s">
         <v>23</v>
@@ -1370,7 +1363,7 @@
         <v>45860</v>
       </c>
       <c r="B30" s="23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C30" s="15" t="s">
         <v>23</v>
@@ -1389,111 +1382,151 @@
         <v>45861</v>
       </c>
       <c r="B31" s="23" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="D31" s="13">
-        <v>67500</v>
+        <v>400</v>
       </c>
       <c r="E31" s="14"/>
       <c r="F31" s="9">
         <f t="shared" si="0"/>
-        <v>-43330</v>
+        <v>23770</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A32" s="11">
-        <v>45855</v>
-      </c>
-      <c r="B32" s="12" t="s">
-        <v>46</v>
+      <c r="A32" s="16">
+        <v>45861</v>
+      </c>
+      <c r="B32" s="15" t="s">
+        <v>43</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="D32" s="13"/>
-      <c r="E32" s="14">
-        <v>0</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="D32" s="13">
+        <v>10000</v>
+      </c>
+      <c r="E32" s="14"/>
       <c r="F32" s="9">
         <f t="shared" si="0"/>
-        <v>-43330</v>
+        <v>13770</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A33" s="11">
-        <v>45859</v>
+      <c r="A33" s="16">
+        <v>45861</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="D33" s="13">
-        <v>350000</v>
+        <v>4000</v>
       </c>
       <c r="E33" s="14"/>
       <c r="F33" s="9">
         <f t="shared" si="0"/>
-        <v>-393330</v>
+        <v>9770</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A34" s="16"/>
-      <c r="B34" s="15"/>
-      <c r="C34" s="15"/>
-      <c r="D34" s="13"/>
+      <c r="A34" s="16">
+        <v>45861</v>
+      </c>
+      <c r="B34" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C34" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D34" s="13">
+        <v>10000</v>
+      </c>
       <c r="E34" s="14"/>
       <c r="F34" s="9">
         <f t="shared" si="0"/>
-        <v>-393330</v>
+        <v>-230</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A35" s="16"/>
-      <c r="B35" s="15"/>
-      <c r="C35" s="15"/>
-      <c r="D35" s="13"/>
+      <c r="A35" s="16">
+        <v>45862</v>
+      </c>
+      <c r="B35" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C35" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" s="13">
+        <v>23500</v>
+      </c>
       <c r="E35" s="14"/>
       <c r="F35" s="9">
         <f t="shared" si="0"/>
-        <v>-393330</v>
+        <v>-23730</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A36" s="16"/>
-      <c r="B36" s="15"/>
-      <c r="C36" s="15"/>
-      <c r="D36" s="13"/>
+      <c r="A36" s="16">
+        <v>45862</v>
+      </c>
+      <c r="B36" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="C36" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" s="13">
+        <v>12168</v>
+      </c>
       <c r="E36" s="14"/>
       <c r="F36" s="9">
         <f t="shared" si="0"/>
-        <v>-393330</v>
+        <v>-35898</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A37" s="16"/>
-      <c r="B37" s="15"/>
-      <c r="C37" s="15"/>
-      <c r="D37" s="13"/>
+      <c r="A37" s="16">
+        <v>45863</v>
+      </c>
+      <c r="B37" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C37" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" s="13">
+        <v>48500</v>
+      </c>
       <c r="E37" s="14"/>
       <c r="F37" s="9">
         <f t="shared" si="0"/>
-        <v>-393330</v>
+        <v>-84398</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A38" s="16"/>
-      <c r="B38" s="15"/>
-      <c r="C38" s="15"/>
-      <c r="D38" s="13"/>
+      <c r="A38" s="16">
+        <v>45863</v>
+      </c>
+      <c r="B38" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="C38" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" s="13">
+        <v>2400</v>
+      </c>
       <c r="E38" s="14"/>
       <c r="F38" s="9">
         <f t="shared" si="0"/>
-        <v>-393330</v>
+        <v>-86798</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="14.25" customHeight="1">
@@ -1504,7 +1537,7 @@
       <c r="E39" s="14"/>
       <c r="F39" s="9">
         <f t="shared" si="0"/>
-        <v>-393330</v>
+        <v>-86798</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="14.25" customHeight="1">
@@ -1515,7 +1548,7 @@
       <c r="E40" s="14"/>
       <c r="F40" s="9">
         <f t="shared" si="0"/>
-        <v>-393330</v>
+        <v>-86798</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="14.25" customHeight="1">
@@ -1526,7 +1559,7 @@
       <c r="E41" s="14"/>
       <c r="F41" s="9">
         <f t="shared" si="0"/>
-        <v>-393330</v>
+        <v>-86798</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="14.25" customHeight="1">
@@ -1537,7 +1570,7 @@
       <c r="E42" s="14"/>
       <c r="F42" s="9">
         <f t="shared" si="0"/>
-        <v>-393330</v>
+        <v>-86798</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="14.25" customHeight="1">
@@ -1548,7 +1581,7 @@
       <c r="E43" s="14"/>
       <c r="F43" s="9">
         <f t="shared" si="0"/>
-        <v>-393330</v>
+        <v>-86798</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="14.25" customHeight="1">
@@ -1559,7 +1592,7 @@
       <c r="E44" s="14"/>
       <c r="F44" s="9">
         <f t="shared" si="0"/>
-        <v>-393330</v>
+        <v>-86798</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="14.25" customHeight="1">
@@ -1570,7 +1603,7 @@
       <c r="E45" s="14"/>
       <c r="F45" s="9">
         <f t="shared" si="0"/>
-        <v>-393330</v>
+        <v>-86798</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="14.25" customHeight="1">
@@ -1581,7 +1614,7 @@
       <c r="E46" s="14"/>
       <c r="F46" s="9">
         <f t="shared" si="0"/>
-        <v>-393330</v>
+        <v>-86798</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="14.25" customHeight="1">
@@ -1592,7 +1625,7 @@
       <c r="E47" s="14"/>
       <c r="F47" s="9">
         <f t="shared" si="0"/>
-        <v>-393330</v>
+        <v>-86798</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="14.25" customHeight="1">
@@ -1603,7 +1636,7 @@
       <c r="E48" s="14"/>
       <c r="F48" s="9">
         <f t="shared" si="0"/>
-        <v>-393330</v>
+        <v>-86798</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="14.25" customHeight="1">
@@ -1614,7 +1647,7 @@
       <c r="E49" s="14"/>
       <c r="F49" s="9">
         <f t="shared" si="0"/>
-        <v>-393330</v>
+        <v>-86798</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="14.25" customHeight="1">
@@ -1625,7 +1658,7 @@
       <c r="E50" s="14"/>
       <c r="F50" s="9">
         <f t="shared" si="0"/>
-        <v>-393330</v>
+        <v>-86798</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="14.25" customHeight="1">
@@ -1636,7 +1669,7 @@
       <c r="E51" s="14"/>
       <c r="F51" s="9">
         <f t="shared" si="0"/>
-        <v>-393330</v>
+        <v>-86798</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="14.25" customHeight="1">
@@ -1647,7 +1680,7 @@
       <c r="E52" s="14"/>
       <c r="F52" s="9">
         <f t="shared" si="0"/>
-        <v>-393330</v>
+        <v>-86798</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="14.25" customHeight="1">
@@ -1658,7 +1691,7 @@
       <c r="E53" s="14"/>
       <c r="F53" s="9">
         <f t="shared" si="0"/>
-        <v>-393330</v>
+        <v>-86798</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="14.25" customHeight="1">
@@ -1668,8 +1701,8 @@
       <c r="D54" s="13"/>
       <c r="E54" s="14"/>
       <c r="F54" s="9">
-        <f t="shared" si="0"/>
-        <v>-393330</v>
+        <f t="shared" ref="F3:F92" si="1">(E54-D54)+F53</f>
+        <v>-86798</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="14.25" customHeight="1">
@@ -1679,8 +1712,8 @@
       <c r="D55" s="13"/>
       <c r="E55" s="14"/>
       <c r="F55" s="9">
-        <f t="shared" si="0"/>
-        <v>-393330</v>
+        <f t="shared" si="1"/>
+        <v>-86798</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="14.25" customHeight="1">
@@ -1690,8 +1723,8 @@
       <c r="D56" s="13"/>
       <c r="E56" s="14"/>
       <c r="F56" s="9">
-        <f t="shared" si="0"/>
-        <v>-393330</v>
+        <f t="shared" si="1"/>
+        <v>-86798</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="14.25" customHeight="1">
@@ -1701,8 +1734,8 @@
       <c r="D57" s="13"/>
       <c r="E57" s="14"/>
       <c r="F57" s="9">
-        <f t="shared" si="0"/>
-        <v>-393330</v>
+        <f t="shared" si="1"/>
+        <v>-86798</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="14.25" customHeight="1">
@@ -1712,8 +1745,8 @@
       <c r="D58" s="13"/>
       <c r="E58" s="14"/>
       <c r="F58" s="9">
-        <f t="shared" si="0"/>
-        <v>-393330</v>
+        <f t="shared" si="1"/>
+        <v>-86798</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="14.25" customHeight="1">
@@ -1723,8 +1756,8 @@
       <c r="D59" s="13"/>
       <c r="E59" s="14"/>
       <c r="F59" s="9">
-        <f t="shared" si="0"/>
-        <v>-393330</v>
+        <f t="shared" si="1"/>
+        <v>-86798</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="14.25" customHeight="1">
@@ -1734,8 +1767,8 @@
       <c r="D60" s="13"/>
       <c r="E60" s="14"/>
       <c r="F60" s="9">
-        <f t="shared" si="0"/>
-        <v>-393330</v>
+        <f t="shared" si="1"/>
+        <v>-86798</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="14.25" customHeight="1">
@@ -1745,8 +1778,8 @@
       <c r="D61" s="13"/>
       <c r="E61" s="14"/>
       <c r="F61" s="9">
-        <f t="shared" si="0"/>
-        <v>-393330</v>
+        <f t="shared" si="1"/>
+        <v>-86798</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="14.25" customHeight="1">
@@ -1756,8 +1789,8 @@
       <c r="D62" s="13"/>
       <c r="E62" s="14"/>
       <c r="F62" s="9">
-        <f t="shared" si="0"/>
-        <v>-393330</v>
+        <f t="shared" si="1"/>
+        <v>-86798</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="14.25" customHeight="1">
@@ -1767,8 +1800,8 @@
       <c r="D63" s="13"/>
       <c r="E63" s="14"/>
       <c r="F63" s="9">
-        <f t="shared" si="0"/>
-        <v>-393330</v>
+        <f t="shared" si="1"/>
+        <v>-86798</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="14.25" customHeight="1">
@@ -1778,8 +1811,8 @@
       <c r="D64" s="13"/>
       <c r="E64" s="14"/>
       <c r="F64" s="9">
-        <f t="shared" si="0"/>
-        <v>-393330</v>
+        <f t="shared" si="1"/>
+        <v>-86798</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="14.25" customHeight="1">
@@ -1789,8 +1822,8 @@
       <c r="D65" s="13"/>
       <c r="E65" s="14"/>
       <c r="F65" s="9">
-        <f t="shared" si="0"/>
-        <v>-393330</v>
+        <f t="shared" si="1"/>
+        <v>-86798</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="14.25" customHeight="1">
@@ -1800,8 +1833,8 @@
       <c r="D66" s="13"/>
       <c r="E66" s="14"/>
       <c r="F66" s="9">
-        <f t="shared" si="0"/>
-        <v>-393330</v>
+        <f t="shared" si="1"/>
+        <v>-86798</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="14.25" customHeight="1">
@@ -1811,8 +1844,8 @@
       <c r="D67" s="13"/>
       <c r="E67" s="14"/>
       <c r="F67" s="9">
-        <f t="shared" si="0"/>
-        <v>-393330</v>
+        <f t="shared" si="1"/>
+        <v>-86798</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="14.25" customHeight="1">
@@ -1822,8 +1855,8 @@
       <c r="D68" s="13"/>
       <c r="E68" s="14"/>
       <c r="F68" s="9">
-        <f t="shared" si="0"/>
-        <v>-393330</v>
+        <f t="shared" si="1"/>
+        <v>-86798</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="14.25" customHeight="1">
@@ -1833,8 +1866,8 @@
       <c r="D69" s="13"/>
       <c r="E69" s="14"/>
       <c r="F69" s="9">
-        <f t="shared" si="0"/>
-        <v>-393330</v>
+        <f t="shared" si="1"/>
+        <v>-86798</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="14.25" customHeight="1">
@@ -1844,8 +1877,8 @@
       <c r="D70" s="13"/>
       <c r="E70" s="14"/>
       <c r="F70" s="9">
-        <f t="shared" si="0"/>
-        <v>-393330</v>
+        <f t="shared" si="1"/>
+        <v>-86798</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="14.25" customHeight="1">
@@ -1855,8 +1888,8 @@
       <c r="D71" s="13"/>
       <c r="E71" s="14"/>
       <c r="F71" s="9">
-        <f t="shared" si="0"/>
-        <v>-393330</v>
+        <f t="shared" si="1"/>
+        <v>-86798</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="14.25" customHeight="1">
@@ -1866,8 +1899,8 @@
       <c r="D72" s="13"/>
       <c r="E72" s="14"/>
       <c r="F72" s="9">
-        <f t="shared" si="0"/>
-        <v>-393330</v>
+        <f t="shared" si="1"/>
+        <v>-86798</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="14.25" customHeight="1">
@@ -1877,8 +1910,8 @@
       <c r="D73" s="13"/>
       <c r="E73" s="14"/>
       <c r="F73" s="9">
-        <f t="shared" si="0"/>
-        <v>-393330</v>
+        <f t="shared" si="1"/>
+        <v>-86798</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="14.25" customHeight="1">
@@ -1888,8 +1921,8 @@
       <c r="D74" s="13"/>
       <c r="E74" s="14"/>
       <c r="F74" s="9">
-        <f t="shared" si="0"/>
-        <v>-393330</v>
+        <f t="shared" si="1"/>
+        <v>-86798</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="14.25" customHeight="1">
@@ -1899,8 +1932,8 @@
       <c r="D75" s="13"/>
       <c r="E75" s="14"/>
       <c r="F75" s="9">
-        <f t="shared" si="0"/>
-        <v>-393330</v>
+        <f t="shared" si="1"/>
+        <v>-86798</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="14.25" customHeight="1">
@@ -1910,8 +1943,8 @@
       <c r="D76" s="13"/>
       <c r="E76" s="14"/>
       <c r="F76" s="9">
-        <f t="shared" si="0"/>
-        <v>-393330</v>
+        <f t="shared" si="1"/>
+        <v>-86798</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="14.25" customHeight="1">
@@ -1921,8 +1954,8 @@
       <c r="D77" s="13"/>
       <c r="E77" s="14"/>
       <c r="F77" s="9">
-        <f t="shared" si="0"/>
-        <v>-393330</v>
+        <f t="shared" si="1"/>
+        <v>-86798</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="14.25" customHeight="1">
@@ -1932,8 +1965,8 @@
       <c r="D78" s="13"/>
       <c r="E78" s="14"/>
       <c r="F78" s="9">
-        <f t="shared" si="0"/>
-        <v>-393330</v>
+        <f t="shared" si="1"/>
+        <v>-86798</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="14.25" customHeight="1">
@@ -1943,8 +1976,8 @@
       <c r="D79" s="13"/>
       <c r="E79" s="14"/>
       <c r="F79" s="9">
-        <f t="shared" si="0"/>
-        <v>-393330</v>
+        <f t="shared" si="1"/>
+        <v>-86798</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="14.25" customHeight="1">
@@ -1954,8 +1987,8 @@
       <c r="D80" s="13"/>
       <c r="E80" s="14"/>
       <c r="F80" s="9">
-        <f t="shared" si="0"/>
-        <v>-393330</v>
+        <f t="shared" si="1"/>
+        <v>-86798</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="14.25" customHeight="1">
@@ -1965,8 +1998,8 @@
       <c r="D81" s="13"/>
       <c r="E81" s="14"/>
       <c r="F81" s="9">
-        <f t="shared" si="0"/>
-        <v>-393330</v>
+        <f t="shared" si="1"/>
+        <v>-86798</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="14.25" customHeight="1">
@@ -1976,8 +2009,8 @@
       <c r="D82" s="13"/>
       <c r="E82" s="14"/>
       <c r="F82" s="9">
-        <f t="shared" si="0"/>
-        <v>-393330</v>
+        <f t="shared" si="1"/>
+        <v>-86798</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="14.25" customHeight="1">
@@ -1987,8 +2020,8 @@
       <c r="D83" s="13"/>
       <c r="E83" s="14"/>
       <c r="F83" s="9">
-        <f t="shared" si="0"/>
-        <v>-393330</v>
+        <f t="shared" si="1"/>
+        <v>-86798</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="14.25" customHeight="1">
@@ -1998,8 +2031,8 @@
       <c r="D84" s="13"/>
       <c r="E84" s="14"/>
       <c r="F84" s="9">
-        <f t="shared" si="0"/>
-        <v>-393330</v>
+        <f t="shared" si="1"/>
+        <v>-86798</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="14.25" customHeight="1">
@@ -2009,8 +2042,8 @@
       <c r="D85" s="13"/>
       <c r="E85" s="14"/>
       <c r="F85" s="9">
-        <f t="shared" si="0"/>
-        <v>-393330</v>
+        <f t="shared" si="1"/>
+        <v>-86798</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="14.25" customHeight="1">
@@ -2020,8 +2053,8 @@
       <c r="D86" s="13"/>
       <c r="E86" s="14"/>
       <c r="F86" s="9">
-        <f t="shared" si="0"/>
-        <v>-393330</v>
+        <f t="shared" si="1"/>
+        <v>-86798</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="14.25" customHeight="1">
@@ -2031,8 +2064,8 @@
       <c r="D87" s="13"/>
       <c r="E87" s="14"/>
       <c r="F87" s="9">
-        <f t="shared" si="0"/>
-        <v>-393330</v>
+        <f t="shared" si="1"/>
+        <v>-86798</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="14.25" customHeight="1">
@@ -2041,8 +2074,8 @@
       <c r="D88" s="13"/>
       <c r="E88" s="14"/>
       <c r="F88" s="9">
-        <f t="shared" si="0"/>
-        <v>-393330</v>
+        <f t="shared" si="1"/>
+        <v>-86798</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="14.25" customHeight="1">
@@ -2052,8 +2085,8 @@
       <c r="D89" s="13"/>
       <c r="E89" s="14"/>
       <c r="F89" s="9">
-        <f t="shared" si="0"/>
-        <v>-393330</v>
+        <f t="shared" si="1"/>
+        <v>-86798</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="14.25" customHeight="1">
@@ -2063,8 +2096,8 @@
       <c r="D90" s="13"/>
       <c r="E90" s="14"/>
       <c r="F90" s="9">
-        <f t="shared" si="0"/>
-        <v>-393330</v>
+        <f t="shared" si="1"/>
+        <v>-86798</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="14.25" customHeight="1">
@@ -2074,8 +2107,8 @@
       <c r="D91" s="13"/>
       <c r="E91" s="14"/>
       <c r="F91" s="9">
-        <f t="shared" si="0"/>
-        <v>-393330</v>
+        <f t="shared" si="1"/>
+        <v>-86798</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="14.25" customHeight="1">
@@ -2085,8 +2118,8 @@
       <c r="D92" s="13"/>
       <c r="E92" s="14"/>
       <c r="F92" s="9">
-        <f t="shared" si="0"/>
-        <v>-393330</v>
+        <f t="shared" si="1"/>
+        <v>-86798</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="14.25" customHeight="1">
@@ -2097,12 +2130,12 @@
       <c r="C93" s="26"/>
       <c r="D93" s="6">
         <f>SUM(D3:D92)</f>
-        <v>643330</v>
+        <v>336798</v>
       </c>
       <c r="E93" s="17"/>
       <c r="F93" s="9">
-        <f t="shared" ref="F93:F94" si="1">F91</f>
-        <v>-393330</v>
+        <f t="shared" ref="F93:F94" si="2">F91</f>
+        <v>-86798</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="14.25" customHeight="1">
@@ -2117,8 +2150,8 @@
         <v>0</v>
       </c>
       <c r="F94" s="9">
-        <f t="shared" si="1"/>
-        <v>-393330</v>
+        <f t="shared" si="2"/>
+        <v>-86798</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="14.25" customHeight="1">
@@ -2131,7 +2164,7 @@
       <c r="E95" s="33"/>
       <c r="F95" s="19">
         <f>F92</f>
-        <v>-393330</v>
+        <v>-86798</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="14.25" customHeight="1"/>

--- a/Cash Book/Expenditure Mian Anjum Saeed.xlsx
+++ b/Cash Book/Expenditure Mian Anjum Saeed.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Mian-Industries\Cash Book\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D447E130-FC6B-4D61-9602-62001CBDEB84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11819FD8-C421-4F45-9EE9-DC5846A3E5A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="52">
   <si>
     <t>Date</t>
   </si>
@@ -178,6 +178,9 @@
   </si>
   <si>
     <t xml:space="preserve">Wooden Itms Additional </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cash Paid C/O Abu bakar </t>
   </si>
 </sst>
 </file>
@@ -782,8 +785,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z998"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -842,7 +845,7 @@
       <c r="J2" s="29"/>
       <c r="K2" s="10">
         <f>F95</f>
-        <v>-86798</v>
+        <v>7402</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="14.25" customHeight="1">
@@ -1530,14 +1533,20 @@
       </c>
     </row>
     <row r="39" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A39" s="16"/>
-      <c r="B39" s="15"/>
+      <c r="A39" s="16">
+        <v>45866</v>
+      </c>
+      <c r="B39" s="15" t="s">
+        <v>51</v>
+      </c>
       <c r="C39" s="15"/>
       <c r="D39" s="13"/>
-      <c r="E39" s="14"/>
+      <c r="E39" s="14">
+        <v>94200</v>
+      </c>
       <c r="F39" s="9">
         <f t="shared" si="0"/>
-        <v>-86798</v>
+        <v>7402</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="14.25" customHeight="1">
@@ -1548,7 +1557,7 @@
       <c r="E40" s="14"/>
       <c r="F40" s="9">
         <f t="shared" si="0"/>
-        <v>-86798</v>
+        <v>7402</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="14.25" customHeight="1">
@@ -1559,7 +1568,7 @@
       <c r="E41" s="14"/>
       <c r="F41" s="9">
         <f t="shared" si="0"/>
-        <v>-86798</v>
+        <v>7402</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="14.25" customHeight="1">
@@ -1570,7 +1579,7 @@
       <c r="E42" s="14"/>
       <c r="F42" s="9">
         <f t="shared" si="0"/>
-        <v>-86798</v>
+        <v>7402</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="14.25" customHeight="1">
@@ -1581,7 +1590,7 @@
       <c r="E43" s="14"/>
       <c r="F43" s="9">
         <f t="shared" si="0"/>
-        <v>-86798</v>
+        <v>7402</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="14.25" customHeight="1">
@@ -1592,7 +1601,7 @@
       <c r="E44" s="14"/>
       <c r="F44" s="9">
         <f t="shared" si="0"/>
-        <v>-86798</v>
+        <v>7402</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="14.25" customHeight="1">
@@ -1603,7 +1612,7 @@
       <c r="E45" s="14"/>
       <c r="F45" s="9">
         <f t="shared" si="0"/>
-        <v>-86798</v>
+        <v>7402</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="14.25" customHeight="1">
@@ -1614,7 +1623,7 @@
       <c r="E46" s="14"/>
       <c r="F46" s="9">
         <f t="shared" si="0"/>
-        <v>-86798</v>
+        <v>7402</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="14.25" customHeight="1">
@@ -1625,7 +1634,7 @@
       <c r="E47" s="14"/>
       <c r="F47" s="9">
         <f t="shared" si="0"/>
-        <v>-86798</v>
+        <v>7402</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="14.25" customHeight="1">
@@ -1636,7 +1645,7 @@
       <c r="E48" s="14"/>
       <c r="F48" s="9">
         <f t="shared" si="0"/>
-        <v>-86798</v>
+        <v>7402</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="14.25" customHeight="1">
@@ -1647,7 +1656,7 @@
       <c r="E49" s="14"/>
       <c r="F49" s="9">
         <f t="shared" si="0"/>
-        <v>-86798</v>
+        <v>7402</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="14.25" customHeight="1">
@@ -1658,7 +1667,7 @@
       <c r="E50" s="14"/>
       <c r="F50" s="9">
         <f t="shared" si="0"/>
-        <v>-86798</v>
+        <v>7402</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="14.25" customHeight="1">
@@ -1669,7 +1678,7 @@
       <c r="E51" s="14"/>
       <c r="F51" s="9">
         <f t="shared" si="0"/>
-        <v>-86798</v>
+        <v>7402</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="14.25" customHeight="1">
@@ -1680,7 +1689,7 @@
       <c r="E52" s="14"/>
       <c r="F52" s="9">
         <f t="shared" si="0"/>
-        <v>-86798</v>
+        <v>7402</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="14.25" customHeight="1">
@@ -1691,7 +1700,7 @@
       <c r="E53" s="14"/>
       <c r="F53" s="9">
         <f t="shared" si="0"/>
-        <v>-86798</v>
+        <v>7402</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="14.25" customHeight="1">
@@ -1701,8 +1710,8 @@
       <c r="D54" s="13"/>
       <c r="E54" s="14"/>
       <c r="F54" s="9">
-        <f t="shared" ref="F3:F92" si="1">(E54-D54)+F53</f>
-        <v>-86798</v>
+        <f t="shared" ref="F54:F92" si="1">(E54-D54)+F53</f>
+        <v>7402</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="14.25" customHeight="1">
@@ -1713,7 +1722,7 @@
       <c r="E55" s="14"/>
       <c r="F55" s="9">
         <f t="shared" si="1"/>
-        <v>-86798</v>
+        <v>7402</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="14.25" customHeight="1">
@@ -1724,7 +1733,7 @@
       <c r="E56" s="14"/>
       <c r="F56" s="9">
         <f t="shared" si="1"/>
-        <v>-86798</v>
+        <v>7402</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="14.25" customHeight="1">
@@ -1735,7 +1744,7 @@
       <c r="E57" s="14"/>
       <c r="F57" s="9">
         <f t="shared" si="1"/>
-        <v>-86798</v>
+        <v>7402</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="14.25" customHeight="1">
@@ -1746,7 +1755,7 @@
       <c r="E58" s="14"/>
       <c r="F58" s="9">
         <f t="shared" si="1"/>
-        <v>-86798</v>
+        <v>7402</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="14.25" customHeight="1">
@@ -1757,7 +1766,7 @@
       <c r="E59" s="14"/>
       <c r="F59" s="9">
         <f t="shared" si="1"/>
-        <v>-86798</v>
+        <v>7402</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="14.25" customHeight="1">
@@ -1768,7 +1777,7 @@
       <c r="E60" s="14"/>
       <c r="F60" s="9">
         <f t="shared" si="1"/>
-        <v>-86798</v>
+        <v>7402</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="14.25" customHeight="1">
@@ -1779,7 +1788,7 @@
       <c r="E61" s="14"/>
       <c r="F61" s="9">
         <f t="shared" si="1"/>
-        <v>-86798</v>
+        <v>7402</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="14.25" customHeight="1">
@@ -1790,7 +1799,7 @@
       <c r="E62" s="14"/>
       <c r="F62" s="9">
         <f t="shared" si="1"/>
-        <v>-86798</v>
+        <v>7402</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="14.25" customHeight="1">
@@ -1801,7 +1810,7 @@
       <c r="E63" s="14"/>
       <c r="F63" s="9">
         <f t="shared" si="1"/>
-        <v>-86798</v>
+        <v>7402</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="14.25" customHeight="1">
@@ -1812,7 +1821,7 @@
       <c r="E64" s="14"/>
       <c r="F64" s="9">
         <f t="shared" si="1"/>
-        <v>-86798</v>
+        <v>7402</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="14.25" customHeight="1">
@@ -1823,7 +1832,7 @@
       <c r="E65" s="14"/>
       <c r="F65" s="9">
         <f t="shared" si="1"/>
-        <v>-86798</v>
+        <v>7402</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="14.25" customHeight="1">
@@ -1834,7 +1843,7 @@
       <c r="E66" s="14"/>
       <c r="F66" s="9">
         <f t="shared" si="1"/>
-        <v>-86798</v>
+        <v>7402</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="14.25" customHeight="1">
@@ -1845,7 +1854,7 @@
       <c r="E67" s="14"/>
       <c r="F67" s="9">
         <f t="shared" si="1"/>
-        <v>-86798</v>
+        <v>7402</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="14.25" customHeight="1">
@@ -1856,7 +1865,7 @@
       <c r="E68" s="14"/>
       <c r="F68" s="9">
         <f t="shared" si="1"/>
-        <v>-86798</v>
+        <v>7402</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="14.25" customHeight="1">
@@ -1867,7 +1876,7 @@
       <c r="E69" s="14"/>
       <c r="F69" s="9">
         <f t="shared" si="1"/>
-        <v>-86798</v>
+        <v>7402</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="14.25" customHeight="1">
@@ -1878,7 +1887,7 @@
       <c r="E70" s="14"/>
       <c r="F70" s="9">
         <f t="shared" si="1"/>
-        <v>-86798</v>
+        <v>7402</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="14.25" customHeight="1">
@@ -1889,7 +1898,7 @@
       <c r="E71" s="14"/>
       <c r="F71" s="9">
         <f t="shared" si="1"/>
-        <v>-86798</v>
+        <v>7402</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="14.25" customHeight="1">
@@ -1900,7 +1909,7 @@
       <c r="E72" s="14"/>
       <c r="F72" s="9">
         <f t="shared" si="1"/>
-        <v>-86798</v>
+        <v>7402</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="14.25" customHeight="1">
@@ -1911,7 +1920,7 @@
       <c r="E73" s="14"/>
       <c r="F73" s="9">
         <f t="shared" si="1"/>
-        <v>-86798</v>
+        <v>7402</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="14.25" customHeight="1">
@@ -1922,7 +1931,7 @@
       <c r="E74" s="14"/>
       <c r="F74" s="9">
         <f t="shared" si="1"/>
-        <v>-86798</v>
+        <v>7402</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="14.25" customHeight="1">
@@ -1933,7 +1942,7 @@
       <c r="E75" s="14"/>
       <c r="F75" s="9">
         <f t="shared" si="1"/>
-        <v>-86798</v>
+        <v>7402</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="14.25" customHeight="1">
@@ -1944,7 +1953,7 @@
       <c r="E76" s="14"/>
       <c r="F76" s="9">
         <f t="shared" si="1"/>
-        <v>-86798</v>
+        <v>7402</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="14.25" customHeight="1">
@@ -1955,7 +1964,7 @@
       <c r="E77" s="14"/>
       <c r="F77" s="9">
         <f t="shared" si="1"/>
-        <v>-86798</v>
+        <v>7402</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="14.25" customHeight="1">
@@ -1966,7 +1975,7 @@
       <c r="E78" s="14"/>
       <c r="F78" s="9">
         <f t="shared" si="1"/>
-        <v>-86798</v>
+        <v>7402</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="14.25" customHeight="1">
@@ -1977,7 +1986,7 @@
       <c r="E79" s="14"/>
       <c r="F79" s="9">
         <f t="shared" si="1"/>
-        <v>-86798</v>
+        <v>7402</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="14.25" customHeight="1">
@@ -1988,7 +1997,7 @@
       <c r="E80" s="14"/>
       <c r="F80" s="9">
         <f t="shared" si="1"/>
-        <v>-86798</v>
+        <v>7402</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="14.25" customHeight="1">
@@ -1999,7 +2008,7 @@
       <c r="E81" s="14"/>
       <c r="F81" s="9">
         <f t="shared" si="1"/>
-        <v>-86798</v>
+        <v>7402</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="14.25" customHeight="1">
@@ -2010,7 +2019,7 @@
       <c r="E82" s="14"/>
       <c r="F82" s="9">
         <f t="shared" si="1"/>
-        <v>-86798</v>
+        <v>7402</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="14.25" customHeight="1">
@@ -2021,7 +2030,7 @@
       <c r="E83" s="14"/>
       <c r="F83" s="9">
         <f t="shared" si="1"/>
-        <v>-86798</v>
+        <v>7402</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="14.25" customHeight="1">
@@ -2032,7 +2041,7 @@
       <c r="E84" s="14"/>
       <c r="F84" s="9">
         <f t="shared" si="1"/>
-        <v>-86798</v>
+        <v>7402</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="14.25" customHeight="1">
@@ -2043,7 +2052,7 @@
       <c r="E85" s="14"/>
       <c r="F85" s="9">
         <f t="shared" si="1"/>
-        <v>-86798</v>
+        <v>7402</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="14.25" customHeight="1">
@@ -2054,7 +2063,7 @@
       <c r="E86" s="14"/>
       <c r="F86" s="9">
         <f t="shared" si="1"/>
-        <v>-86798</v>
+        <v>7402</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="14.25" customHeight="1">
@@ -2065,7 +2074,7 @@
       <c r="E87" s="14"/>
       <c r="F87" s="9">
         <f t="shared" si="1"/>
-        <v>-86798</v>
+        <v>7402</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="14.25" customHeight="1">
@@ -2075,7 +2084,7 @@
       <c r="E88" s="14"/>
       <c r="F88" s="9">
         <f t="shared" si="1"/>
-        <v>-86798</v>
+        <v>7402</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="14.25" customHeight="1">
@@ -2086,7 +2095,7 @@
       <c r="E89" s="14"/>
       <c r="F89" s="9">
         <f t="shared" si="1"/>
-        <v>-86798</v>
+        <v>7402</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="14.25" customHeight="1">
@@ -2097,7 +2106,7 @@
       <c r="E90" s="14"/>
       <c r="F90" s="9">
         <f t="shared" si="1"/>
-        <v>-86798</v>
+        <v>7402</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="14.25" customHeight="1">
@@ -2108,7 +2117,7 @@
       <c r="E91" s="14"/>
       <c r="F91" s="9">
         <f t="shared" si="1"/>
-        <v>-86798</v>
+        <v>7402</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="14.25" customHeight="1">
@@ -2119,7 +2128,7 @@
       <c r="E92" s="14"/>
       <c r="F92" s="9">
         <f t="shared" si="1"/>
-        <v>-86798</v>
+        <v>7402</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="14.25" customHeight="1">
@@ -2135,7 +2144,7 @@
       <c r="E93" s="17"/>
       <c r="F93" s="9">
         <f t="shared" ref="F93:F94" si="2">F91</f>
-        <v>-86798</v>
+        <v>7402</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="14.25" customHeight="1">
@@ -2147,11 +2156,11 @@
       <c r="D94" s="29"/>
       <c r="E94" s="18">
         <f>SUM(E11:E92)</f>
-        <v>0</v>
+        <v>94200</v>
       </c>
       <c r="F94" s="9">
         <f t="shared" si="2"/>
-        <v>-86798</v>
+        <v>7402</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="14.25" customHeight="1">
@@ -2164,7 +2173,7 @@
       <c r="E95" s="33"/>
       <c r="F95" s="19">
         <f>F92</f>
-        <v>-86798</v>
+        <v>7402</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="14.25" customHeight="1"/>

--- a/Cash Book/Expenditure Mian Anjum Saeed.xlsx
+++ b/Cash Book/Expenditure Mian Anjum Saeed.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Mian-Industries\Cash Book\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11819FD8-C421-4F45-9EE9-DC5846A3E5A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D265946-7ED3-489B-91A2-199EEF583237}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="52">
   <si>
     <t>Date</t>
   </si>
@@ -785,8 +785,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z998"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -845,7 +845,7 @@
       <c r="J2" s="29"/>
       <c r="K2" s="10">
         <f>F95</f>
-        <v>7402</v>
+        <v>39902</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="14.25" customHeight="1">
@@ -1550,14 +1550,20 @@
       </c>
     </row>
     <row r="40" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A40" s="16"/>
-      <c r="B40" s="15"/>
+      <c r="A40" s="16">
+        <v>45866</v>
+      </c>
+      <c r="B40" s="15" t="s">
+        <v>51</v>
+      </c>
       <c r="C40" s="15"/>
       <c r="D40" s="13"/>
-      <c r="E40" s="14"/>
+      <c r="E40" s="14">
+        <v>32500</v>
+      </c>
       <c r="F40" s="9">
         <f t="shared" si="0"/>
-        <v>7402</v>
+        <v>39902</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="14.25" customHeight="1">
@@ -1568,7 +1574,7 @@
       <c r="E41" s="14"/>
       <c r="F41" s="9">
         <f t="shared" si="0"/>
-        <v>7402</v>
+        <v>39902</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="14.25" customHeight="1">
@@ -1579,7 +1585,7 @@
       <c r="E42" s="14"/>
       <c r="F42" s="9">
         <f t="shared" si="0"/>
-        <v>7402</v>
+        <v>39902</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="14.25" customHeight="1">
@@ -1590,7 +1596,7 @@
       <c r="E43" s="14"/>
       <c r="F43" s="9">
         <f t="shared" si="0"/>
-        <v>7402</v>
+        <v>39902</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="14.25" customHeight="1">
@@ -1601,7 +1607,7 @@
       <c r="E44" s="14"/>
       <c r="F44" s="9">
         <f t="shared" si="0"/>
-        <v>7402</v>
+        <v>39902</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="14.25" customHeight="1">
@@ -1612,7 +1618,7 @@
       <c r="E45" s="14"/>
       <c r="F45" s="9">
         <f t="shared" si="0"/>
-        <v>7402</v>
+        <v>39902</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="14.25" customHeight="1">
@@ -1623,7 +1629,7 @@
       <c r="E46" s="14"/>
       <c r="F46" s="9">
         <f t="shared" si="0"/>
-        <v>7402</v>
+        <v>39902</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="14.25" customHeight="1">
@@ -1634,7 +1640,7 @@
       <c r="E47" s="14"/>
       <c r="F47" s="9">
         <f t="shared" si="0"/>
-        <v>7402</v>
+        <v>39902</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="14.25" customHeight="1">
@@ -1645,7 +1651,7 @@
       <c r="E48" s="14"/>
       <c r="F48" s="9">
         <f t="shared" si="0"/>
-        <v>7402</v>
+        <v>39902</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="14.25" customHeight="1">
@@ -1656,7 +1662,7 @@
       <c r="E49" s="14"/>
       <c r="F49" s="9">
         <f t="shared" si="0"/>
-        <v>7402</v>
+        <v>39902</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="14.25" customHeight="1">
@@ -1667,7 +1673,7 @@
       <c r="E50" s="14"/>
       <c r="F50" s="9">
         <f t="shared" si="0"/>
-        <v>7402</v>
+        <v>39902</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="14.25" customHeight="1">
@@ -1678,7 +1684,7 @@
       <c r="E51" s="14"/>
       <c r="F51" s="9">
         <f t="shared" si="0"/>
-        <v>7402</v>
+        <v>39902</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="14.25" customHeight="1">
@@ -1689,7 +1695,7 @@
       <c r="E52" s="14"/>
       <c r="F52" s="9">
         <f t="shared" si="0"/>
-        <v>7402</v>
+        <v>39902</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="14.25" customHeight="1">
@@ -1700,7 +1706,7 @@
       <c r="E53" s="14"/>
       <c r="F53" s="9">
         <f t="shared" si="0"/>
-        <v>7402</v>
+        <v>39902</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="14.25" customHeight="1">
@@ -1711,7 +1717,7 @@
       <c r="E54" s="14"/>
       <c r="F54" s="9">
         <f t="shared" ref="F54:F92" si="1">(E54-D54)+F53</f>
-        <v>7402</v>
+        <v>39902</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="14.25" customHeight="1">
@@ -1722,7 +1728,7 @@
       <c r="E55" s="14"/>
       <c r="F55" s="9">
         <f t="shared" si="1"/>
-        <v>7402</v>
+        <v>39902</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="14.25" customHeight="1">
@@ -1733,7 +1739,7 @@
       <c r="E56" s="14"/>
       <c r="F56" s="9">
         <f t="shared" si="1"/>
-        <v>7402</v>
+        <v>39902</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="14.25" customHeight="1">
@@ -1744,7 +1750,7 @@
       <c r="E57" s="14"/>
       <c r="F57" s="9">
         <f t="shared" si="1"/>
-        <v>7402</v>
+        <v>39902</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="14.25" customHeight="1">
@@ -1755,7 +1761,7 @@
       <c r="E58" s="14"/>
       <c r="F58" s="9">
         <f t="shared" si="1"/>
-        <v>7402</v>
+        <v>39902</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="14.25" customHeight="1">
@@ -1766,7 +1772,7 @@
       <c r="E59" s="14"/>
       <c r="F59" s="9">
         <f t="shared" si="1"/>
-        <v>7402</v>
+        <v>39902</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="14.25" customHeight="1">
@@ -1777,7 +1783,7 @@
       <c r="E60" s="14"/>
       <c r="F60" s="9">
         <f t="shared" si="1"/>
-        <v>7402</v>
+        <v>39902</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="14.25" customHeight="1">
@@ -1788,7 +1794,7 @@
       <c r="E61" s="14"/>
       <c r="F61" s="9">
         <f t="shared" si="1"/>
-        <v>7402</v>
+        <v>39902</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="14.25" customHeight="1">
@@ -1799,7 +1805,7 @@
       <c r="E62" s="14"/>
       <c r="F62" s="9">
         <f t="shared" si="1"/>
-        <v>7402</v>
+        <v>39902</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="14.25" customHeight="1">
@@ -1810,7 +1816,7 @@
       <c r="E63" s="14"/>
       <c r="F63" s="9">
         <f t="shared" si="1"/>
-        <v>7402</v>
+        <v>39902</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="14.25" customHeight="1">
@@ -1821,7 +1827,7 @@
       <c r="E64" s="14"/>
       <c r="F64" s="9">
         <f t="shared" si="1"/>
-        <v>7402</v>
+        <v>39902</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="14.25" customHeight="1">
@@ -1832,7 +1838,7 @@
       <c r="E65" s="14"/>
       <c r="F65" s="9">
         <f t="shared" si="1"/>
-        <v>7402</v>
+        <v>39902</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="14.25" customHeight="1">
@@ -1843,7 +1849,7 @@
       <c r="E66" s="14"/>
       <c r="F66" s="9">
         <f t="shared" si="1"/>
-        <v>7402</v>
+        <v>39902</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="14.25" customHeight="1">
@@ -1854,7 +1860,7 @@
       <c r="E67" s="14"/>
       <c r="F67" s="9">
         <f t="shared" si="1"/>
-        <v>7402</v>
+        <v>39902</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="14.25" customHeight="1">
@@ -1865,7 +1871,7 @@
       <c r="E68" s="14"/>
       <c r="F68" s="9">
         <f t="shared" si="1"/>
-        <v>7402</v>
+        <v>39902</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="14.25" customHeight="1">
@@ -1876,7 +1882,7 @@
       <c r="E69" s="14"/>
       <c r="F69" s="9">
         <f t="shared" si="1"/>
-        <v>7402</v>
+        <v>39902</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="14.25" customHeight="1">
@@ -1887,7 +1893,7 @@
       <c r="E70" s="14"/>
       <c r="F70" s="9">
         <f t="shared" si="1"/>
-        <v>7402</v>
+        <v>39902</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="14.25" customHeight="1">
@@ -1898,7 +1904,7 @@
       <c r="E71" s="14"/>
       <c r="F71" s="9">
         <f t="shared" si="1"/>
-        <v>7402</v>
+        <v>39902</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="14.25" customHeight="1">
@@ -1909,7 +1915,7 @@
       <c r="E72" s="14"/>
       <c r="F72" s="9">
         <f t="shared" si="1"/>
-        <v>7402</v>
+        <v>39902</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="14.25" customHeight="1">
@@ -1920,7 +1926,7 @@
       <c r="E73" s="14"/>
       <c r="F73" s="9">
         <f t="shared" si="1"/>
-        <v>7402</v>
+        <v>39902</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="14.25" customHeight="1">
@@ -1931,7 +1937,7 @@
       <c r="E74" s="14"/>
       <c r="F74" s="9">
         <f t="shared" si="1"/>
-        <v>7402</v>
+        <v>39902</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="14.25" customHeight="1">
@@ -1942,7 +1948,7 @@
       <c r="E75" s="14"/>
       <c r="F75" s="9">
         <f t="shared" si="1"/>
-        <v>7402</v>
+        <v>39902</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="14.25" customHeight="1">
@@ -1953,7 +1959,7 @@
       <c r="E76" s="14"/>
       <c r="F76" s="9">
         <f t="shared" si="1"/>
-        <v>7402</v>
+        <v>39902</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="14.25" customHeight="1">
@@ -1964,7 +1970,7 @@
       <c r="E77" s="14"/>
       <c r="F77" s="9">
         <f t="shared" si="1"/>
-        <v>7402</v>
+        <v>39902</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="14.25" customHeight="1">
@@ -1975,7 +1981,7 @@
       <c r="E78" s="14"/>
       <c r="F78" s="9">
         <f t="shared" si="1"/>
-        <v>7402</v>
+        <v>39902</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="14.25" customHeight="1">
@@ -1986,7 +1992,7 @@
       <c r="E79" s="14"/>
       <c r="F79" s="9">
         <f t="shared" si="1"/>
-        <v>7402</v>
+        <v>39902</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="14.25" customHeight="1">
@@ -1997,7 +2003,7 @@
       <c r="E80" s="14"/>
       <c r="F80" s="9">
         <f t="shared" si="1"/>
-        <v>7402</v>
+        <v>39902</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="14.25" customHeight="1">
@@ -2008,7 +2014,7 @@
       <c r="E81" s="14"/>
       <c r="F81" s="9">
         <f t="shared" si="1"/>
-        <v>7402</v>
+        <v>39902</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="14.25" customHeight="1">
@@ -2019,7 +2025,7 @@
       <c r="E82" s="14"/>
       <c r="F82" s="9">
         <f t="shared" si="1"/>
-        <v>7402</v>
+        <v>39902</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="14.25" customHeight="1">
@@ -2030,7 +2036,7 @@
       <c r="E83" s="14"/>
       <c r="F83" s="9">
         <f t="shared" si="1"/>
-        <v>7402</v>
+        <v>39902</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="14.25" customHeight="1">
@@ -2041,7 +2047,7 @@
       <c r="E84" s="14"/>
       <c r="F84" s="9">
         <f t="shared" si="1"/>
-        <v>7402</v>
+        <v>39902</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="14.25" customHeight="1">
@@ -2052,7 +2058,7 @@
       <c r="E85" s="14"/>
       <c r="F85" s="9">
         <f t="shared" si="1"/>
-        <v>7402</v>
+        <v>39902</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="14.25" customHeight="1">
@@ -2063,7 +2069,7 @@
       <c r="E86" s="14"/>
       <c r="F86" s="9">
         <f t="shared" si="1"/>
-        <v>7402</v>
+        <v>39902</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="14.25" customHeight="1">
@@ -2074,7 +2080,7 @@
       <c r="E87" s="14"/>
       <c r="F87" s="9">
         <f t="shared" si="1"/>
-        <v>7402</v>
+        <v>39902</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="14.25" customHeight="1">
@@ -2084,7 +2090,7 @@
       <c r="E88" s="14"/>
       <c r="F88" s="9">
         <f t="shared" si="1"/>
-        <v>7402</v>
+        <v>39902</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="14.25" customHeight="1">
@@ -2095,7 +2101,7 @@
       <c r="E89" s="14"/>
       <c r="F89" s="9">
         <f t="shared" si="1"/>
-        <v>7402</v>
+        <v>39902</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="14.25" customHeight="1">
@@ -2106,7 +2112,7 @@
       <c r="E90" s="14"/>
       <c r="F90" s="9">
         <f t="shared" si="1"/>
-        <v>7402</v>
+        <v>39902</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="14.25" customHeight="1">
@@ -2117,7 +2123,7 @@
       <c r="E91" s="14"/>
       <c r="F91" s="9">
         <f t="shared" si="1"/>
-        <v>7402</v>
+        <v>39902</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="14.25" customHeight="1">
@@ -2128,7 +2134,7 @@
       <c r="E92" s="14"/>
       <c r="F92" s="9">
         <f t="shared" si="1"/>
-        <v>7402</v>
+        <v>39902</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="14.25" customHeight="1">
@@ -2144,7 +2150,7 @@
       <c r="E93" s="17"/>
       <c r="F93" s="9">
         <f t="shared" ref="F93:F94" si="2">F91</f>
-        <v>7402</v>
+        <v>39902</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="14.25" customHeight="1">
@@ -2156,11 +2162,11 @@
       <c r="D94" s="29"/>
       <c r="E94" s="18">
         <f>SUM(E11:E92)</f>
-        <v>94200</v>
+        <v>126700</v>
       </c>
       <c r="F94" s="9">
         <f t="shared" si="2"/>
-        <v>7402</v>
+        <v>39902</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="14.25" customHeight="1">
@@ -2173,7 +2179,7 @@
       <c r="E95" s="33"/>
       <c r="F95" s="19">
         <f>F92</f>
-        <v>7402</v>
+        <v>39902</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="14.25" customHeight="1"/>

--- a/Cash Book/Expenditure Mian Anjum Saeed.xlsx
+++ b/Cash Book/Expenditure Mian Anjum Saeed.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Mian-Industries\Cash Book\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D265946-7ED3-489B-91A2-199EEF583237}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3781F86A-968C-437B-AC9C-B5EE899A9E78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -786,7 +786,7 @@
   <dimension ref="A1:Z998"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>

--- a/Cash Book/Expenditure Mian Anjum Saeed.xlsx
+++ b/Cash Book/Expenditure Mian Anjum Saeed.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Mian-Industries\Cash Book\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3781F86A-968C-437B-AC9C-B5EE899A9E78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8745041-3C31-4ADE-BEF1-31E155C5E02E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="54">
   <si>
     <t>Date</t>
   </si>
@@ -182,6 +182,12 @@
   <si>
     <t xml:space="preserve">Cash Paid C/O Abu bakar </t>
   </si>
+  <si>
+    <t>El</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Electriciton Itms </t>
+  </si>
 </sst>
 </file>
 
@@ -190,7 +196,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -202,36 +208,43 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -785,11 +798,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z998"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.5703125" customWidth="1"/>
     <col min="2" max="2" width="40.28515625" customWidth="1"/>
@@ -798,7 +811,7 @@
     <col min="6" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="14.25" customHeight="1">
+    <row r="1" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -824,10 +837,10 @@
       <c r="J1" s="26"/>
       <c r="K1" s="6">
         <f>D93</f>
-        <v>336798</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="14.25" customHeight="1">
+        <v>350178</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
       <c r="D2" s="8"/>
@@ -845,10 +858,10 @@
       <c r="J2" s="29"/>
       <c r="K2" s="10">
         <f>F95</f>
-        <v>39902</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="14.25" customHeight="1">
+        <v>26522</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>45854</v>
       </c>
@@ -867,7 +880,7 @@
         <v>216000</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="14.25" customHeight="1">
+    <row r="4" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11">
         <v>45854</v>
       </c>
@@ -886,7 +899,7 @@
         <v>208000</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="14.25" customHeight="1">
+    <row r="5" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11">
         <v>45854</v>
       </c>
@@ -905,7 +918,7 @@
         <v>207910</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="14.25" customHeight="1">
+    <row r="6" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
         <v>45854</v>
       </c>
@@ -924,7 +937,7 @@
         <v>169860</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="14.25" customHeight="1">
+    <row r="7" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <v>45854</v>
       </c>
@@ -943,7 +956,7 @@
         <v>168760</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="14.25" customHeight="1">
+    <row r="8" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11">
         <v>45855</v>
       </c>
@@ -962,7 +975,7 @@
         <v>167750</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="14.25" customHeight="1">
+    <row r="9" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="16">
         <v>45855</v>
       </c>
@@ -981,7 +994,7 @@
         <v>163700</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="14.25" customHeight="1">
+    <row r="10" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="16">
         <v>45855</v>
       </c>
@@ -1000,7 +1013,7 @@
         <v>161850</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="14.25" customHeight="1">
+    <row r="11" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="16">
         <v>45855</v>
       </c>
@@ -1019,7 +1032,7 @@
         <v>141850</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="14.25" customHeight="1">
+    <row r="12" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="16">
         <v>45855</v>
       </c>
@@ -1038,7 +1051,7 @@
         <v>141650</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="14.25" customHeight="1">
+    <row r="13" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="16">
         <v>45855</v>
       </c>
@@ -1057,7 +1070,7 @@
         <v>140650</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="14.25" customHeight="1">
+    <row r="14" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="16">
         <v>45856</v>
       </c>
@@ -1076,7 +1089,7 @@
         <v>90650</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="14.25" customHeight="1">
+    <row r="15" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="16">
         <v>45855</v>
       </c>
@@ -1095,7 +1108,7 @@
         <v>90280</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="14.25" customHeight="1">
+    <row r="16" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="16">
         <v>45857</v>
       </c>
@@ -1114,7 +1127,7 @@
         <v>79680</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="14.25" customHeight="1">
+    <row r="17" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="16">
         <v>45857</v>
       </c>
@@ -1133,7 +1146,7 @@
         <v>69180</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="14.25" customHeight="1">
+    <row r="18" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="16">
         <v>45857</v>
       </c>
@@ -1152,7 +1165,7 @@
         <v>64880</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="14.25" customHeight="1">
+    <row r="19" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="16">
         <v>45857</v>
       </c>
@@ -1171,7 +1184,7 @@
         <v>64440</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="14.25" customHeight="1">
+    <row r="20" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="16">
         <v>45857</v>
       </c>
@@ -1190,7 +1203,7 @@
         <v>63140</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="14.25" customHeight="1">
+    <row r="21" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="16">
         <v>45857</v>
       </c>
@@ -1209,7 +1222,7 @@
         <v>62540</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="14.25" customHeight="1">
+    <row r="22" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="16">
         <v>45857</v>
       </c>
@@ -1228,7 +1241,7 @@
         <v>61890</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="14.25" customHeight="1">
+    <row r="23" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="16">
         <v>45859</v>
       </c>
@@ -1247,7 +1260,7 @@
         <v>55140</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="14.25" customHeight="1">
+    <row r="24" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="16">
         <v>45859</v>
       </c>
@@ -1266,7 +1279,7 @@
         <v>50640</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="14.25" customHeight="1">
+    <row r="25" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="16">
         <v>45859</v>
       </c>
@@ -1285,7 +1298,7 @@
         <v>48890</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="14.25" customHeight="1">
+    <row r="26" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="16">
         <v>45859</v>
       </c>
@@ -1304,7 +1317,7 @@
         <v>46240</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="14.25" customHeight="1">
+    <row r="27" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="16">
         <v>45860</v>
       </c>
@@ -1323,7 +1336,7 @@
         <v>46140</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="14.25" customHeight="1">
+    <row r="28" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="16">
         <v>45860</v>
       </c>
@@ -1342,7 +1355,7 @@
         <v>26140</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="14.25" customHeight="1">
+    <row r="29" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="16">
         <v>45860</v>
       </c>
@@ -1361,7 +1374,7 @@
         <v>24340</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="14.25" customHeight="1">
+    <row r="30" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="16">
         <v>45860</v>
       </c>
@@ -1380,7 +1393,7 @@
         <v>24170</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="14.25" customHeight="1">
+    <row r="31" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="16">
         <v>45861</v>
       </c>
@@ -1399,7 +1412,7 @@
         <v>23770</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="14.25" customHeight="1">
+    <row r="32" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="16">
         <v>45861</v>
       </c>
@@ -1418,7 +1431,7 @@
         <v>13770</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="14.25" customHeight="1">
+    <row r="33" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="16">
         <v>45861</v>
       </c>
@@ -1437,7 +1450,7 @@
         <v>9770</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="14.25" customHeight="1">
+    <row r="34" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="16">
         <v>45861</v>
       </c>
@@ -1456,7 +1469,7 @@
         <v>-230</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="14.25" customHeight="1">
+    <row r="35" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="16">
         <v>45862</v>
       </c>
@@ -1475,7 +1488,7 @@
         <v>-23730</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="14.25" customHeight="1">
+    <row r="36" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="16">
         <v>45862</v>
       </c>
@@ -1494,7 +1507,7 @@
         <v>-35898</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="14.25" customHeight="1">
+    <row r="37" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="16">
         <v>45863</v>
       </c>
@@ -1513,7 +1526,7 @@
         <v>-84398</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="14.25" customHeight="1">
+    <row r="38" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="16">
         <v>45863</v>
       </c>
@@ -1532,7 +1545,7 @@
         <v>-86798</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="14.25" customHeight="1">
+    <row r="39" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="16">
         <v>45866</v>
       </c>
@@ -1549,7 +1562,7 @@
         <v>7402</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="14.25" customHeight="1">
+    <row r="40" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="16">
         <v>45866</v>
       </c>
@@ -1566,29 +1579,39 @@
         <v>39902</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="14.25" customHeight="1">
+    <row r="41" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="16"/>
-      <c r="B41" s="15"/>
+      <c r="B41" s="15" t="s">
+        <v>52</v>
+      </c>
       <c r="C41" s="15"/>
-      <c r="D41" s="13"/>
+      <c r="D41" s="13">
+        <v>3380</v>
+      </c>
       <c r="E41" s="14"/>
       <c r="F41" s="9">
         <f t="shared" si="0"/>
-        <v>39902</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A42" s="16"/>
-      <c r="B42" s="15"/>
+        <v>36522</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="16">
+        <v>45869</v>
+      </c>
+      <c r="B42" s="15" t="s">
+        <v>53</v>
+      </c>
       <c r="C42" s="15"/>
-      <c r="D42" s="13"/>
+      <c r="D42" s="13">
+        <v>10000</v>
+      </c>
       <c r="E42" s="14"/>
       <c r="F42" s="9">
         <f t="shared" si="0"/>
-        <v>39902</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="14.25" customHeight="1">
+        <v>26522</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="16"/>
       <c r="B43" s="15"/>
       <c r="C43" s="15"/>
@@ -1596,10 +1619,10 @@
       <c r="E43" s="14"/>
       <c r="F43" s="9">
         <f t="shared" si="0"/>
-        <v>39902</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="14.25" customHeight="1">
+        <v>26522</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="16"/>
       <c r="B44" s="15"/>
       <c r="C44" s="15"/>
@@ -1607,10 +1630,10 @@
       <c r="E44" s="14"/>
       <c r="F44" s="9">
         <f t="shared" si="0"/>
-        <v>39902</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="14.25" customHeight="1">
+        <v>26522</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="16"/>
       <c r="B45" s="15"/>
       <c r="C45" s="15"/>
@@ -1618,10 +1641,10 @@
       <c r="E45" s="14"/>
       <c r="F45" s="9">
         <f t="shared" si="0"/>
-        <v>39902</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="14.25" customHeight="1">
+        <v>26522</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="16"/>
       <c r="B46" s="15"/>
       <c r="C46" s="15"/>
@@ -1629,10 +1652,10 @@
       <c r="E46" s="14"/>
       <c r="F46" s="9">
         <f t="shared" si="0"/>
-        <v>39902</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="14.25" customHeight="1">
+        <v>26522</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="16"/>
       <c r="B47" s="15"/>
       <c r="C47" s="15"/>
@@ -1640,10 +1663,10 @@
       <c r="E47" s="14"/>
       <c r="F47" s="9">
         <f t="shared" si="0"/>
-        <v>39902</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="14.25" customHeight="1">
+        <v>26522</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="16"/>
       <c r="B48" s="15"/>
       <c r="C48" s="15"/>
@@ -1651,10 +1674,10 @@
       <c r="E48" s="14"/>
       <c r="F48" s="9">
         <f t="shared" si="0"/>
-        <v>39902</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="14.25" customHeight="1">
+        <v>26522</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="16"/>
       <c r="B49" s="15"/>
       <c r="C49" s="15"/>
@@ -1662,10 +1685,10 @@
       <c r="E49" s="14"/>
       <c r="F49" s="9">
         <f t="shared" si="0"/>
-        <v>39902</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="14.25" customHeight="1">
+        <v>26522</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="16"/>
       <c r="B50" s="15"/>
       <c r="C50" s="15"/>
@@ -1673,10 +1696,10 @@
       <c r="E50" s="14"/>
       <c r="F50" s="9">
         <f t="shared" si="0"/>
-        <v>39902</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="14.25" customHeight="1">
+        <v>26522</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="16"/>
       <c r="B51" s="15"/>
       <c r="C51" s="15"/>
@@ -1684,10 +1707,10 @@
       <c r="E51" s="14"/>
       <c r="F51" s="9">
         <f t="shared" si="0"/>
-        <v>39902</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="14.25" customHeight="1">
+        <v>26522</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="16"/>
       <c r="B52" s="15"/>
       <c r="C52" s="15"/>
@@ -1695,10 +1718,10 @@
       <c r="E52" s="14"/>
       <c r="F52" s="9">
         <f t="shared" si="0"/>
-        <v>39902</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="14.25" customHeight="1">
+        <v>26522</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="16"/>
       <c r="B53" s="15"/>
       <c r="C53" s="15"/>
@@ -1706,10 +1729,10 @@
       <c r="E53" s="14"/>
       <c r="F53" s="9">
         <f t="shared" si="0"/>
-        <v>39902</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" ht="14.25" customHeight="1">
+        <v>26522</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="16"/>
       <c r="B54" s="15"/>
       <c r="C54" s="15"/>
@@ -1717,10 +1740,10 @@
       <c r="E54" s="14"/>
       <c r="F54" s="9">
         <f t="shared" ref="F54:F92" si="1">(E54-D54)+F53</f>
-        <v>39902</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="14.25" customHeight="1">
+        <v>26522</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="16"/>
       <c r="B55" s="15"/>
       <c r="C55" s="15"/>
@@ -1728,10 +1751,10 @@
       <c r="E55" s="14"/>
       <c r="F55" s="9">
         <f t="shared" si="1"/>
-        <v>39902</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" ht="14.25" customHeight="1">
+        <v>26522</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="16"/>
       <c r="B56" s="15"/>
       <c r="C56" s="15"/>
@@ -1739,10 +1762,10 @@
       <c r="E56" s="14"/>
       <c r="F56" s="9">
         <f t="shared" si="1"/>
-        <v>39902</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" ht="14.25" customHeight="1">
+        <v>26522</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="16"/>
       <c r="B57" s="15"/>
       <c r="C57" s="15"/>
@@ -1750,10 +1773,10 @@
       <c r="E57" s="14"/>
       <c r="F57" s="9">
         <f t="shared" si="1"/>
-        <v>39902</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" ht="14.25" customHeight="1">
+        <v>26522</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="16"/>
       <c r="B58" s="15"/>
       <c r="C58" s="15"/>
@@ -1761,10 +1784,10 @@
       <c r="E58" s="14"/>
       <c r="F58" s="9">
         <f t="shared" si="1"/>
-        <v>39902</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" ht="14.25" customHeight="1">
+        <v>26522</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="16"/>
       <c r="B59" s="15"/>
       <c r="C59" s="15"/>
@@ -1772,10 +1795,10 @@
       <c r="E59" s="14"/>
       <c r="F59" s="9">
         <f t="shared" si="1"/>
-        <v>39902</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" ht="14.25" customHeight="1">
+        <v>26522</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="16"/>
       <c r="B60" s="15"/>
       <c r="C60" s="15"/>
@@ -1783,10 +1806,10 @@
       <c r="E60" s="14"/>
       <c r="F60" s="9">
         <f t="shared" si="1"/>
-        <v>39902</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" ht="14.25" customHeight="1">
+        <v>26522</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="16"/>
       <c r="B61" s="15"/>
       <c r="C61" s="15"/>
@@ -1794,10 +1817,10 @@
       <c r="E61" s="14"/>
       <c r="F61" s="9">
         <f t="shared" si="1"/>
-        <v>39902</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" ht="14.25" customHeight="1">
+        <v>26522</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="16"/>
       <c r="B62" s="15"/>
       <c r="C62" s="15"/>
@@ -1805,10 +1828,10 @@
       <c r="E62" s="14"/>
       <c r="F62" s="9">
         <f t="shared" si="1"/>
-        <v>39902</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" ht="14.25" customHeight="1">
+        <v>26522</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="16"/>
       <c r="B63" s="15"/>
       <c r="C63" s="15"/>
@@ -1816,10 +1839,10 @@
       <c r="E63" s="14"/>
       <c r="F63" s="9">
         <f t="shared" si="1"/>
-        <v>39902</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" ht="14.25" customHeight="1">
+        <v>26522</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="16"/>
       <c r="B64" s="15"/>
       <c r="C64" s="15"/>
@@ -1827,10 +1850,10 @@
       <c r="E64" s="14"/>
       <c r="F64" s="9">
         <f t="shared" si="1"/>
-        <v>39902</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" ht="14.25" customHeight="1">
+        <v>26522</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="16"/>
       <c r="B65" s="15"/>
       <c r="C65" s="15"/>
@@ -1838,10 +1861,10 @@
       <c r="E65" s="14"/>
       <c r="F65" s="9">
         <f t="shared" si="1"/>
-        <v>39902</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" ht="14.25" customHeight="1">
+        <v>26522</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="16"/>
       <c r="B66" s="15"/>
       <c r="C66" s="15"/>
@@ -1849,10 +1872,10 @@
       <c r="E66" s="14"/>
       <c r="F66" s="9">
         <f t="shared" si="1"/>
-        <v>39902</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" ht="14.25" customHeight="1">
+        <v>26522</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="16"/>
       <c r="B67" s="15"/>
       <c r="C67" s="15"/>
@@ -1860,10 +1883,10 @@
       <c r="E67" s="14"/>
       <c r="F67" s="9">
         <f t="shared" si="1"/>
-        <v>39902</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" ht="14.25" customHeight="1">
+        <v>26522</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="16"/>
       <c r="B68" s="15"/>
       <c r="C68" s="15"/>
@@ -1871,10 +1894,10 @@
       <c r="E68" s="14"/>
       <c r="F68" s="9">
         <f t="shared" si="1"/>
-        <v>39902</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" ht="14.25" customHeight="1">
+        <v>26522</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="16"/>
       <c r="B69" s="15"/>
       <c r="C69" s="15"/>
@@ -1882,10 +1905,10 @@
       <c r="E69" s="14"/>
       <c r="F69" s="9">
         <f t="shared" si="1"/>
-        <v>39902</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" ht="14.25" customHeight="1">
+        <v>26522</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="16"/>
       <c r="B70" s="15"/>
       <c r="C70" s="15"/>
@@ -1893,10 +1916,10 @@
       <c r="E70" s="14"/>
       <c r="F70" s="9">
         <f t="shared" si="1"/>
-        <v>39902</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" ht="14.25" customHeight="1">
+        <v>26522</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="16"/>
       <c r="B71" s="15"/>
       <c r="C71" s="15"/>
@@ -1904,10 +1927,10 @@
       <c r="E71" s="14"/>
       <c r="F71" s="9">
         <f t="shared" si="1"/>
-        <v>39902</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" ht="14.25" customHeight="1">
+        <v>26522</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="16"/>
       <c r="B72" s="15"/>
       <c r="C72" s="15"/>
@@ -1915,10 +1938,10 @@
       <c r="E72" s="14"/>
       <c r="F72" s="9">
         <f t="shared" si="1"/>
-        <v>39902</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" ht="14.25" customHeight="1">
+        <v>26522</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="16"/>
       <c r="B73" s="15"/>
       <c r="C73" s="15"/>
@@ -1926,10 +1949,10 @@
       <c r="E73" s="14"/>
       <c r="F73" s="9">
         <f t="shared" si="1"/>
-        <v>39902</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" ht="14.25" customHeight="1">
+        <v>26522</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="16"/>
       <c r="B74" s="15"/>
       <c r="C74" s="15"/>
@@ -1937,10 +1960,10 @@
       <c r="E74" s="14"/>
       <c r="F74" s="9">
         <f t="shared" si="1"/>
-        <v>39902</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" ht="14.25" customHeight="1">
+        <v>26522</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="16"/>
       <c r="B75" s="15"/>
       <c r="C75" s="15"/>
@@ -1948,10 +1971,10 @@
       <c r="E75" s="14"/>
       <c r="F75" s="9">
         <f t="shared" si="1"/>
-        <v>39902</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" ht="14.25" customHeight="1">
+        <v>26522</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="16"/>
       <c r="B76" s="15"/>
       <c r="C76" s="15"/>
@@ -1959,10 +1982,10 @@
       <c r="E76" s="14"/>
       <c r="F76" s="9">
         <f t="shared" si="1"/>
-        <v>39902</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" ht="14.25" customHeight="1">
+        <v>26522</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="16"/>
       <c r="B77" s="15"/>
       <c r="C77" s="15"/>
@@ -1970,10 +1993,10 @@
       <c r="E77" s="14"/>
       <c r="F77" s="9">
         <f t="shared" si="1"/>
-        <v>39902</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" ht="14.25" customHeight="1">
+        <v>26522</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="16"/>
       <c r="B78" s="15"/>
       <c r="C78" s="15"/>
@@ -1981,10 +2004,10 @@
       <c r="E78" s="14"/>
       <c r="F78" s="9">
         <f t="shared" si="1"/>
-        <v>39902</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" ht="14.25" customHeight="1">
+        <v>26522</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="16"/>
       <c r="B79" s="15"/>
       <c r="C79" s="15"/>
@@ -1992,10 +2015,10 @@
       <c r="E79" s="14"/>
       <c r="F79" s="9">
         <f t="shared" si="1"/>
-        <v>39902</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" ht="14.25" customHeight="1">
+        <v>26522</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="16"/>
       <c r="B80" s="15"/>
       <c r="C80" s="15"/>
@@ -2003,10 +2026,10 @@
       <c r="E80" s="14"/>
       <c r="F80" s="9">
         <f t="shared" si="1"/>
-        <v>39902</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" ht="14.25" customHeight="1">
+        <v>26522</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="16"/>
       <c r="B81" s="15"/>
       <c r="C81" s="15"/>
@@ -2014,10 +2037,10 @@
       <c r="E81" s="14"/>
       <c r="F81" s="9">
         <f t="shared" si="1"/>
-        <v>39902</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" ht="14.25" customHeight="1">
+        <v>26522</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="16"/>
       <c r="B82" s="15"/>
       <c r="C82" s="15"/>
@@ -2025,10 +2048,10 @@
       <c r="E82" s="14"/>
       <c r="F82" s="9">
         <f t="shared" si="1"/>
-        <v>39902</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" ht="14.25" customHeight="1">
+        <v>26522</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="16"/>
       <c r="B83" s="15"/>
       <c r="C83" s="15"/>
@@ -2036,10 +2059,10 @@
       <c r="E83" s="14"/>
       <c r="F83" s="9">
         <f t="shared" si="1"/>
-        <v>39902</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" ht="14.25" customHeight="1">
+        <v>26522</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="16"/>
       <c r="B84" s="15"/>
       <c r="C84" s="15"/>
@@ -2047,10 +2070,10 @@
       <c r="E84" s="14"/>
       <c r="F84" s="9">
         <f t="shared" si="1"/>
-        <v>39902</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" ht="14.25" customHeight="1">
+        <v>26522</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="16"/>
       <c r="B85" s="15"/>
       <c r="C85" s="15"/>
@@ -2058,10 +2081,10 @@
       <c r="E85" s="14"/>
       <c r="F85" s="9">
         <f t="shared" si="1"/>
-        <v>39902</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" ht="14.25" customHeight="1">
+        <v>26522</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="16"/>
       <c r="B86" s="15"/>
       <c r="C86" s="15"/>
@@ -2069,10 +2092,10 @@
       <c r="E86" s="14"/>
       <c r="F86" s="9">
         <f t="shared" si="1"/>
-        <v>39902</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" ht="14.25" customHeight="1">
+        <v>26522</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="16"/>
       <c r="B87" s="15"/>
       <c r="C87" s="15"/>
@@ -2080,20 +2103,20 @@
       <c r="E87" s="14"/>
       <c r="F87" s="9">
         <f t="shared" si="1"/>
-        <v>39902</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" ht="14.25" customHeight="1">
+        <v>26522</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B88" s="15"/>
       <c r="C88" s="15"/>
       <c r="D88" s="13"/>
       <c r="E88" s="14"/>
       <c r="F88" s="9">
         <f t="shared" si="1"/>
-        <v>39902</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" ht="14.25" customHeight="1">
+        <v>26522</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="16"/>
       <c r="B89" s="15"/>
       <c r="C89" s="15"/>
@@ -2101,10 +2124,10 @@
       <c r="E89" s="14"/>
       <c r="F89" s="9">
         <f t="shared" si="1"/>
-        <v>39902</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" ht="14.25" customHeight="1">
+        <v>26522</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="16"/>
       <c r="B90" s="15"/>
       <c r="C90" s="15"/>
@@ -2112,10 +2135,10 @@
       <c r="E90" s="14"/>
       <c r="F90" s="9">
         <f t="shared" si="1"/>
-        <v>39902</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" ht="14.25" customHeight="1">
+        <v>26522</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="16"/>
       <c r="B91" s="15"/>
       <c r="C91" s="15"/>
@@ -2123,10 +2146,10 @@
       <c r="E91" s="14"/>
       <c r="F91" s="9">
         <f t="shared" si="1"/>
-        <v>39902</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" ht="14.25" customHeight="1">
+        <v>26522</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="16"/>
       <c r="B92" s="15"/>
       <c r="C92" s="15"/>
@@ -2134,10 +2157,10 @@
       <c r="E92" s="14"/>
       <c r="F92" s="9">
         <f t="shared" si="1"/>
-        <v>39902</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" ht="14.25" customHeight="1">
+        <v>26522</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="24" t="s">
         <v>6</v>
       </c>
@@ -2145,15 +2168,15 @@
       <c r="C93" s="26"/>
       <c r="D93" s="6">
         <f>SUM(D3:D92)</f>
-        <v>336798</v>
+        <v>350178</v>
       </c>
       <c r="E93" s="17"/>
       <c r="F93" s="9">
         <f t="shared" ref="F93:F94" si="2">F91</f>
-        <v>39902</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" ht="14.25" customHeight="1">
+        <v>26522</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="30" t="s">
         <v>31</v>
       </c>
@@ -2166,10 +2189,10 @@
       </c>
       <c r="F94" s="9">
         <f t="shared" si="2"/>
-        <v>39902</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" ht="14.25" customHeight="1">
+        <v>26522</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="31" t="s">
         <v>7</v>
       </c>
@@ -2179,571 +2202,571 @@
       <c r="E95" s="33"/>
       <c r="F95" s="19">
         <f>F92</f>
-        <v>39902</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" ht="14.25" customHeight="1"/>
-    <row r="97" spans="1:5" ht="14.25" customHeight="1"/>
-    <row r="98" spans="1:5" ht="14.25" customHeight="1"/>
-    <row r="99" spans="1:5" ht="14.25" customHeight="1">
+        <v>26522</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="97" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="98" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="99" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="20"/>
       <c r="C99" s="21"/>
       <c r="D99" s="21"/>
       <c r="E99" s="21"/>
     </row>
-    <row r="100" spans="1:5" ht="14.25" customHeight="1">
+    <row r="100" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="20"/>
       <c r="C100" s="21"/>
       <c r="D100" s="21"/>
       <c r="E100" s="21"/>
     </row>
-    <row r="101" spans="1:5" ht="14.25" customHeight="1">
+    <row r="101" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="20"/>
       <c r="C101" s="21"/>
       <c r="D101" s="21"/>
       <c r="E101" s="21"/>
     </row>
-    <row r="102" spans="1:5" ht="14.25" customHeight="1">
+    <row r="102" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="20"/>
       <c r="C102" s="21"/>
       <c r="D102" s="21"/>
       <c r="E102" s="21"/>
     </row>
-    <row r="103" spans="1:5" ht="14.25" customHeight="1">
+    <row r="103" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="20"/>
       <c r="C103" s="21"/>
       <c r="D103" s="21"/>
       <c r="E103" s="21"/>
     </row>
-    <row r="104" spans="1:5" ht="14.25" customHeight="1">
+    <row r="104" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="20"/>
       <c r="C104" s="21"/>
       <c r="D104" s="21"/>
       <c r="E104" s="21"/>
     </row>
-    <row r="105" spans="1:5" ht="14.25" customHeight="1">
+    <row r="105" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="20"/>
       <c r="C105" s="21"/>
       <c r="D105" s="21"/>
       <c r="E105" s="21"/>
     </row>
-    <row r="106" spans="1:5" ht="14.25" customHeight="1">
+    <row r="106" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="20"/>
       <c r="C106" s="21"/>
       <c r="D106" s="21"/>
       <c r="E106" s="21"/>
     </row>
-    <row r="107" spans="1:5" ht="14.25" customHeight="1">
+    <row r="107" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="20"/>
       <c r="C107" s="21"/>
       <c r="D107" s="21"/>
       <c r="E107" s="21"/>
     </row>
-    <row r="108" spans="1:5" ht="14.25" customHeight="1">
+    <row r="108" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="20"/>
       <c r="C108" s="21"/>
       <c r="D108" s="21"/>
       <c r="E108" s="21"/>
     </row>
-    <row r="109" spans="1:5" ht="14.25" customHeight="1">
+    <row r="109" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="20"/>
       <c r="C109" s="21"/>
       <c r="D109" s="21"/>
       <c r="E109" s="21"/>
     </row>
-    <row r="110" spans="1:5" ht="14.25" customHeight="1">
+    <row r="110" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="20"/>
       <c r="C110" s="21"/>
       <c r="D110" s="21"/>
       <c r="E110" s="21"/>
     </row>
-    <row r="111" spans="1:5" ht="14.25" customHeight="1">
+    <row r="111" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="20"/>
       <c r="C111" s="21"/>
       <c r="D111" s="21"/>
       <c r="E111" s="21"/>
     </row>
-    <row r="112" spans="1:5" ht="14.25" customHeight="1">
+    <row r="112" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="20"/>
       <c r="C112" s="21"/>
       <c r="D112" s="21"/>
       <c r="E112" s="21"/>
     </row>
-    <row r="113" spans="1:5" ht="14.25" customHeight="1">
+    <row r="113" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="20"/>
       <c r="C113" s="21"/>
       <c r="D113" s="21"/>
       <c r="E113" s="21"/>
     </row>
-    <row r="114" spans="1:5" ht="14.25" customHeight="1">
+    <row r="114" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="20"/>
       <c r="C114" s="21"/>
       <c r="D114" s="21"/>
       <c r="E114" s="21"/>
     </row>
-    <row r="115" spans="1:5" ht="14.25" customHeight="1">
+    <row r="115" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="20"/>
       <c r="C115" s="21"/>
       <c r="D115" s="21"/>
       <c r="E115" s="21"/>
     </row>
-    <row r="116" spans="1:5" ht="14.25" customHeight="1">
+    <row r="116" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="20"/>
       <c r="C116" s="21"/>
       <c r="D116" s="21"/>
       <c r="E116" s="21"/>
     </row>
-    <row r="117" spans="1:5" ht="14.25" customHeight="1">
+    <row r="117" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="20"/>
       <c r="C117" s="21"/>
       <c r="D117" s="21"/>
       <c r="E117" s="21"/>
     </row>
-    <row r="118" spans="1:5" ht="14.25" customHeight="1">
+    <row r="118" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="20"/>
       <c r="C118" s="21"/>
       <c r="D118" s="21"/>
       <c r="E118" s="21"/>
     </row>
-    <row r="119" spans="1:5" ht="14.25" customHeight="1">
+    <row r="119" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="20"/>
       <c r="C119" s="21"/>
       <c r="D119" s="21"/>
       <c r="E119" s="21"/>
     </row>
-    <row r="120" spans="1:5" ht="14.25" customHeight="1">
+    <row r="120" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="20"/>
       <c r="C120" s="21"/>
       <c r="D120" s="21"/>
       <c r="E120" s="21"/>
     </row>
-    <row r="121" spans="1:5" ht="14.25" customHeight="1">
+    <row r="121" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="20"/>
       <c r="C121" s="21"/>
       <c r="D121" s="21"/>
       <c r="E121" s="21"/>
     </row>
-    <row r="122" spans="1:5" ht="14.25" customHeight="1">
+    <row r="122" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="20"/>
       <c r="C122" s="21"/>
       <c r="D122" s="21"/>
       <c r="E122" s="21"/>
     </row>
-    <row r="123" spans="1:5" ht="14.25" customHeight="1">
+    <row r="123" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="20"/>
       <c r="C123" s="21"/>
       <c r="D123" s="21"/>
       <c r="E123" s="21"/>
     </row>
-    <row r="124" spans="1:5" ht="14.25" customHeight="1">
+    <row r="124" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="20"/>
       <c r="C124" s="21"/>
       <c r="D124" s="21"/>
       <c r="E124" s="21"/>
     </row>
-    <row r="125" spans="1:5" ht="14.25" customHeight="1">
+    <row r="125" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="20"/>
       <c r="C125" s="21"/>
       <c r="D125" s="21"/>
       <c r="E125" s="21"/>
     </row>
-    <row r="126" spans="1:5" ht="14.25" customHeight="1">
+    <row r="126" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="20"/>
       <c r="C126" s="21"/>
       <c r="D126" s="21"/>
       <c r="E126" s="21"/>
     </row>
-    <row r="127" spans="1:5" ht="14.25" customHeight="1">
+    <row r="127" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="20"/>
       <c r="C127" s="21"/>
       <c r="D127" s="21"/>
       <c r="E127" s="21"/>
     </row>
-    <row r="128" spans="1:5" ht="14.25" customHeight="1">
+    <row r="128" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="20"/>
       <c r="C128" s="21"/>
       <c r="D128" s="21"/>
       <c r="E128" s="21"/>
     </row>
-    <row r="129" spans="1:5" ht="14.25" customHeight="1">
+    <row r="129" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="20"/>
       <c r="C129" s="21"/>
       <c r="D129" s="21"/>
       <c r="E129" s="21"/>
     </row>
-    <row r="130" spans="1:5" ht="14.25" customHeight="1">
+    <row r="130" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="20"/>
       <c r="C130" s="21"/>
       <c r="D130" s="21"/>
       <c r="E130" s="21"/>
     </row>
-    <row r="131" spans="1:5" ht="14.25" customHeight="1">
+    <row r="131" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="20"/>
       <c r="C131" s="21"/>
       <c r="D131" s="21"/>
       <c r="E131" s="21"/>
     </row>
-    <row r="132" spans="1:5" ht="14.25" customHeight="1">
+    <row r="132" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="20"/>
       <c r="C132" s="21"/>
       <c r="D132" s="21"/>
       <c r="E132" s="21"/>
     </row>
-    <row r="133" spans="1:5" ht="14.25" customHeight="1">
+    <row r="133" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="20"/>
       <c r="C133" s="21"/>
       <c r="D133" s="21"/>
       <c r="E133" s="21"/>
     </row>
-    <row r="134" spans="1:5" ht="14.25" customHeight="1">
+    <row r="134" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="20"/>
       <c r="C134" s="21"/>
       <c r="D134" s="21"/>
       <c r="E134" s="21"/>
     </row>
-    <row r="135" spans="1:5" ht="14.25" customHeight="1">
+    <row r="135" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="20"/>
       <c r="C135" s="21"/>
       <c r="D135" s="21"/>
       <c r="E135" s="21"/>
     </row>
-    <row r="136" spans="1:5" ht="14.25" customHeight="1">
+    <row r="136" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="20"/>
       <c r="C136" s="21"/>
       <c r="D136" s="21"/>
       <c r="E136" s="21"/>
     </row>
-    <row r="137" spans="1:5" ht="14.25" customHeight="1">
+    <row r="137" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="20"/>
       <c r="C137" s="21"/>
       <c r="D137" s="21"/>
       <c r="E137" s="21"/>
     </row>
-    <row r="138" spans="1:5" ht="14.25" customHeight="1">
+    <row r="138" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="20"/>
       <c r="C138" s="21"/>
       <c r="D138" s="21"/>
       <c r="E138" s="21"/>
     </row>
-    <row r="139" spans="1:5" ht="14.25" customHeight="1">
+    <row r="139" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="20"/>
       <c r="C139" s="21"/>
       <c r="D139" s="21"/>
       <c r="E139" s="21"/>
     </row>
-    <row r="140" spans="1:5" ht="14.25" customHeight="1">
+    <row r="140" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="20"/>
       <c r="C140" s="21"/>
       <c r="D140" s="21"/>
       <c r="E140" s="21"/>
     </row>
-    <row r="141" spans="1:5" ht="14.25" customHeight="1">
+    <row r="141" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="20"/>
       <c r="C141" s="21"/>
       <c r="D141" s="21"/>
       <c r="E141" s="21"/>
     </row>
-    <row r="142" spans="1:5" ht="14.25" customHeight="1">
+    <row r="142" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="20"/>
       <c r="C142" s="21"/>
       <c r="D142" s="21"/>
       <c r="E142" s="21"/>
     </row>
-    <row r="143" spans="1:5" ht="14.25" customHeight="1">
+    <row r="143" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="20"/>
       <c r="C143" s="21"/>
       <c r="D143" s="21"/>
       <c r="E143" s="21"/>
     </row>
-    <row r="144" spans="1:5" ht="14.25" customHeight="1">
+    <row r="144" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="20"/>
       <c r="C144" s="21"/>
       <c r="D144" s="21"/>
       <c r="E144" s="21"/>
     </row>
-    <row r="145" spans="1:5" ht="14.25" customHeight="1">
+    <row r="145" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="20"/>
       <c r="C145" s="21"/>
       <c r="D145" s="21"/>
       <c r="E145" s="21"/>
     </row>
-    <row r="146" spans="1:5" ht="14.25" customHeight="1">
+    <row r="146" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="20"/>
       <c r="C146" s="21"/>
       <c r="D146" s="21"/>
       <c r="E146" s="21"/>
     </row>
-    <row r="147" spans="1:5" ht="14.25" customHeight="1">
+    <row r="147" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="20"/>
       <c r="C147" s="21"/>
       <c r="D147" s="21"/>
       <c r="E147" s="21"/>
     </row>
-    <row r="148" spans="1:5" ht="14.25" customHeight="1">
+    <row r="148" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="20"/>
       <c r="C148" s="21"/>
       <c r="D148" s="21"/>
       <c r="E148" s="21"/>
     </row>
-    <row r="149" spans="1:5" ht="14.25" customHeight="1">
+    <row r="149" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="20"/>
       <c r="C149" s="21"/>
       <c r="D149" s="21"/>
       <c r="E149" s="21"/>
     </row>
-    <row r="150" spans="1:5" ht="14.25" customHeight="1">
+    <row r="150" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="20"/>
       <c r="C150" s="21"/>
       <c r="D150" s="21"/>
       <c r="E150" s="21"/>
     </row>
-    <row r="151" spans="1:5" ht="14.25" customHeight="1">
+    <row r="151" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="20"/>
       <c r="C151" s="21"/>
       <c r="D151" s="21"/>
       <c r="E151" s="21"/>
     </row>
-    <row r="152" spans="1:5" ht="14.25" customHeight="1">
+    <row r="152" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="20"/>
       <c r="C152" s="21"/>
       <c r="D152" s="21"/>
       <c r="E152" s="21"/>
     </row>
-    <row r="153" spans="1:5" ht="14.25" customHeight="1">
+    <row r="153" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="20"/>
       <c r="C153" s="21"/>
       <c r="D153" s="21"/>
       <c r="E153" s="21"/>
     </row>
-    <row r="154" spans="1:5" ht="14.25" customHeight="1">
+    <row r="154" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="20"/>
       <c r="C154" s="21"/>
       <c r="D154" s="21"/>
       <c r="E154" s="21"/>
     </row>
-    <row r="155" spans="1:5" ht="14.25" customHeight="1">
+    <row r="155" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="20"/>
       <c r="C155" s="21"/>
       <c r="D155" s="21"/>
       <c r="E155" s="21"/>
     </row>
-    <row r="156" spans="1:5" ht="14.25" customHeight="1">
+    <row r="156" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="20"/>
       <c r="C156" s="21"/>
       <c r="D156" s="21"/>
       <c r="E156" s="21"/>
     </row>
-    <row r="157" spans="1:5" ht="14.25" customHeight="1">
+    <row r="157" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="20"/>
       <c r="C157" s="21"/>
       <c r="D157" s="21"/>
       <c r="E157" s="21"/>
     </row>
-    <row r="158" spans="1:5" ht="14.25" customHeight="1">
+    <row r="158" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="20"/>
       <c r="C158" s="21"/>
       <c r="D158" s="21"/>
       <c r="E158" s="21"/>
     </row>
-    <row r="159" spans="1:5" ht="14.25" customHeight="1">
+    <row r="159" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="20"/>
       <c r="C159" s="21"/>
       <c r="D159" s="21"/>
       <c r="E159" s="21"/>
     </row>
-    <row r="160" spans="1:5" ht="14.25" customHeight="1">
+    <row r="160" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="20"/>
       <c r="C160" s="21"/>
       <c r="D160" s="21"/>
       <c r="E160" s="21"/>
     </row>
-    <row r="161" spans="1:5" ht="14.25" customHeight="1">
+    <row r="161" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="20"/>
       <c r="C161" s="21"/>
       <c r="D161" s="21"/>
       <c r="E161" s="21"/>
     </row>
-    <row r="162" spans="1:5" ht="14.25" customHeight="1">
+    <row r="162" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="20"/>
       <c r="C162" s="21"/>
       <c r="D162" s="21"/>
       <c r="E162" s="21"/>
     </row>
-    <row r="163" spans="1:5" ht="14.25" customHeight="1">
+    <row r="163" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="20"/>
       <c r="C163" s="21"/>
       <c r="D163" s="21"/>
       <c r="E163" s="21"/>
     </row>
-    <row r="164" spans="1:5" ht="14.25" customHeight="1">
+    <row r="164" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="20"/>
       <c r="C164" s="21"/>
       <c r="D164" s="21"/>
       <c r="E164" s="21"/>
     </row>
-    <row r="165" spans="1:5" ht="14.25" customHeight="1">
+    <row r="165" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="20"/>
       <c r="C165" s="21"/>
       <c r="D165" s="21"/>
       <c r="E165" s="21"/>
     </row>
-    <row r="166" spans="1:5" ht="14.25" customHeight="1">
+    <row r="166" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="20"/>
       <c r="C166" s="21"/>
       <c r="D166" s="21"/>
       <c r="E166" s="21"/>
     </row>
-    <row r="167" spans="1:5" ht="14.25" customHeight="1">
+    <row r="167" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="20"/>
       <c r="C167" s="21"/>
       <c r="D167" s="21"/>
       <c r="E167" s="21"/>
     </row>
-    <row r="168" spans="1:5" ht="14.25" customHeight="1">
+    <row r="168" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="20"/>
       <c r="C168" s="21"/>
       <c r="D168" s="21"/>
       <c r="E168" s="21"/>
     </row>
-    <row r="169" spans="1:5" ht="14.25" customHeight="1">
+    <row r="169" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="20"/>
       <c r="C169" s="21"/>
       <c r="D169" s="21"/>
       <c r="E169" s="21"/>
     </row>
-    <row r="170" spans="1:5" ht="14.25" customHeight="1">
+    <row r="170" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="20"/>
       <c r="C170" s="21"/>
       <c r="D170" s="21"/>
       <c r="E170" s="21"/>
     </row>
-    <row r="171" spans="1:5" ht="14.25" customHeight="1">
+    <row r="171" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="20"/>
       <c r="C171" s="21"/>
       <c r="D171" s="21"/>
       <c r="E171" s="21"/>
     </row>
-    <row r="172" spans="1:5" ht="14.25" customHeight="1">
+    <row r="172" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="20"/>
       <c r="C172" s="21"/>
       <c r="D172" s="21"/>
       <c r="E172" s="21"/>
     </row>
-    <row r="173" spans="1:5" ht="14.25" customHeight="1">
+    <row r="173" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="20"/>
       <c r="C173" s="21"/>
       <c r="D173" s="21"/>
       <c r="E173" s="21"/>
     </row>
-    <row r="174" spans="1:5" ht="14.25" customHeight="1">
+    <row r="174" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="20"/>
       <c r="C174" s="21"/>
       <c r="D174" s="21"/>
       <c r="E174" s="21"/>
     </row>
-    <row r="175" spans="1:5" ht="14.25" customHeight="1">
+    <row r="175" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="20"/>
       <c r="C175" s="21"/>
       <c r="D175" s="21"/>
       <c r="E175" s="21"/>
     </row>
-    <row r="176" spans="1:5" ht="14.25" customHeight="1">
+    <row r="176" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="20"/>
       <c r="C176" s="21"/>
       <c r="D176" s="21"/>
       <c r="E176" s="21"/>
     </row>
-    <row r="177" spans="1:10" ht="14.25" customHeight="1">
+    <row r="177" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="20"/>
       <c r="C177" s="21"/>
       <c r="D177" s="21"/>
       <c r="E177" s="21"/>
     </row>
-    <row r="178" spans="1:10" ht="14.25" customHeight="1">
+    <row r="178" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="20"/>
       <c r="C178" s="21"/>
       <c r="D178" s="21"/>
       <c r="E178" s="21"/>
     </row>
-    <row r="179" spans="1:10" ht="14.25" customHeight="1">
+    <row r="179" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="20"/>
       <c r="C179" s="21"/>
       <c r="D179" s="21"/>
       <c r="E179" s="21"/>
     </row>
-    <row r="180" spans="1:10" ht="14.25" customHeight="1">
+    <row r="180" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="20"/>
       <c r="C180" s="21"/>
       <c r="D180" s="21"/>
       <c r="E180" s="21"/>
     </row>
-    <row r="181" spans="1:10" ht="14.25" customHeight="1">
+    <row r="181" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="20"/>
       <c r="C181" s="21"/>
       <c r="D181" s="21"/>
       <c r="E181" s="21"/>
     </row>
-    <row r="182" spans="1:10" ht="14.25" customHeight="1">
+    <row r="182" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="20"/>
       <c r="C182" s="21"/>
       <c r="D182" s="21"/>
       <c r="E182" s="21"/>
     </row>
-    <row r="183" spans="1:10" ht="14.25" customHeight="1">
+    <row r="183" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="20"/>
       <c r="C183" s="21"/>
       <c r="D183" s="21"/>
       <c r="E183" s="21"/>
     </row>
-    <row r="184" spans="1:10" ht="14.25" customHeight="1">
+    <row r="184" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="20"/>
       <c r="C184" s="21"/>
       <c r="D184" s="21"/>
       <c r="E184" s="21"/>
     </row>
-    <row r="185" spans="1:10" ht="14.25" customHeight="1">
+    <row r="185" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="20"/>
       <c r="C185" s="21"/>
       <c r="D185" s="21"/>
       <c r="E185" s="21"/>
     </row>
-    <row r="186" spans="1:10" ht="14.25" customHeight="1">
+    <row r="186" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="20"/>
       <c r="C186" s="21"/>
       <c r="D186" s="21"/>
       <c r="E186" s="21"/>
     </row>
-    <row r="187" spans="1:10" ht="14.25" customHeight="1">
+    <row r="187" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="20"/>
       <c r="C187" s="21"/>
       <c r="D187" s="21"/>
       <c r="E187" s="21"/>
     </row>
-    <row r="188" spans="1:10" ht="14.25" customHeight="1">
+    <row r="188" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="20"/>
       <c r="C188" s="21"/>
       <c r="D188" s="21"/>
       <c r="E188" s="21"/>
     </row>
-    <row r="189" spans="1:10" ht="14.25" customHeight="1">
+    <row r="189" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="20"/>
       <c r="C189" s="21"/>
       <c r="D189" s="21"/>
       <c r="E189" s="21"/>
     </row>
-    <row r="190" spans="1:10" ht="14.25" customHeight="1">
+    <row r="190" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="20"/>
       <c r="C190" s="21"/>
       <c r="D190" s="21"/>
       <c r="E190" s="21"/>
     </row>
-    <row r="191" spans="1:10" ht="14.25" customHeight="1">
+    <row r="191" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="20"/>
       <c r="C191" s="21"/>
       <c r="D191" s="21"/>
       <c r="E191" s="21"/>
     </row>
-    <row r="192" spans="1:10" ht="14.25" customHeight="1">
+    <row r="192" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="20"/>
       <c r="C192" s="21"/>
       <c r="D192" s="21"/>
@@ -2752,67 +2775,67 @@
         <v>32</v>
       </c>
     </row>
-    <row r="193" spans="1:26" ht="14.25" customHeight="1">
+    <row r="193" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="20"/>
       <c r="C193" s="21"/>
       <c r="D193" s="21"/>
       <c r="E193" s="21"/>
     </row>
-    <row r="194" spans="1:26" ht="14.25" customHeight="1">
+    <row r="194" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="20"/>
       <c r="C194" s="21"/>
       <c r="D194" s="21"/>
       <c r="E194" s="21"/>
     </row>
-    <row r="195" spans="1:26" ht="14.25" customHeight="1">
+    <row r="195" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="20"/>
       <c r="C195" s="21"/>
       <c r="D195" s="21"/>
       <c r="E195" s="21"/>
     </row>
-    <row r="196" spans="1:26" ht="14.25" customHeight="1">
+    <row r="196" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="20"/>
       <c r="C196" s="21"/>
       <c r="D196" s="21"/>
       <c r="E196" s="21"/>
     </row>
-    <row r="197" spans="1:26" ht="14.25" customHeight="1">
+    <row r="197" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="20"/>
       <c r="C197" s="21"/>
       <c r="D197" s="21"/>
       <c r="E197" s="21"/>
     </row>
-    <row r="198" spans="1:26" ht="14.25" customHeight="1">
+    <row r="198" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="20"/>
       <c r="C198" s="21"/>
       <c r="D198" s="21"/>
       <c r="E198" s="21"/>
     </row>
-    <row r="199" spans="1:26" ht="14.25" customHeight="1">
+    <row r="199" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="20"/>
       <c r="C199" s="21"/>
       <c r="D199" s="21"/>
       <c r="E199" s="21"/>
     </row>
-    <row r="200" spans="1:26" ht="14.25" customHeight="1">
+    <row r="200" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="20"/>
       <c r="C200" s="21"/>
       <c r="D200" s="21"/>
       <c r="E200" s="21"/>
     </row>
-    <row r="201" spans="1:26" ht="14.25" customHeight="1">
+    <row r="201" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="20"/>
       <c r="C201" s="21"/>
       <c r="D201" s="21"/>
       <c r="E201" s="21"/>
     </row>
-    <row r="202" spans="1:26" ht="14.25" customHeight="1">
+    <row r="202" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="20"/>
       <c r="C202" s="21"/>
       <c r="D202" s="21"/>
       <c r="E202" s="21"/>
     </row>
-    <row r="203" spans="1:26" ht="14.25" customHeight="1">
+    <row r="203" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="20"/>
       <c r="C203" s="21"/>
       <c r="D203" s="21"/>
@@ -2824,7 +2847,7 @@
       <c r="K203" s="22"/>
       <c r="L203" s="22"/>
     </row>
-    <row r="204" spans="1:26" ht="14.25" customHeight="1">
+    <row r="204" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="20"/>
       <c r="C204" s="21"/>
       <c r="D204" s="21"/>
@@ -2851,7 +2874,7 @@
       <c r="Y204" s="22"/>
       <c r="Z204" s="22"/>
     </row>
-    <row r="205" spans="1:26" ht="14.25" customHeight="1">
+    <row r="205" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="20"/>
       <c r="C205" s="21"/>
       <c r="D205" s="21"/>
@@ -2878,7 +2901,7 @@
       <c r="Y205" s="22"/>
       <c r="Z205" s="22"/>
     </row>
-    <row r="206" spans="1:26" ht="14.25" customHeight="1">
+    <row r="206" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="20"/>
       <c r="C206" s="21"/>
       <c r="D206" s="21"/>
@@ -2905,7 +2928,7 @@
       <c r="Y206" s="22"/>
       <c r="Z206" s="22"/>
     </row>
-    <row r="207" spans="1:26" ht="14.25" customHeight="1">
+    <row r="207" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="20"/>
       <c r="C207" s="21"/>
       <c r="D207" s="21"/>
@@ -2926,4117 +2949,4117 @@
       <c r="Y207" s="22"/>
       <c r="Z207" s="22"/>
     </row>
-    <row r="208" spans="1:26" ht="14.25" customHeight="1">
+    <row r="208" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="20"/>
       <c r="C208" s="21"/>
       <c r="D208" s="21"/>
       <c r="E208" s="21"/>
     </row>
-    <row r="209" spans="1:5" ht="14.25" customHeight="1">
+    <row r="209" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="20"/>
       <c r="C209" s="21"/>
       <c r="D209" s="21"/>
       <c r="E209" s="21"/>
     </row>
-    <row r="210" spans="1:5" ht="14.25" customHeight="1">
+    <row r="210" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="20"/>
       <c r="C210" s="21"/>
       <c r="D210" s="21"/>
       <c r="E210" s="21"/>
     </row>
-    <row r="211" spans="1:5" ht="14.25" customHeight="1">
+    <row r="211" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="20"/>
       <c r="C211" s="21"/>
       <c r="D211" s="21"/>
       <c r="E211" s="21"/>
     </row>
-    <row r="212" spans="1:5" ht="14.25" customHeight="1">
+    <row r="212" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="20"/>
       <c r="C212" s="21"/>
       <c r="D212" s="21"/>
       <c r="E212" s="21"/>
     </row>
-    <row r="213" spans="1:5" ht="14.25" customHeight="1">
+    <row r="213" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="20"/>
       <c r="C213" s="21"/>
       <c r="D213" s="21"/>
       <c r="E213" s="21"/>
     </row>
-    <row r="214" spans="1:5" ht="14.25" customHeight="1">
+    <row r="214" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="20"/>
       <c r="C214" s="21"/>
       <c r="D214" s="21"/>
       <c r="E214" s="21"/>
     </row>
-    <row r="215" spans="1:5" ht="14.25" customHeight="1">
+    <row r="215" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="20"/>
       <c r="C215" s="21"/>
       <c r="D215" s="21"/>
       <c r="E215" s="21"/>
     </row>
-    <row r="216" spans="1:5" ht="14.25" customHeight="1">
+    <row r="216" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="20"/>
       <c r="C216" s="21"/>
       <c r="D216" s="21"/>
       <c r="E216" s="21"/>
     </row>
-    <row r="217" spans="1:5" ht="14.25" customHeight="1">
+    <row r="217" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="20"/>
       <c r="C217" s="21"/>
       <c r="D217" s="21"/>
       <c r="E217" s="21"/>
     </row>
-    <row r="218" spans="1:5" ht="14.25" customHeight="1">
+    <row r="218" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="20"/>
       <c r="C218" s="21"/>
       <c r="D218" s="21"/>
       <c r="E218" s="21"/>
     </row>
-    <row r="219" spans="1:5" ht="14.25" customHeight="1">
+    <row r="219" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="20"/>
       <c r="C219" s="21"/>
       <c r="D219" s="21"/>
       <c r="E219" s="21"/>
     </row>
-    <row r="220" spans="1:5" ht="14.25" customHeight="1">
+    <row r="220" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="20"/>
       <c r="C220" s="21"/>
       <c r="D220" s="21"/>
       <c r="E220" s="21"/>
     </row>
-    <row r="221" spans="1:5" ht="14.25" customHeight="1">
+    <row r="221" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="20"/>
       <c r="C221" s="21"/>
       <c r="D221" s="21"/>
       <c r="E221" s="21"/>
     </row>
-    <row r="222" spans="1:5" ht="14.25" customHeight="1">
+    <row r="222" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="20"/>
       <c r="C222" s="21"/>
       <c r="D222" s="21"/>
       <c r="E222" s="21"/>
     </row>
-    <row r="223" spans="1:5" ht="14.25" customHeight="1">
+    <row r="223" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="20"/>
       <c r="C223" s="21"/>
       <c r="D223" s="21"/>
       <c r="E223" s="21"/>
     </row>
-    <row r="224" spans="1:5" ht="14.25" customHeight="1">
+    <row r="224" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="20"/>
       <c r="C224" s="21"/>
       <c r="D224" s="21"/>
       <c r="E224" s="21"/>
     </row>
-    <row r="225" spans="1:5" ht="14.25" customHeight="1">
+    <row r="225" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="20"/>
       <c r="C225" s="21"/>
       <c r="D225" s="21"/>
       <c r="E225" s="21"/>
     </row>
-    <row r="226" spans="1:5" ht="14.25" customHeight="1">
+    <row r="226" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="20"/>
       <c r="C226" s="21"/>
       <c r="D226" s="21"/>
       <c r="E226" s="21"/>
     </row>
-    <row r="227" spans="1:5" ht="14.25" customHeight="1">
+    <row r="227" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="20"/>
       <c r="C227" s="21"/>
       <c r="D227" s="21"/>
       <c r="E227" s="21"/>
     </row>
-    <row r="228" spans="1:5" ht="14.25" customHeight="1">
+    <row r="228" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="20"/>
       <c r="C228" s="21"/>
       <c r="D228" s="21"/>
       <c r="E228" s="21"/>
     </row>
-    <row r="229" spans="1:5" ht="14.25" customHeight="1">
+    <row r="229" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="20"/>
       <c r="C229" s="21"/>
       <c r="D229" s="21"/>
       <c r="E229" s="21"/>
     </row>
-    <row r="230" spans="1:5" ht="14.25" customHeight="1">
+    <row r="230" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="20"/>
       <c r="C230" s="21"/>
       <c r="D230" s="21"/>
       <c r="E230" s="21"/>
     </row>
-    <row r="231" spans="1:5" ht="14.25" customHeight="1">
+    <row r="231" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="20"/>
       <c r="C231" s="21"/>
       <c r="D231" s="21"/>
       <c r="E231" s="21"/>
     </row>
-    <row r="232" spans="1:5" ht="14.25" customHeight="1">
+    <row r="232" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="20"/>
       <c r="C232" s="21"/>
       <c r="D232" s="21"/>
       <c r="E232" s="21"/>
     </row>
-    <row r="233" spans="1:5" ht="14.25" customHeight="1">
+    <row r="233" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="20"/>
       <c r="C233" s="21"/>
       <c r="D233" s="21"/>
       <c r="E233" s="21"/>
     </row>
-    <row r="234" spans="1:5" ht="14.25" customHeight="1">
+    <row r="234" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="20"/>
       <c r="C234" s="21"/>
       <c r="D234" s="21"/>
       <c r="E234" s="21"/>
     </row>
-    <row r="235" spans="1:5" ht="14.25" customHeight="1">
+    <row r="235" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="20"/>
       <c r="C235" s="21"/>
       <c r="D235" s="21"/>
       <c r="E235" s="21"/>
     </row>
-    <row r="236" spans="1:5" ht="14.25" customHeight="1">
+    <row r="236" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="20"/>
       <c r="C236" s="21"/>
       <c r="D236" s="21"/>
       <c r="E236" s="21"/>
     </row>
-    <row r="237" spans="1:5" ht="14.25" customHeight="1">
+    <row r="237" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="20"/>
       <c r="C237" s="21"/>
       <c r="D237" s="21"/>
       <c r="E237" s="21"/>
     </row>
-    <row r="238" spans="1:5" ht="14.25" customHeight="1">
+    <row r="238" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="20"/>
       <c r="C238" s="21"/>
       <c r="D238" s="21"/>
       <c r="E238" s="21"/>
     </row>
-    <row r="239" spans="1:5" ht="14.25" customHeight="1">
+    <row r="239" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="20"/>
       <c r="C239" s="21"/>
       <c r="D239" s="21"/>
       <c r="E239" s="21"/>
     </row>
-    <row r="240" spans="1:5" ht="14.25" customHeight="1">
+    <row r="240" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="20"/>
       <c r="C240" s="21"/>
       <c r="D240" s="21"/>
       <c r="E240" s="21"/>
     </row>
-    <row r="241" spans="1:5" ht="14.25" customHeight="1">
+    <row r="241" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="20"/>
       <c r="C241" s="21"/>
       <c r="D241" s="21"/>
       <c r="E241" s="21"/>
     </row>
-    <row r="242" spans="1:5" ht="14.25" customHeight="1">
+    <row r="242" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="20"/>
       <c r="C242" s="21"/>
       <c r="D242" s="21"/>
       <c r="E242" s="21"/>
     </row>
-    <row r="243" spans="1:5" ht="14.25" customHeight="1">
+    <row r="243" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="20"/>
       <c r="C243" s="21"/>
       <c r="D243" s="21"/>
       <c r="E243" s="21"/>
     </row>
-    <row r="244" spans="1:5" ht="14.25" customHeight="1">
+    <row r="244" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="20"/>
       <c r="C244" s="21"/>
       <c r="D244" s="21"/>
       <c r="E244" s="21"/>
     </row>
-    <row r="245" spans="1:5" ht="14.25" customHeight="1">
+    <row r="245" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="20"/>
       <c r="C245" s="21"/>
       <c r="D245" s="21"/>
       <c r="E245" s="21"/>
     </row>
-    <row r="246" spans="1:5" ht="14.25" customHeight="1">
+    <row r="246" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="20"/>
       <c r="C246" s="21"/>
       <c r="D246" s="21"/>
       <c r="E246" s="21"/>
     </row>
-    <row r="247" spans="1:5" ht="14.25" customHeight="1">
+    <row r="247" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="20"/>
       <c r="C247" s="21"/>
       <c r="D247" s="21"/>
       <c r="E247" s="21"/>
     </row>
-    <row r="248" spans="1:5" ht="14.25" customHeight="1">
+    <row r="248" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="20"/>
       <c r="C248" s="21"/>
       <c r="D248" s="21"/>
       <c r="E248" s="21"/>
     </row>
-    <row r="249" spans="1:5" ht="14.25" customHeight="1">
+    <row r="249" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="20"/>
       <c r="C249" s="21"/>
       <c r="D249" s="21"/>
       <c r="E249" s="21"/>
     </row>
-    <row r="250" spans="1:5" ht="14.25" customHeight="1">
+    <row r="250" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="20"/>
       <c r="C250" s="21"/>
       <c r="D250" s="21"/>
       <c r="E250" s="21"/>
     </row>
-    <row r="251" spans="1:5" ht="14.25" customHeight="1">
+    <row r="251" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="20"/>
       <c r="C251" s="21"/>
       <c r="D251" s="21"/>
       <c r="E251" s="21"/>
     </row>
-    <row r="252" spans="1:5" ht="14.25" customHeight="1">
+    <row r="252" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="20"/>
       <c r="C252" s="21"/>
       <c r="D252" s="21"/>
       <c r="E252" s="21"/>
     </row>
-    <row r="253" spans="1:5" ht="14.25" customHeight="1">
+    <row r="253" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="20"/>
       <c r="C253" s="21"/>
       <c r="D253" s="21"/>
       <c r="E253" s="21"/>
     </row>
-    <row r="254" spans="1:5" ht="14.25" customHeight="1">
+    <row r="254" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="20"/>
       <c r="C254" s="21"/>
       <c r="D254" s="21"/>
       <c r="E254" s="21"/>
     </row>
-    <row r="255" spans="1:5" ht="14.25" customHeight="1">
+    <row r="255" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="20"/>
       <c r="C255" s="21"/>
       <c r="D255" s="21"/>
       <c r="E255" s="21"/>
     </row>
-    <row r="256" spans="1:5" ht="14.25" customHeight="1">
+    <row r="256" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="20"/>
       <c r="C256" s="21"/>
       <c r="D256" s="21"/>
       <c r="E256" s="21"/>
     </row>
-    <row r="257" spans="1:5" ht="14.25" customHeight="1">
+    <row r="257" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="20"/>
       <c r="C257" s="21"/>
       <c r="D257" s="21"/>
       <c r="E257" s="21"/>
     </row>
-    <row r="258" spans="1:5" ht="14.25" customHeight="1">
+    <row r="258" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="20"/>
       <c r="C258" s="21"/>
       <c r="D258" s="21"/>
       <c r="E258" s="21"/>
     </row>
-    <row r="259" spans="1:5" ht="14.25" customHeight="1">
+    <row r="259" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="20"/>
       <c r="C259" s="21"/>
       <c r="D259" s="21"/>
       <c r="E259" s="21"/>
     </row>
-    <row r="260" spans="1:5" ht="14.25" customHeight="1">
+    <row r="260" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="20"/>
       <c r="C260" s="21"/>
       <c r="D260" s="21"/>
       <c r="E260" s="21"/>
     </row>
-    <row r="261" spans="1:5" ht="14.25" customHeight="1">
+    <row r="261" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="20"/>
       <c r="C261" s="21"/>
       <c r="D261" s="21"/>
       <c r="E261" s="21"/>
     </row>
-    <row r="262" spans="1:5" ht="14.25" customHeight="1">
+    <row r="262" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="20"/>
       <c r="C262" s="21"/>
       <c r="D262" s="21"/>
       <c r="E262" s="21"/>
     </row>
-    <row r="263" spans="1:5" ht="14.25" customHeight="1">
+    <row r="263" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="20"/>
       <c r="C263" s="21"/>
       <c r="D263" s="21"/>
       <c r="E263" s="21"/>
     </row>
-    <row r="264" spans="1:5" ht="14.25" customHeight="1">
+    <row r="264" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" s="20"/>
       <c r="C264" s="21"/>
       <c r="D264" s="21"/>
       <c r="E264" s="21"/>
     </row>
-    <row r="265" spans="1:5" ht="14.25" customHeight="1">
+    <row r="265" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="20"/>
       <c r="C265" s="21"/>
       <c r="D265" s="21"/>
       <c r="E265" s="21"/>
     </row>
-    <row r="266" spans="1:5" ht="14.25" customHeight="1">
+    <row r="266" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="20"/>
       <c r="C266" s="21"/>
       <c r="D266" s="21"/>
       <c r="E266" s="21"/>
     </row>
-    <row r="267" spans="1:5" ht="14.25" customHeight="1">
+    <row r="267" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="20"/>
       <c r="C267" s="21"/>
       <c r="D267" s="21"/>
       <c r="E267" s="21"/>
     </row>
-    <row r="268" spans="1:5" ht="14.25" customHeight="1">
+    <row r="268" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="20"/>
       <c r="C268" s="21"/>
       <c r="D268" s="21"/>
       <c r="E268" s="21"/>
     </row>
-    <row r="269" spans="1:5" ht="14.25" customHeight="1">
+    <row r="269" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="20"/>
       <c r="C269" s="21"/>
       <c r="D269" s="21"/>
       <c r="E269" s="21"/>
     </row>
-    <row r="270" spans="1:5" ht="14.25" customHeight="1">
+    <row r="270" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" s="20"/>
       <c r="C270" s="21"/>
       <c r="D270" s="21"/>
       <c r="E270" s="21"/>
     </row>
-    <row r="271" spans="1:5" ht="14.25" customHeight="1">
+    <row r="271" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" s="20"/>
       <c r="C271" s="21"/>
       <c r="D271" s="21"/>
       <c r="E271" s="21"/>
     </row>
-    <row r="272" spans="1:5" ht="14.25" customHeight="1">
+    <row r="272" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="20"/>
       <c r="C272" s="21"/>
       <c r="D272" s="21"/>
       <c r="E272" s="21"/>
     </row>
-    <row r="273" spans="1:5" ht="14.25" customHeight="1">
+    <row r="273" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" s="20"/>
       <c r="C273" s="21"/>
       <c r="D273" s="21"/>
       <c r="E273" s="21"/>
     </row>
-    <row r="274" spans="1:5" ht="14.25" customHeight="1">
+    <row r="274" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" s="20"/>
       <c r="C274" s="21"/>
       <c r="D274" s="21"/>
       <c r="E274" s="21"/>
     </row>
-    <row r="275" spans="1:5" ht="14.25" customHeight="1">
+    <row r="275" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" s="20"/>
       <c r="C275" s="21"/>
       <c r="D275" s="21"/>
       <c r="E275" s="21"/>
     </row>
-    <row r="276" spans="1:5" ht="14.25" customHeight="1">
+    <row r="276" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="20"/>
       <c r="C276" s="21"/>
       <c r="D276" s="21"/>
       <c r="E276" s="21"/>
     </row>
-    <row r="277" spans="1:5" ht="14.25" customHeight="1">
+    <row r="277" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="20"/>
       <c r="C277" s="21"/>
       <c r="D277" s="21"/>
       <c r="E277" s="21"/>
     </row>
-    <row r="278" spans="1:5" ht="14.25" customHeight="1">
+    <row r="278" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" s="20"/>
       <c r="C278" s="21"/>
       <c r="D278" s="21"/>
       <c r="E278" s="21"/>
     </row>
-    <row r="279" spans="1:5" ht="14.25" customHeight="1">
+    <row r="279" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" s="20"/>
       <c r="C279" s="21"/>
       <c r="D279" s="21"/>
       <c r="E279" s="21"/>
     </row>
-    <row r="280" spans="1:5" ht="14.25" customHeight="1">
+    <row r="280" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" s="20"/>
       <c r="C280" s="21"/>
       <c r="D280" s="21"/>
       <c r="E280" s="21"/>
     </row>
-    <row r="281" spans="1:5" ht="14.25" customHeight="1">
+    <row r="281" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" s="20"/>
       <c r="C281" s="21"/>
       <c r="D281" s="21"/>
       <c r="E281" s="21"/>
     </row>
-    <row r="282" spans="1:5" ht="14.25" customHeight="1">
+    <row r="282" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282" s="20"/>
       <c r="C282" s="21"/>
       <c r="D282" s="21"/>
       <c r="E282" s="21"/>
     </row>
-    <row r="283" spans="1:5" ht="14.25" customHeight="1">
+    <row r="283" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" s="20"/>
       <c r="C283" s="21"/>
       <c r="D283" s="21"/>
       <c r="E283" s="21"/>
     </row>
-    <row r="284" spans="1:5" ht="14.25" customHeight="1">
+    <row r="284" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" s="20"/>
       <c r="C284" s="21"/>
       <c r="D284" s="21"/>
       <c r="E284" s="21"/>
     </row>
-    <row r="285" spans="1:5" ht="14.25" customHeight="1">
+    <row r="285" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" s="20"/>
       <c r="C285" s="21"/>
       <c r="D285" s="21"/>
       <c r="E285" s="21"/>
     </row>
-    <row r="286" spans="1:5" ht="14.25" customHeight="1">
+    <row r="286" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A286" s="20"/>
       <c r="C286" s="21"/>
       <c r="D286" s="21"/>
       <c r="E286" s="21"/>
     </row>
-    <row r="287" spans="1:5" ht="14.25" customHeight="1">
+    <row r="287" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A287" s="20"/>
       <c r="C287" s="21"/>
       <c r="D287" s="21"/>
       <c r="E287" s="21"/>
     </row>
-    <row r="288" spans="1:5" ht="14.25" customHeight="1">
+    <row r="288" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A288" s="20"/>
       <c r="C288" s="21"/>
       <c r="D288" s="21"/>
       <c r="E288" s="21"/>
     </row>
-    <row r="289" spans="1:5" ht="14.25" customHeight="1">
+    <row r="289" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A289" s="20"/>
       <c r="C289" s="21"/>
       <c r="D289" s="21"/>
       <c r="E289" s="21"/>
     </row>
-    <row r="290" spans="1:5" ht="14.25" customHeight="1">
+    <row r="290" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A290" s="20"/>
       <c r="C290" s="21"/>
       <c r="D290" s="21"/>
       <c r="E290" s="21"/>
     </row>
-    <row r="291" spans="1:5" ht="14.25" customHeight="1">
+    <row r="291" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291" s="20"/>
       <c r="C291" s="21"/>
       <c r="D291" s="21"/>
       <c r="E291" s="21"/>
     </row>
-    <row r="292" spans="1:5" ht="14.25" customHeight="1">
+    <row r="292" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A292" s="20"/>
       <c r="C292" s="21"/>
       <c r="D292" s="21"/>
       <c r="E292" s="21"/>
     </row>
-    <row r="293" spans="1:5" ht="14.25" customHeight="1">
+    <row r="293" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A293" s="20"/>
       <c r="C293" s="21"/>
       <c r="D293" s="21"/>
       <c r="E293" s="21"/>
     </row>
-    <row r="294" spans="1:5" ht="14.25" customHeight="1">
+    <row r="294" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A294" s="20"/>
       <c r="C294" s="21"/>
       <c r="D294" s="21"/>
       <c r="E294" s="21"/>
     </row>
-    <row r="295" spans="1:5" ht="14.25" customHeight="1">
+    <row r="295" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A295" s="20"/>
       <c r="C295" s="21"/>
       <c r="D295" s="21"/>
       <c r="E295" s="21"/>
     </row>
-    <row r="296" spans="1:5" ht="14.25" customHeight="1">
+    <row r="296" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A296" s="20"/>
       <c r="C296" s="21"/>
       <c r="D296" s="21"/>
       <c r="E296" s="21"/>
     </row>
-    <row r="297" spans="1:5" ht="14.25" customHeight="1">
+    <row r="297" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A297" s="20"/>
       <c r="C297" s="21"/>
       <c r="D297" s="21"/>
       <c r="E297" s="21"/>
     </row>
-    <row r="298" spans="1:5" ht="14.25" customHeight="1">
+    <row r="298" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A298" s="20"/>
       <c r="C298" s="21"/>
       <c r="D298" s="21"/>
       <c r="E298" s="21"/>
     </row>
-    <row r="299" spans="1:5" ht="14.25" customHeight="1">
+    <row r="299" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A299" s="20"/>
       <c r="C299" s="21"/>
       <c r="D299" s="21"/>
       <c r="E299" s="21"/>
     </row>
-    <row r="300" spans="1:5" ht="14.25" customHeight="1">
+    <row r="300" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A300" s="20"/>
       <c r="C300" s="21"/>
       <c r="D300" s="21"/>
       <c r="E300" s="21"/>
     </row>
-    <row r="301" spans="1:5" ht="14.25" customHeight="1">
+    <row r="301" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A301" s="20"/>
       <c r="C301" s="21"/>
       <c r="D301" s="21"/>
       <c r="E301" s="21"/>
     </row>
-    <row r="302" spans="1:5" ht="14.25" customHeight="1">
+    <row r="302" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A302" s="20"/>
       <c r="C302" s="21"/>
       <c r="D302" s="21"/>
       <c r="E302" s="21"/>
     </row>
-    <row r="303" spans="1:5" ht="14.25" customHeight="1">
+    <row r="303" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A303" s="20"/>
       <c r="C303" s="21"/>
       <c r="D303" s="21"/>
       <c r="E303" s="21"/>
     </row>
-    <row r="304" spans="1:5" ht="14.25" customHeight="1">
+    <row r="304" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A304" s="20"/>
       <c r="C304" s="21"/>
       <c r="D304" s="21"/>
       <c r="E304" s="21"/>
     </row>
-    <row r="305" spans="1:5" ht="14.25" customHeight="1">
+    <row r="305" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A305" s="20"/>
       <c r="C305" s="21"/>
       <c r="D305" s="21"/>
       <c r="E305" s="21"/>
     </row>
-    <row r="306" spans="1:5" ht="14.25" customHeight="1">
+    <row r="306" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A306" s="20"/>
       <c r="C306" s="21"/>
       <c r="D306" s="21"/>
       <c r="E306" s="21"/>
     </row>
-    <row r="307" spans="1:5" ht="14.25" customHeight="1">
+    <row r="307" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A307" s="20"/>
       <c r="C307" s="21"/>
       <c r="D307" s="21"/>
       <c r="E307" s="21"/>
     </row>
-    <row r="308" spans="1:5" ht="14.25" customHeight="1">
+    <row r="308" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A308" s="20"/>
       <c r="C308" s="21"/>
       <c r="D308" s="21"/>
       <c r="E308" s="21"/>
     </row>
-    <row r="309" spans="1:5" ht="14.25" customHeight="1">
+    <row r="309" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A309" s="20"/>
       <c r="C309" s="21"/>
       <c r="D309" s="21"/>
       <c r="E309" s="21"/>
     </row>
-    <row r="310" spans="1:5" ht="14.25" customHeight="1">
+    <row r="310" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A310" s="20"/>
       <c r="C310" s="21"/>
       <c r="D310" s="21"/>
       <c r="E310" s="21"/>
     </row>
-    <row r="311" spans="1:5" ht="14.25" customHeight="1">
+    <row r="311" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A311" s="20"/>
       <c r="C311" s="21"/>
       <c r="D311" s="21"/>
       <c r="E311" s="21"/>
     </row>
-    <row r="312" spans="1:5" ht="14.25" customHeight="1">
+    <row r="312" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A312" s="20"/>
       <c r="C312" s="21"/>
       <c r="D312" s="21"/>
       <c r="E312" s="21"/>
     </row>
-    <row r="313" spans="1:5" ht="14.25" customHeight="1">
+    <row r="313" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A313" s="20"/>
       <c r="C313" s="21"/>
       <c r="D313" s="21"/>
       <c r="E313" s="21"/>
     </row>
-    <row r="314" spans="1:5" ht="14.25" customHeight="1">
+    <row r="314" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A314" s="20"/>
       <c r="C314" s="21"/>
       <c r="D314" s="21"/>
       <c r="E314" s="21"/>
     </row>
-    <row r="315" spans="1:5" ht="14.25" customHeight="1">
+    <row r="315" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A315" s="20"/>
       <c r="C315" s="21"/>
       <c r="D315" s="21"/>
       <c r="E315" s="21"/>
     </row>
-    <row r="316" spans="1:5" ht="14.25" customHeight="1">
+    <row r="316" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A316" s="20"/>
       <c r="C316" s="21"/>
       <c r="D316" s="21"/>
       <c r="E316" s="21"/>
     </row>
-    <row r="317" spans="1:5" ht="14.25" customHeight="1">
+    <row r="317" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A317" s="20"/>
       <c r="C317" s="21"/>
       <c r="D317" s="21"/>
       <c r="E317" s="21"/>
     </row>
-    <row r="318" spans="1:5" ht="14.25" customHeight="1">
+    <row r="318" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A318" s="20"/>
       <c r="C318" s="21"/>
       <c r="D318" s="21"/>
       <c r="E318" s="21"/>
     </row>
-    <row r="319" spans="1:5" ht="14.25" customHeight="1">
+    <row r="319" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A319" s="20"/>
       <c r="C319" s="21"/>
       <c r="D319" s="21"/>
       <c r="E319" s="21"/>
     </row>
-    <row r="320" spans="1:5" ht="14.25" customHeight="1">
+    <row r="320" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A320" s="20"/>
       <c r="C320" s="21"/>
       <c r="D320" s="21"/>
       <c r="E320" s="21"/>
     </row>
-    <row r="321" spans="1:5" ht="14.25" customHeight="1">
+    <row r="321" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A321" s="20"/>
       <c r="C321" s="21"/>
       <c r="D321" s="21"/>
       <c r="E321" s="21"/>
     </row>
-    <row r="322" spans="1:5" ht="14.25" customHeight="1">
+    <row r="322" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A322" s="20"/>
       <c r="C322" s="21"/>
       <c r="D322" s="21"/>
       <c r="E322" s="21"/>
     </row>
-    <row r="323" spans="1:5" ht="14.25" customHeight="1">
+    <row r="323" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A323" s="20"/>
       <c r="C323" s="21"/>
       <c r="D323" s="21"/>
       <c r="E323" s="21"/>
     </row>
-    <row r="324" spans="1:5" ht="14.25" customHeight="1">
+    <row r="324" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A324" s="20"/>
       <c r="C324" s="21"/>
       <c r="D324" s="21"/>
       <c r="E324" s="21"/>
     </row>
-    <row r="325" spans="1:5" ht="14.25" customHeight="1">
+    <row r="325" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A325" s="20"/>
       <c r="C325" s="21"/>
       <c r="D325" s="21"/>
       <c r="E325" s="21"/>
     </row>
-    <row r="326" spans="1:5" ht="14.25" customHeight="1">
+    <row r="326" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A326" s="20"/>
       <c r="C326" s="21"/>
       <c r="D326" s="21"/>
       <c r="E326" s="21"/>
     </row>
-    <row r="327" spans="1:5" ht="14.25" customHeight="1">
+    <row r="327" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A327" s="20"/>
       <c r="C327" s="21"/>
       <c r="D327" s="21"/>
       <c r="E327" s="21"/>
     </row>
-    <row r="328" spans="1:5" ht="14.25" customHeight="1">
+    <row r="328" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A328" s="20"/>
       <c r="C328" s="21"/>
       <c r="D328" s="21"/>
       <c r="E328" s="21"/>
     </row>
-    <row r="329" spans="1:5" ht="14.25" customHeight="1">
+    <row r="329" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A329" s="20"/>
       <c r="C329" s="21"/>
       <c r="D329" s="21"/>
       <c r="E329" s="21"/>
     </row>
-    <row r="330" spans="1:5" ht="14.25" customHeight="1">
+    <row r="330" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A330" s="20"/>
       <c r="C330" s="21"/>
       <c r="D330" s="21"/>
       <c r="E330" s="21"/>
     </row>
-    <row r="331" spans="1:5" ht="14.25" customHeight="1">
+    <row r="331" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A331" s="20"/>
       <c r="C331" s="21"/>
       <c r="D331" s="21"/>
       <c r="E331" s="21"/>
     </row>
-    <row r="332" spans="1:5" ht="14.25" customHeight="1">
+    <row r="332" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A332" s="20"/>
       <c r="C332" s="21"/>
       <c r="D332" s="21"/>
       <c r="E332" s="21"/>
     </row>
-    <row r="333" spans="1:5" ht="14.25" customHeight="1">
+    <row r="333" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A333" s="20"/>
       <c r="C333" s="21"/>
       <c r="D333" s="21"/>
       <c r="E333" s="21"/>
     </row>
-    <row r="334" spans="1:5" ht="14.25" customHeight="1">
+    <row r="334" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A334" s="20"/>
       <c r="C334" s="21"/>
       <c r="D334" s="21"/>
       <c r="E334" s="21"/>
     </row>
-    <row r="335" spans="1:5" ht="14.25" customHeight="1">
+    <row r="335" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A335" s="20"/>
       <c r="C335" s="21"/>
       <c r="D335" s="21"/>
       <c r="E335" s="21"/>
     </row>
-    <row r="336" spans="1:5" ht="14.25" customHeight="1">
+    <row r="336" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A336" s="20"/>
       <c r="C336" s="21"/>
       <c r="D336" s="21"/>
       <c r="E336" s="21"/>
     </row>
-    <row r="337" spans="1:5" ht="14.25" customHeight="1">
+    <row r="337" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A337" s="20"/>
       <c r="C337" s="21"/>
       <c r="D337" s="21"/>
       <c r="E337" s="21"/>
     </row>
-    <row r="338" spans="1:5" ht="14.25" customHeight="1">
+    <row r="338" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A338" s="20"/>
       <c r="C338" s="21"/>
       <c r="D338" s="21"/>
       <c r="E338" s="21"/>
     </row>
-    <row r="339" spans="1:5" ht="14.25" customHeight="1">
+    <row r="339" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A339" s="20"/>
       <c r="C339" s="21"/>
       <c r="D339" s="21"/>
       <c r="E339" s="21"/>
     </row>
-    <row r="340" spans="1:5" ht="14.25" customHeight="1">
+    <row r="340" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A340" s="20"/>
       <c r="C340" s="21"/>
       <c r="D340" s="21"/>
       <c r="E340" s="21"/>
     </row>
-    <row r="341" spans="1:5" ht="14.25" customHeight="1">
+    <row r="341" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A341" s="20"/>
       <c r="C341" s="21"/>
       <c r="D341" s="21"/>
       <c r="E341" s="21"/>
     </row>
-    <row r="342" spans="1:5" ht="14.25" customHeight="1">
+    <row r="342" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A342" s="20"/>
       <c r="C342" s="21"/>
       <c r="D342" s="21"/>
       <c r="E342" s="21"/>
     </row>
-    <row r="343" spans="1:5" ht="14.25" customHeight="1">
+    <row r="343" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A343" s="20"/>
       <c r="C343" s="21"/>
       <c r="D343" s="21"/>
       <c r="E343" s="21"/>
     </row>
-    <row r="344" spans="1:5" ht="14.25" customHeight="1">
+    <row r="344" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A344" s="20"/>
       <c r="C344" s="21"/>
       <c r="D344" s="21"/>
       <c r="E344" s="21"/>
     </row>
-    <row r="345" spans="1:5" ht="14.25" customHeight="1">
+    <row r="345" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A345" s="20"/>
       <c r="C345" s="21"/>
       <c r="D345" s="21"/>
       <c r="E345" s="21"/>
     </row>
-    <row r="346" spans="1:5" ht="14.25" customHeight="1">
+    <row r="346" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A346" s="20"/>
       <c r="C346" s="21"/>
       <c r="D346" s="21"/>
       <c r="E346" s="21"/>
     </row>
-    <row r="347" spans="1:5" ht="14.25" customHeight="1">
+    <row r="347" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A347" s="20"/>
       <c r="C347" s="21"/>
       <c r="D347" s="21"/>
       <c r="E347" s="21"/>
     </row>
-    <row r="348" spans="1:5" ht="14.25" customHeight="1">
+    <row r="348" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A348" s="20"/>
       <c r="C348" s="21"/>
       <c r="D348" s="21"/>
       <c r="E348" s="21"/>
     </row>
-    <row r="349" spans="1:5" ht="14.25" customHeight="1">
+    <row r="349" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A349" s="20"/>
       <c r="C349" s="21"/>
       <c r="D349" s="21"/>
       <c r="E349" s="21"/>
     </row>
-    <row r="350" spans="1:5" ht="14.25" customHeight="1">
+    <row r="350" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A350" s="20"/>
       <c r="C350" s="21"/>
       <c r="D350" s="21"/>
       <c r="E350" s="21"/>
     </row>
-    <row r="351" spans="1:5" ht="14.25" customHeight="1">
+    <row r="351" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A351" s="20"/>
       <c r="C351" s="21"/>
       <c r="D351" s="21"/>
       <c r="E351" s="21"/>
     </row>
-    <row r="352" spans="1:5" ht="14.25" customHeight="1">
+    <row r="352" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A352" s="20"/>
       <c r="C352" s="21"/>
       <c r="D352" s="21"/>
       <c r="E352" s="21"/>
     </row>
-    <row r="353" spans="1:5" ht="14.25" customHeight="1">
+    <row r="353" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A353" s="20"/>
       <c r="C353" s="21"/>
       <c r="D353" s="21"/>
       <c r="E353" s="21"/>
     </row>
-    <row r="354" spans="1:5" ht="14.25" customHeight="1">
+    <row r="354" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A354" s="20"/>
       <c r="C354" s="21"/>
       <c r="D354" s="21"/>
       <c r="E354" s="21"/>
     </row>
-    <row r="355" spans="1:5" ht="14.25" customHeight="1">
+    <row r="355" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A355" s="20"/>
       <c r="C355" s="21"/>
       <c r="D355" s="21"/>
       <c r="E355" s="21"/>
     </row>
-    <row r="356" spans="1:5" ht="14.25" customHeight="1">
+    <row r="356" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A356" s="20"/>
       <c r="C356" s="21"/>
       <c r="D356" s="21"/>
       <c r="E356" s="21"/>
     </row>
-    <row r="357" spans="1:5" ht="14.25" customHeight="1">
+    <row r="357" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A357" s="20"/>
       <c r="C357" s="21"/>
       <c r="D357" s="21"/>
       <c r="E357" s="21"/>
     </row>
-    <row r="358" spans="1:5" ht="14.25" customHeight="1">
+    <row r="358" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A358" s="20"/>
       <c r="C358" s="21"/>
       <c r="D358" s="21"/>
       <c r="E358" s="21"/>
     </row>
-    <row r="359" spans="1:5" ht="14.25" customHeight="1">
+    <row r="359" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A359" s="20"/>
       <c r="C359" s="21"/>
       <c r="D359" s="21"/>
       <c r="E359" s="21"/>
     </row>
-    <row r="360" spans="1:5" ht="14.25" customHeight="1">
+    <row r="360" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A360" s="20"/>
       <c r="C360" s="21"/>
       <c r="D360" s="21"/>
       <c r="E360" s="21"/>
     </row>
-    <row r="361" spans="1:5" ht="14.25" customHeight="1">
+    <row r="361" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A361" s="20"/>
       <c r="C361" s="21"/>
       <c r="D361" s="21"/>
       <c r="E361" s="21"/>
     </row>
-    <row r="362" spans="1:5" ht="14.25" customHeight="1">
+    <row r="362" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A362" s="20"/>
       <c r="C362" s="21"/>
       <c r="D362" s="21"/>
       <c r="E362" s="21"/>
     </row>
-    <row r="363" spans="1:5" ht="14.25" customHeight="1">
+    <row r="363" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A363" s="20"/>
       <c r="C363" s="21"/>
       <c r="D363" s="21"/>
       <c r="E363" s="21"/>
     </row>
-    <row r="364" spans="1:5" ht="14.25" customHeight="1">
+    <row r="364" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A364" s="20"/>
       <c r="C364" s="21"/>
       <c r="D364" s="21"/>
       <c r="E364" s="21"/>
     </row>
-    <row r="365" spans="1:5" ht="14.25" customHeight="1">
+    <row r="365" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A365" s="20"/>
       <c r="C365" s="21"/>
       <c r="D365" s="21"/>
       <c r="E365" s="21"/>
     </row>
-    <row r="366" spans="1:5" ht="14.25" customHeight="1">
+    <row r="366" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A366" s="20"/>
       <c r="C366" s="21"/>
       <c r="D366" s="21"/>
       <c r="E366" s="21"/>
     </row>
-    <row r="367" spans="1:5" ht="14.25" customHeight="1">
+    <row r="367" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A367" s="20"/>
       <c r="C367" s="21"/>
       <c r="D367" s="21"/>
       <c r="E367" s="21"/>
     </row>
-    <row r="368" spans="1:5" ht="14.25" customHeight="1">
+    <row r="368" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A368" s="20"/>
       <c r="C368" s="21"/>
       <c r="D368" s="21"/>
       <c r="E368" s="21"/>
     </row>
-    <row r="369" spans="1:5" ht="14.25" customHeight="1">
+    <row r="369" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A369" s="20"/>
       <c r="C369" s="21"/>
       <c r="D369" s="21"/>
       <c r="E369" s="21"/>
     </row>
-    <row r="370" spans="1:5" ht="14.25" customHeight="1">
+    <row r="370" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A370" s="20"/>
       <c r="C370" s="21"/>
       <c r="D370" s="21"/>
       <c r="E370" s="21"/>
     </row>
-    <row r="371" spans="1:5" ht="14.25" customHeight="1">
+    <row r="371" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A371" s="20"/>
       <c r="C371" s="21"/>
       <c r="D371" s="21"/>
       <c r="E371" s="21"/>
     </row>
-    <row r="372" spans="1:5" ht="14.25" customHeight="1">
+    <row r="372" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A372" s="20"/>
       <c r="C372" s="21"/>
       <c r="D372" s="21"/>
       <c r="E372" s="21"/>
     </row>
-    <row r="373" spans="1:5" ht="14.25" customHeight="1">
+    <row r="373" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A373" s="20"/>
       <c r="C373" s="21"/>
       <c r="D373" s="21"/>
       <c r="E373" s="21"/>
     </row>
-    <row r="374" spans="1:5" ht="14.25" customHeight="1">
+    <row r="374" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A374" s="20"/>
       <c r="C374" s="21"/>
       <c r="D374" s="21"/>
       <c r="E374" s="21"/>
     </row>
-    <row r="375" spans="1:5" ht="14.25" customHeight="1">
+    <row r="375" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A375" s="20"/>
       <c r="C375" s="21"/>
       <c r="D375" s="21"/>
       <c r="E375" s="21"/>
     </row>
-    <row r="376" spans="1:5" ht="14.25" customHeight="1">
+    <row r="376" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A376" s="20"/>
       <c r="C376" s="21"/>
       <c r="D376" s="21"/>
       <c r="E376" s="21"/>
     </row>
-    <row r="377" spans="1:5" ht="14.25" customHeight="1">
+    <row r="377" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A377" s="20"/>
       <c r="C377" s="21"/>
       <c r="D377" s="21"/>
       <c r="E377" s="21"/>
     </row>
-    <row r="378" spans="1:5" ht="14.25" customHeight="1">
+    <row r="378" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A378" s="20"/>
       <c r="C378" s="21"/>
       <c r="D378" s="21"/>
       <c r="E378" s="21"/>
     </row>
-    <row r="379" spans="1:5" ht="14.25" customHeight="1">
+    <row r="379" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A379" s="20"/>
       <c r="C379" s="21"/>
       <c r="D379" s="21"/>
       <c r="E379" s="21"/>
     </row>
-    <row r="380" spans="1:5" ht="14.25" customHeight="1">
+    <row r="380" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A380" s="20"/>
       <c r="C380" s="21"/>
       <c r="D380" s="21"/>
       <c r="E380" s="21"/>
     </row>
-    <row r="381" spans="1:5" ht="14.25" customHeight="1">
+    <row r="381" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A381" s="20"/>
       <c r="C381" s="21"/>
       <c r="D381" s="21"/>
       <c r="E381" s="21"/>
     </row>
-    <row r="382" spans="1:5" ht="14.25" customHeight="1">
+    <row r="382" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A382" s="20"/>
       <c r="C382" s="21"/>
       <c r="D382" s="21"/>
       <c r="E382" s="21"/>
     </row>
-    <row r="383" spans="1:5" ht="14.25" customHeight="1">
+    <row r="383" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A383" s="20"/>
       <c r="C383" s="21"/>
       <c r="D383" s="21"/>
       <c r="E383" s="21"/>
     </row>
-    <row r="384" spans="1:5" ht="14.25" customHeight="1">
+    <row r="384" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A384" s="20"/>
       <c r="C384" s="21"/>
       <c r="D384" s="21"/>
       <c r="E384" s="21"/>
     </row>
-    <row r="385" spans="1:5" ht="14.25" customHeight="1">
+    <row r="385" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A385" s="20"/>
       <c r="C385" s="21"/>
       <c r="D385" s="21"/>
       <c r="E385" s="21"/>
     </row>
-    <row r="386" spans="1:5" ht="14.25" customHeight="1">
+    <row r="386" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A386" s="20"/>
       <c r="C386" s="21"/>
       <c r="D386" s="21"/>
       <c r="E386" s="21"/>
     </row>
-    <row r="387" spans="1:5" ht="14.25" customHeight="1">
+    <row r="387" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A387" s="20"/>
       <c r="C387" s="21"/>
       <c r="D387" s="21"/>
       <c r="E387" s="21"/>
     </row>
-    <row r="388" spans="1:5" ht="14.25" customHeight="1">
+    <row r="388" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A388" s="20"/>
       <c r="C388" s="21"/>
       <c r="D388" s="21"/>
       <c r="E388" s="21"/>
     </row>
-    <row r="389" spans="1:5" ht="14.25" customHeight="1">
+    <row r="389" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A389" s="20"/>
       <c r="C389" s="21"/>
       <c r="D389" s="21"/>
       <c r="E389" s="21"/>
     </row>
-    <row r="390" spans="1:5" ht="14.25" customHeight="1">
+    <row r="390" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A390" s="20"/>
       <c r="C390" s="21"/>
       <c r="D390" s="21"/>
       <c r="E390" s="21"/>
     </row>
-    <row r="391" spans="1:5" ht="14.25" customHeight="1">
+    <row r="391" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A391" s="20"/>
       <c r="C391" s="21"/>
       <c r="D391" s="21"/>
       <c r="E391" s="21"/>
     </row>
-    <row r="392" spans="1:5" ht="14.25" customHeight="1">
+    <row r="392" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A392" s="20"/>
       <c r="C392" s="21"/>
       <c r="D392" s="21"/>
       <c r="E392" s="21"/>
     </row>
-    <row r="393" spans="1:5" ht="14.25" customHeight="1">
+    <row r="393" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A393" s="20"/>
       <c r="C393" s="21"/>
       <c r="D393" s="21"/>
       <c r="E393" s="21"/>
     </row>
-    <row r="394" spans="1:5" ht="14.25" customHeight="1">
+    <row r="394" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A394" s="20"/>
       <c r="C394" s="21"/>
       <c r="D394" s="21"/>
       <c r="E394" s="21"/>
     </row>
-    <row r="395" spans="1:5" ht="14.25" customHeight="1">
+    <row r="395" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A395" s="20"/>
       <c r="C395" s="21"/>
       <c r="D395" s="21"/>
       <c r="E395" s="21"/>
     </row>
-    <row r="396" spans="1:5" ht="14.25" customHeight="1">
+    <row r="396" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A396" s="20"/>
       <c r="C396" s="21"/>
       <c r="D396" s="21"/>
       <c r="E396" s="21"/>
     </row>
-    <row r="397" spans="1:5" ht="14.25" customHeight="1">
+    <row r="397" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A397" s="20"/>
       <c r="C397" s="21"/>
       <c r="D397" s="21"/>
       <c r="E397" s="21"/>
     </row>
-    <row r="398" spans="1:5" ht="14.25" customHeight="1">
+    <row r="398" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A398" s="20"/>
       <c r="C398" s="21"/>
       <c r="D398" s="21"/>
       <c r="E398" s="21"/>
     </row>
-    <row r="399" spans="1:5" ht="14.25" customHeight="1">
+    <row r="399" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A399" s="20"/>
       <c r="C399" s="21"/>
       <c r="D399" s="21"/>
       <c r="E399" s="21"/>
     </row>
-    <row r="400" spans="1:5" ht="14.25" customHeight="1">
+    <row r="400" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A400" s="20"/>
       <c r="C400" s="21"/>
       <c r="D400" s="21"/>
       <c r="E400" s="21"/>
     </row>
-    <row r="401" spans="1:5" ht="14.25" customHeight="1">
+    <row r="401" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A401" s="20"/>
       <c r="C401" s="21"/>
       <c r="D401" s="21"/>
       <c r="E401" s="21"/>
     </row>
-    <row r="402" spans="1:5" ht="14.25" customHeight="1">
+    <row r="402" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A402" s="20"/>
       <c r="C402" s="21"/>
       <c r="D402" s="21"/>
       <c r="E402" s="21"/>
     </row>
-    <row r="403" spans="1:5" ht="14.25" customHeight="1">
+    <row r="403" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A403" s="20"/>
       <c r="C403" s="21"/>
       <c r="D403" s="21"/>
       <c r="E403" s="21"/>
     </row>
-    <row r="404" spans="1:5" ht="14.25" customHeight="1">
+    <row r="404" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A404" s="20"/>
       <c r="C404" s="21"/>
       <c r="D404" s="21"/>
       <c r="E404" s="21"/>
     </row>
-    <row r="405" spans="1:5" ht="14.25" customHeight="1">
+    <row r="405" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A405" s="20"/>
       <c r="C405" s="21"/>
       <c r="D405" s="21"/>
       <c r="E405" s="21"/>
     </row>
-    <row r="406" spans="1:5" ht="14.25" customHeight="1">
+    <row r="406" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A406" s="20"/>
       <c r="C406" s="21"/>
       <c r="D406" s="21"/>
       <c r="E406" s="21"/>
     </row>
-    <row r="407" spans="1:5" ht="14.25" customHeight="1">
+    <row r="407" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A407" s="20"/>
       <c r="C407" s="21"/>
       <c r="D407" s="21"/>
       <c r="E407" s="21"/>
     </row>
-    <row r="408" spans="1:5" ht="14.25" customHeight="1">
+    <row r="408" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A408" s="20"/>
       <c r="C408" s="21"/>
       <c r="D408" s="21"/>
       <c r="E408" s="21"/>
     </row>
-    <row r="409" spans="1:5" ht="14.25" customHeight="1">
+    <row r="409" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A409" s="20"/>
       <c r="C409" s="21"/>
       <c r="D409" s="21"/>
       <c r="E409" s="21"/>
     </row>
-    <row r="410" spans="1:5" ht="14.25" customHeight="1">
+    <row r="410" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A410" s="20"/>
       <c r="C410" s="21"/>
       <c r="D410" s="21"/>
       <c r="E410" s="21"/>
     </row>
-    <row r="411" spans="1:5" ht="14.25" customHeight="1">
+    <row r="411" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A411" s="20"/>
       <c r="C411" s="21"/>
       <c r="D411" s="21"/>
       <c r="E411" s="21"/>
     </row>
-    <row r="412" spans="1:5" ht="14.25" customHeight="1">
+    <row r="412" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A412" s="20"/>
       <c r="C412" s="21"/>
       <c r="D412" s="21"/>
       <c r="E412" s="21"/>
     </row>
-    <row r="413" spans="1:5" ht="14.25" customHeight="1">
+    <row r="413" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A413" s="20"/>
       <c r="C413" s="21"/>
       <c r="D413" s="21"/>
       <c r="E413" s="21"/>
     </row>
-    <row r="414" spans="1:5" ht="14.25" customHeight="1">
+    <row r="414" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A414" s="20"/>
       <c r="C414" s="21"/>
       <c r="D414" s="21"/>
       <c r="E414" s="21"/>
     </row>
-    <row r="415" spans="1:5" ht="14.25" customHeight="1">
+    <row r="415" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A415" s="20"/>
       <c r="C415" s="21"/>
       <c r="D415" s="21"/>
       <c r="E415" s="21"/>
     </row>
-    <row r="416" spans="1:5" ht="14.25" customHeight="1">
+    <row r="416" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A416" s="20"/>
       <c r="C416" s="21"/>
       <c r="D416" s="21"/>
       <c r="E416" s="21"/>
     </row>
-    <row r="417" spans="1:5" ht="14.25" customHeight="1">
+    <row r="417" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A417" s="20"/>
       <c r="C417" s="21"/>
       <c r="D417" s="21"/>
       <c r="E417" s="21"/>
     </row>
-    <row r="418" spans="1:5" ht="14.25" customHeight="1">
+    <row r="418" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A418" s="20"/>
       <c r="C418" s="21"/>
       <c r="D418" s="21"/>
       <c r="E418" s="21"/>
     </row>
-    <row r="419" spans="1:5" ht="14.25" customHeight="1">
+    <row r="419" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A419" s="20"/>
       <c r="C419" s="21"/>
       <c r="D419" s="21"/>
       <c r="E419" s="21"/>
     </row>
-    <row r="420" spans="1:5" ht="14.25" customHeight="1">
+    <row r="420" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A420" s="20"/>
       <c r="C420" s="21"/>
       <c r="D420" s="21"/>
       <c r="E420" s="21"/>
     </row>
-    <row r="421" spans="1:5" ht="14.25" customHeight="1">
+    <row r="421" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A421" s="20"/>
       <c r="C421" s="21"/>
       <c r="D421" s="21"/>
       <c r="E421" s="21"/>
     </row>
-    <row r="422" spans="1:5" ht="14.25" customHeight="1">
+    <row r="422" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A422" s="20"/>
       <c r="C422" s="21"/>
       <c r="D422" s="21"/>
       <c r="E422" s="21"/>
     </row>
-    <row r="423" spans="1:5" ht="14.25" customHeight="1">
+    <row r="423" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A423" s="20"/>
       <c r="C423" s="21"/>
       <c r="D423" s="21"/>
       <c r="E423" s="21"/>
     </row>
-    <row r="424" spans="1:5" ht="14.25" customHeight="1">
+    <row r="424" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A424" s="20"/>
       <c r="C424" s="21"/>
       <c r="D424" s="21"/>
       <c r="E424" s="21"/>
     </row>
-    <row r="425" spans="1:5" ht="14.25" customHeight="1">
+    <row r="425" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A425" s="20"/>
       <c r="C425" s="21"/>
       <c r="D425" s="21"/>
       <c r="E425" s="21"/>
     </row>
-    <row r="426" spans="1:5" ht="14.25" customHeight="1">
+    <row r="426" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A426" s="20"/>
       <c r="C426" s="21"/>
       <c r="D426" s="21"/>
       <c r="E426" s="21"/>
     </row>
-    <row r="427" spans="1:5" ht="14.25" customHeight="1">
+    <row r="427" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A427" s="20"/>
       <c r="C427" s="21"/>
       <c r="D427" s="21"/>
       <c r="E427" s="21"/>
     </row>
-    <row r="428" spans="1:5" ht="14.25" customHeight="1">
+    <row r="428" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A428" s="20"/>
       <c r="C428" s="21"/>
       <c r="D428" s="21"/>
       <c r="E428" s="21"/>
     </row>
-    <row r="429" spans="1:5" ht="14.25" customHeight="1">
+    <row r="429" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A429" s="20"/>
       <c r="C429" s="21"/>
       <c r="D429" s="21"/>
       <c r="E429" s="21"/>
     </row>
-    <row r="430" spans="1:5" ht="14.25" customHeight="1">
+    <row r="430" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A430" s="20"/>
       <c r="C430" s="21"/>
       <c r="D430" s="21"/>
       <c r="E430" s="21"/>
     </row>
-    <row r="431" spans="1:5" ht="14.25" customHeight="1">
+    <row r="431" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A431" s="20"/>
       <c r="C431" s="21"/>
       <c r="D431" s="21"/>
       <c r="E431" s="21"/>
     </row>
-    <row r="432" spans="1:5" ht="14.25" customHeight="1">
+    <row r="432" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A432" s="20"/>
       <c r="C432" s="21"/>
       <c r="D432" s="21"/>
       <c r="E432" s="21"/>
     </row>
-    <row r="433" spans="1:5" ht="14.25" customHeight="1">
+    <row r="433" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A433" s="20"/>
       <c r="C433" s="21"/>
       <c r="D433" s="21"/>
       <c r="E433" s="21"/>
     </row>
-    <row r="434" spans="1:5" ht="14.25" customHeight="1">
+    <row r="434" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A434" s="20"/>
       <c r="C434" s="21"/>
       <c r="D434" s="21"/>
       <c r="E434" s="21"/>
     </row>
-    <row r="435" spans="1:5" ht="14.25" customHeight="1">
+    <row r="435" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A435" s="20"/>
       <c r="C435" s="21"/>
       <c r="D435" s="21"/>
       <c r="E435" s="21"/>
     </row>
-    <row r="436" spans="1:5" ht="14.25" customHeight="1">
+    <row r="436" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A436" s="20"/>
       <c r="C436" s="21"/>
       <c r="D436" s="21"/>
       <c r="E436" s="21"/>
     </row>
-    <row r="437" spans="1:5" ht="14.25" customHeight="1">
+    <row r="437" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A437" s="20"/>
       <c r="C437" s="21"/>
       <c r="D437" s="21"/>
       <c r="E437" s="21"/>
     </row>
-    <row r="438" spans="1:5" ht="14.25" customHeight="1">
+    <row r="438" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A438" s="20"/>
       <c r="C438" s="21"/>
       <c r="D438" s="21"/>
       <c r="E438" s="21"/>
     </row>
-    <row r="439" spans="1:5" ht="14.25" customHeight="1">
+    <row r="439" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A439" s="20"/>
       <c r="C439" s="21"/>
       <c r="D439" s="21"/>
       <c r="E439" s="21"/>
     </row>
-    <row r="440" spans="1:5" ht="14.25" customHeight="1">
+    <row r="440" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A440" s="20"/>
       <c r="C440" s="21"/>
       <c r="D440" s="21"/>
       <c r="E440" s="21"/>
     </row>
-    <row r="441" spans="1:5" ht="14.25" customHeight="1">
+    <row r="441" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A441" s="20"/>
       <c r="C441" s="21"/>
       <c r="D441" s="21"/>
       <c r="E441" s="21"/>
     </row>
-    <row r="442" spans="1:5" ht="14.25" customHeight="1">
+    <row r="442" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A442" s="20"/>
       <c r="C442" s="21"/>
       <c r="D442" s="21"/>
       <c r="E442" s="21"/>
     </row>
-    <row r="443" spans="1:5" ht="14.25" customHeight="1">
+    <row r="443" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A443" s="20"/>
       <c r="C443" s="21"/>
       <c r="D443" s="21"/>
       <c r="E443" s="21"/>
     </row>
-    <row r="444" spans="1:5" ht="14.25" customHeight="1">
+    <row r="444" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A444" s="20"/>
       <c r="C444" s="21"/>
       <c r="D444" s="21"/>
       <c r="E444" s="21"/>
     </row>
-    <row r="445" spans="1:5" ht="14.25" customHeight="1">
+    <row r="445" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A445" s="20"/>
       <c r="C445" s="21"/>
       <c r="D445" s="21"/>
       <c r="E445" s="21"/>
     </row>
-    <row r="446" spans="1:5" ht="14.25" customHeight="1">
+    <row r="446" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A446" s="20"/>
       <c r="C446" s="21"/>
       <c r="D446" s="21"/>
       <c r="E446" s="21"/>
     </row>
-    <row r="447" spans="1:5" ht="14.25" customHeight="1">
+    <row r="447" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A447" s="20"/>
       <c r="C447" s="21"/>
       <c r="D447" s="21"/>
       <c r="E447" s="21"/>
     </row>
-    <row r="448" spans="1:5" ht="14.25" customHeight="1">
+    <row r="448" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A448" s="20"/>
       <c r="C448" s="21"/>
       <c r="D448" s="21"/>
       <c r="E448" s="21"/>
     </row>
-    <row r="449" spans="1:5" ht="14.25" customHeight="1">
+    <row r="449" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A449" s="20"/>
       <c r="C449" s="21"/>
       <c r="D449" s="21"/>
       <c r="E449" s="21"/>
     </row>
-    <row r="450" spans="1:5" ht="14.25" customHeight="1">
+    <row r="450" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A450" s="20"/>
       <c r="C450" s="21"/>
       <c r="D450" s="21"/>
       <c r="E450" s="21"/>
     </row>
-    <row r="451" spans="1:5" ht="14.25" customHeight="1">
+    <row r="451" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A451" s="20"/>
       <c r="C451" s="21"/>
       <c r="D451" s="21"/>
       <c r="E451" s="21"/>
     </row>
-    <row r="452" spans="1:5" ht="14.25" customHeight="1">
+    <row r="452" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A452" s="20"/>
       <c r="C452" s="21"/>
       <c r="D452" s="21"/>
       <c r="E452" s="21"/>
     </row>
-    <row r="453" spans="1:5" ht="14.25" customHeight="1">
+    <row r="453" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A453" s="20"/>
       <c r="C453" s="21"/>
       <c r="D453" s="21"/>
       <c r="E453" s="21"/>
     </row>
-    <row r="454" spans="1:5" ht="14.25" customHeight="1">
+    <row r="454" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A454" s="20"/>
       <c r="C454" s="21"/>
       <c r="D454" s="21"/>
       <c r="E454" s="21"/>
     </row>
-    <row r="455" spans="1:5" ht="14.25" customHeight="1">
+    <row r="455" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A455" s="20"/>
       <c r="C455" s="21"/>
       <c r="D455" s="21"/>
       <c r="E455" s="21"/>
     </row>
-    <row r="456" spans="1:5" ht="14.25" customHeight="1">
+    <row r="456" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A456" s="20"/>
       <c r="C456" s="21"/>
       <c r="D456" s="21"/>
       <c r="E456" s="21"/>
     </row>
-    <row r="457" spans="1:5" ht="14.25" customHeight="1">
+    <row r="457" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A457" s="20"/>
       <c r="C457" s="21"/>
       <c r="D457" s="21"/>
       <c r="E457" s="21"/>
     </row>
-    <row r="458" spans="1:5" ht="14.25" customHeight="1">
+    <row r="458" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A458" s="20"/>
       <c r="C458" s="21"/>
       <c r="D458" s="21"/>
       <c r="E458" s="21"/>
     </row>
-    <row r="459" spans="1:5" ht="14.25" customHeight="1">
+    <row r="459" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A459" s="20"/>
       <c r="C459" s="21"/>
       <c r="D459" s="21"/>
       <c r="E459" s="21"/>
     </row>
-    <row r="460" spans="1:5" ht="14.25" customHeight="1">
+    <row r="460" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A460" s="20"/>
       <c r="C460" s="21"/>
       <c r="D460" s="21"/>
       <c r="E460" s="21"/>
     </row>
-    <row r="461" spans="1:5" ht="14.25" customHeight="1">
+    <row r="461" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A461" s="20"/>
       <c r="C461" s="21"/>
       <c r="D461" s="21"/>
       <c r="E461" s="21"/>
     </row>
-    <row r="462" spans="1:5" ht="14.25" customHeight="1">
+    <row r="462" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A462" s="20"/>
       <c r="C462" s="21"/>
       <c r="D462" s="21"/>
       <c r="E462" s="21"/>
     </row>
-    <row r="463" spans="1:5" ht="14.25" customHeight="1">
+    <row r="463" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A463" s="20"/>
       <c r="C463" s="21"/>
       <c r="D463" s="21"/>
       <c r="E463" s="21"/>
     </row>
-    <row r="464" spans="1:5" ht="14.25" customHeight="1">
+    <row r="464" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A464" s="20"/>
       <c r="C464" s="21"/>
       <c r="D464" s="21"/>
       <c r="E464" s="21"/>
     </row>
-    <row r="465" spans="1:5" ht="14.25" customHeight="1">
+    <row r="465" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A465" s="20"/>
       <c r="C465" s="21"/>
       <c r="D465" s="21"/>
       <c r="E465" s="21"/>
     </row>
-    <row r="466" spans="1:5" ht="14.25" customHeight="1">
+    <row r="466" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A466" s="20"/>
       <c r="C466" s="21"/>
       <c r="D466" s="21"/>
       <c r="E466" s="21"/>
     </row>
-    <row r="467" spans="1:5" ht="14.25" customHeight="1">
+    <row r="467" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A467" s="20"/>
       <c r="C467" s="21"/>
       <c r="D467" s="21"/>
       <c r="E467" s="21"/>
     </row>
-    <row r="468" spans="1:5" ht="14.25" customHeight="1">
+    <row r="468" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A468" s="20"/>
       <c r="C468" s="21"/>
       <c r="D468" s="21"/>
       <c r="E468" s="21"/>
     </row>
-    <row r="469" spans="1:5" ht="14.25" customHeight="1">
+    <row r="469" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A469" s="20"/>
       <c r="C469" s="21"/>
       <c r="D469" s="21"/>
       <c r="E469" s="21"/>
     </row>
-    <row r="470" spans="1:5" ht="14.25" customHeight="1">
+    <row r="470" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A470" s="20"/>
       <c r="C470" s="21"/>
       <c r="D470" s="21"/>
       <c r="E470" s="21"/>
     </row>
-    <row r="471" spans="1:5" ht="14.25" customHeight="1">
+    <row r="471" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A471" s="20"/>
       <c r="C471" s="21"/>
       <c r="D471" s="21"/>
       <c r="E471" s="21"/>
     </row>
-    <row r="472" spans="1:5" ht="14.25" customHeight="1">
+    <row r="472" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A472" s="20"/>
       <c r="C472" s="21"/>
       <c r="D472" s="21"/>
       <c r="E472" s="21"/>
     </row>
-    <row r="473" spans="1:5" ht="14.25" customHeight="1">
+    <row r="473" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A473" s="20"/>
       <c r="C473" s="21"/>
       <c r="D473" s="21"/>
       <c r="E473" s="21"/>
     </row>
-    <row r="474" spans="1:5" ht="14.25" customHeight="1">
+    <row r="474" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A474" s="20"/>
       <c r="C474" s="21"/>
       <c r="D474" s="21"/>
       <c r="E474" s="21"/>
     </row>
-    <row r="475" spans="1:5" ht="14.25" customHeight="1">
+    <row r="475" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A475" s="20"/>
       <c r="C475" s="21"/>
       <c r="D475" s="21"/>
       <c r="E475" s="21"/>
     </row>
-    <row r="476" spans="1:5" ht="14.25" customHeight="1">
+    <row r="476" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A476" s="20"/>
       <c r="C476" s="21"/>
       <c r="D476" s="21"/>
       <c r="E476" s="21"/>
     </row>
-    <row r="477" spans="1:5" ht="14.25" customHeight="1">
+    <row r="477" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A477" s="20"/>
       <c r="C477" s="21"/>
       <c r="D477" s="21"/>
       <c r="E477" s="21"/>
     </row>
-    <row r="478" spans="1:5" ht="14.25" customHeight="1">
+    <row r="478" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A478" s="20"/>
       <c r="C478" s="21"/>
       <c r="D478" s="21"/>
       <c r="E478" s="21"/>
     </row>
-    <row r="479" spans="1:5" ht="14.25" customHeight="1">
+    <row r="479" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A479" s="20"/>
       <c r="C479" s="21"/>
       <c r="D479" s="21"/>
       <c r="E479" s="21"/>
     </row>
-    <row r="480" spans="1:5" ht="14.25" customHeight="1">
+    <row r="480" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A480" s="20"/>
       <c r="C480" s="21"/>
       <c r="D480" s="21"/>
       <c r="E480" s="21"/>
     </row>
-    <row r="481" spans="1:5" ht="14.25" customHeight="1">
+    <row r="481" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A481" s="20"/>
       <c r="C481" s="21"/>
       <c r="D481" s="21"/>
       <c r="E481" s="21"/>
     </row>
-    <row r="482" spans="1:5" ht="14.25" customHeight="1">
+    <row r="482" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A482" s="20"/>
       <c r="C482" s="21"/>
       <c r="D482" s="21"/>
       <c r="E482" s="21"/>
     </row>
-    <row r="483" spans="1:5" ht="14.25" customHeight="1">
+    <row r="483" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A483" s="20"/>
       <c r="C483" s="21"/>
       <c r="D483" s="21"/>
       <c r="E483" s="21"/>
     </row>
-    <row r="484" spans="1:5" ht="14.25" customHeight="1">
+    <row r="484" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A484" s="20"/>
       <c r="C484" s="21"/>
       <c r="D484" s="21"/>
       <c r="E484" s="21"/>
     </row>
-    <row r="485" spans="1:5" ht="14.25" customHeight="1">
+    <row r="485" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A485" s="20"/>
       <c r="C485" s="21"/>
       <c r="D485" s="21"/>
       <c r="E485" s="21"/>
     </row>
-    <row r="486" spans="1:5" ht="14.25" customHeight="1">
+    <row r="486" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A486" s="20"/>
       <c r="C486" s="21"/>
       <c r="D486" s="21"/>
       <c r="E486" s="21"/>
     </row>
-    <row r="487" spans="1:5" ht="14.25" customHeight="1">
+    <row r="487" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A487" s="20"/>
       <c r="C487" s="21"/>
       <c r="D487" s="21"/>
       <c r="E487" s="21"/>
     </row>
-    <row r="488" spans="1:5" ht="14.25" customHeight="1">
+    <row r="488" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A488" s="20"/>
       <c r="C488" s="21"/>
       <c r="D488" s="21"/>
       <c r="E488" s="21"/>
     </row>
-    <row r="489" spans="1:5" ht="14.25" customHeight="1">
+    <row r="489" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A489" s="20"/>
       <c r="C489" s="21"/>
       <c r="D489" s="21"/>
       <c r="E489" s="21"/>
     </row>
-    <row r="490" spans="1:5" ht="14.25" customHeight="1">
+    <row r="490" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A490" s="20"/>
       <c r="C490" s="21"/>
       <c r="D490" s="21"/>
       <c r="E490" s="21"/>
     </row>
-    <row r="491" spans="1:5" ht="14.25" customHeight="1">
+    <row r="491" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A491" s="20"/>
       <c r="C491" s="21"/>
       <c r="D491" s="21"/>
       <c r="E491" s="21"/>
     </row>
-    <row r="492" spans="1:5" ht="14.25" customHeight="1">
+    <row r="492" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A492" s="20"/>
       <c r="C492" s="21"/>
       <c r="D492" s="21"/>
       <c r="E492" s="21"/>
     </row>
-    <row r="493" spans="1:5" ht="14.25" customHeight="1">
+    <row r="493" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A493" s="20"/>
       <c r="C493" s="21"/>
       <c r="D493" s="21"/>
       <c r="E493" s="21"/>
     </row>
-    <row r="494" spans="1:5" ht="14.25" customHeight="1">
+    <row r="494" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A494" s="20"/>
       <c r="C494" s="21"/>
       <c r="D494" s="21"/>
       <c r="E494" s="21"/>
     </row>
-    <row r="495" spans="1:5" ht="14.25" customHeight="1">
+    <row r="495" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A495" s="20"/>
       <c r="C495" s="21"/>
       <c r="D495" s="21"/>
       <c r="E495" s="21"/>
     </row>
-    <row r="496" spans="1:5" ht="14.25" customHeight="1">
+    <row r="496" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A496" s="20"/>
       <c r="C496" s="21"/>
       <c r="D496" s="21"/>
       <c r="E496" s="21"/>
     </row>
-    <row r="497" spans="1:5" ht="14.25" customHeight="1">
+    <row r="497" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A497" s="20"/>
       <c r="C497" s="21"/>
       <c r="D497" s="21"/>
       <c r="E497" s="21"/>
     </row>
-    <row r="498" spans="1:5" ht="14.25" customHeight="1">
+    <row r="498" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A498" s="20"/>
       <c r="C498" s="21"/>
       <c r="D498" s="21"/>
       <c r="E498" s="21"/>
     </row>
-    <row r="499" spans="1:5" ht="14.25" customHeight="1">
+    <row r="499" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A499" s="20"/>
       <c r="C499" s="21"/>
       <c r="D499" s="21"/>
       <c r="E499" s="21"/>
     </row>
-    <row r="500" spans="1:5" ht="14.25" customHeight="1">
+    <row r="500" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A500" s="20"/>
       <c r="C500" s="21"/>
       <c r="D500" s="21"/>
       <c r="E500" s="21"/>
     </row>
-    <row r="501" spans="1:5" ht="14.25" customHeight="1">
+    <row r="501" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A501" s="20"/>
       <c r="C501" s="21"/>
       <c r="D501" s="21"/>
       <c r="E501" s="21"/>
     </row>
-    <row r="502" spans="1:5" ht="14.25" customHeight="1">
+    <row r="502" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A502" s="20"/>
       <c r="C502" s="21"/>
       <c r="D502" s="21"/>
       <c r="E502" s="21"/>
     </row>
-    <row r="503" spans="1:5" ht="14.25" customHeight="1">
+    <row r="503" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A503" s="20"/>
       <c r="C503" s="21"/>
       <c r="D503" s="21"/>
       <c r="E503" s="21"/>
     </row>
-    <row r="504" spans="1:5" ht="14.25" customHeight="1">
+    <row r="504" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A504" s="20"/>
       <c r="C504" s="21"/>
       <c r="D504" s="21"/>
       <c r="E504" s="21"/>
     </row>
-    <row r="505" spans="1:5" ht="14.25" customHeight="1">
+    <row r="505" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A505" s="20"/>
       <c r="C505" s="21"/>
       <c r="D505" s="21"/>
       <c r="E505" s="21"/>
     </row>
-    <row r="506" spans="1:5" ht="14.25" customHeight="1">
+    <row r="506" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A506" s="20"/>
       <c r="C506" s="21"/>
       <c r="D506" s="21"/>
       <c r="E506" s="21"/>
     </row>
-    <row r="507" spans="1:5" ht="14.25" customHeight="1">
+    <row r="507" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A507" s="20"/>
       <c r="C507" s="21"/>
       <c r="D507" s="21"/>
       <c r="E507" s="21"/>
     </row>
-    <row r="508" spans="1:5" ht="14.25" customHeight="1">
+    <row r="508" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A508" s="20"/>
       <c r="C508" s="21"/>
       <c r="D508" s="21"/>
       <c r="E508" s="21"/>
     </row>
-    <row r="509" spans="1:5" ht="14.25" customHeight="1">
+    <row r="509" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A509" s="20"/>
       <c r="C509" s="21"/>
       <c r="D509" s="21"/>
       <c r="E509" s="21"/>
     </row>
-    <row r="510" spans="1:5" ht="14.25" customHeight="1">
+    <row r="510" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A510" s="20"/>
       <c r="C510" s="21"/>
       <c r="D510" s="21"/>
       <c r="E510" s="21"/>
     </row>
-    <row r="511" spans="1:5" ht="14.25" customHeight="1">
+    <row r="511" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A511" s="20"/>
       <c r="C511" s="21"/>
       <c r="D511" s="21"/>
       <c r="E511" s="21"/>
     </row>
-    <row r="512" spans="1:5" ht="14.25" customHeight="1">
+    <row r="512" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A512" s="20"/>
       <c r="C512" s="21"/>
       <c r="D512" s="21"/>
       <c r="E512" s="21"/>
     </row>
-    <row r="513" spans="1:5" ht="14.25" customHeight="1">
+    <row r="513" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A513" s="20"/>
       <c r="C513" s="21"/>
       <c r="D513" s="21"/>
       <c r="E513" s="21"/>
     </row>
-    <row r="514" spans="1:5" ht="14.25" customHeight="1">
+    <row r="514" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A514" s="20"/>
       <c r="C514" s="21"/>
       <c r="D514" s="21"/>
       <c r="E514" s="21"/>
     </row>
-    <row r="515" spans="1:5" ht="14.25" customHeight="1">
+    <row r="515" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A515" s="20"/>
       <c r="C515" s="21"/>
       <c r="D515" s="21"/>
       <c r="E515" s="21"/>
     </row>
-    <row r="516" spans="1:5" ht="14.25" customHeight="1">
+    <row r="516" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A516" s="20"/>
       <c r="C516" s="21"/>
       <c r="D516" s="21"/>
       <c r="E516" s="21"/>
     </row>
-    <row r="517" spans="1:5" ht="14.25" customHeight="1">
+    <row r="517" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A517" s="20"/>
       <c r="C517" s="21"/>
       <c r="D517" s="21"/>
       <c r="E517" s="21"/>
     </row>
-    <row r="518" spans="1:5" ht="14.25" customHeight="1">
+    <row r="518" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A518" s="20"/>
       <c r="C518" s="21"/>
       <c r="D518" s="21"/>
       <c r="E518" s="21"/>
     </row>
-    <row r="519" spans="1:5" ht="14.25" customHeight="1">
+    <row r="519" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A519" s="20"/>
       <c r="C519" s="21"/>
       <c r="D519" s="21"/>
       <c r="E519" s="21"/>
     </row>
-    <row r="520" spans="1:5" ht="14.25" customHeight="1">
+    <row r="520" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A520" s="20"/>
       <c r="C520" s="21"/>
       <c r="D520" s="21"/>
       <c r="E520" s="21"/>
     </row>
-    <row r="521" spans="1:5" ht="14.25" customHeight="1">
+    <row r="521" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A521" s="20"/>
       <c r="C521" s="21"/>
       <c r="D521" s="21"/>
       <c r="E521" s="21"/>
     </row>
-    <row r="522" spans="1:5" ht="14.25" customHeight="1">
+    <row r="522" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A522" s="20"/>
       <c r="C522" s="21"/>
       <c r="D522" s="21"/>
       <c r="E522" s="21"/>
     </row>
-    <row r="523" spans="1:5" ht="14.25" customHeight="1">
+    <row r="523" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A523" s="20"/>
       <c r="C523" s="21"/>
       <c r="D523" s="21"/>
       <c r="E523" s="21"/>
     </row>
-    <row r="524" spans="1:5" ht="14.25" customHeight="1">
+    <row r="524" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A524" s="20"/>
       <c r="C524" s="21"/>
       <c r="D524" s="21"/>
       <c r="E524" s="21"/>
     </row>
-    <row r="525" spans="1:5" ht="14.25" customHeight="1">
+    <row r="525" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A525" s="20"/>
       <c r="C525" s="21"/>
       <c r="D525" s="21"/>
       <c r="E525" s="21"/>
     </row>
-    <row r="526" spans="1:5" ht="14.25" customHeight="1">
+    <row r="526" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A526" s="20"/>
       <c r="C526" s="21"/>
       <c r="D526" s="21"/>
       <c r="E526" s="21"/>
     </row>
-    <row r="527" spans="1:5" ht="14.25" customHeight="1">
+    <row r="527" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A527" s="20"/>
       <c r="C527" s="21"/>
       <c r="D527" s="21"/>
       <c r="E527" s="21"/>
     </row>
-    <row r="528" spans="1:5" ht="14.25" customHeight="1">
+    <row r="528" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A528" s="20"/>
       <c r="C528" s="21"/>
       <c r="D528" s="21"/>
       <c r="E528" s="21"/>
     </row>
-    <row r="529" spans="1:5" ht="14.25" customHeight="1">
+    <row r="529" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A529" s="20"/>
       <c r="C529" s="21"/>
       <c r="D529" s="21"/>
       <c r="E529" s="21"/>
     </row>
-    <row r="530" spans="1:5" ht="14.25" customHeight="1">
+    <row r="530" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A530" s="20"/>
       <c r="C530" s="21"/>
       <c r="D530" s="21"/>
       <c r="E530" s="21"/>
     </row>
-    <row r="531" spans="1:5" ht="14.25" customHeight="1">
+    <row r="531" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A531" s="20"/>
       <c r="C531" s="21"/>
       <c r="D531" s="21"/>
       <c r="E531" s="21"/>
     </row>
-    <row r="532" spans="1:5" ht="14.25" customHeight="1">
+    <row r="532" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A532" s="20"/>
       <c r="C532" s="21"/>
       <c r="D532" s="21"/>
       <c r="E532" s="21"/>
     </row>
-    <row r="533" spans="1:5" ht="14.25" customHeight="1">
+    <row r="533" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A533" s="20"/>
       <c r="C533" s="21"/>
       <c r="D533" s="21"/>
       <c r="E533" s="21"/>
     </row>
-    <row r="534" spans="1:5" ht="14.25" customHeight="1">
+    <row r="534" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A534" s="20"/>
       <c r="C534" s="21"/>
       <c r="D534" s="21"/>
       <c r="E534" s="21"/>
     </row>
-    <row r="535" spans="1:5" ht="14.25" customHeight="1">
+    <row r="535" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A535" s="20"/>
       <c r="C535" s="21"/>
       <c r="D535" s="21"/>
       <c r="E535" s="21"/>
     </row>
-    <row r="536" spans="1:5" ht="14.25" customHeight="1">
+    <row r="536" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A536" s="20"/>
       <c r="C536" s="21"/>
       <c r="D536" s="21"/>
       <c r="E536" s="21"/>
     </row>
-    <row r="537" spans="1:5" ht="14.25" customHeight="1">
+    <row r="537" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A537" s="20"/>
       <c r="C537" s="21"/>
       <c r="D537" s="21"/>
       <c r="E537" s="21"/>
     </row>
-    <row r="538" spans="1:5" ht="14.25" customHeight="1">
+    <row r="538" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A538" s="20"/>
       <c r="C538" s="21"/>
       <c r="D538" s="21"/>
       <c r="E538" s="21"/>
     </row>
-    <row r="539" spans="1:5" ht="14.25" customHeight="1">
+    <row r="539" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A539" s="20"/>
       <c r="C539" s="21"/>
       <c r="D539" s="21"/>
       <c r="E539" s="21"/>
     </row>
-    <row r="540" spans="1:5" ht="14.25" customHeight="1">
+    <row r="540" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A540" s="20"/>
       <c r="C540" s="21"/>
       <c r="D540" s="21"/>
       <c r="E540" s="21"/>
     </row>
-    <row r="541" spans="1:5" ht="14.25" customHeight="1">
+    <row r="541" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A541" s="20"/>
       <c r="C541" s="21"/>
       <c r="D541" s="21"/>
       <c r="E541" s="21"/>
     </row>
-    <row r="542" spans="1:5" ht="14.25" customHeight="1">
+    <row r="542" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A542" s="20"/>
       <c r="C542" s="21"/>
       <c r="D542" s="21"/>
       <c r="E542" s="21"/>
     </row>
-    <row r="543" spans="1:5" ht="14.25" customHeight="1">
+    <row r="543" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A543" s="20"/>
       <c r="C543" s="21"/>
       <c r="D543" s="21"/>
       <c r="E543" s="21"/>
     </row>
-    <row r="544" spans="1:5" ht="14.25" customHeight="1">
+    <row r="544" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A544" s="20"/>
       <c r="C544" s="21"/>
       <c r="D544" s="21"/>
       <c r="E544" s="21"/>
     </row>
-    <row r="545" spans="1:5" ht="14.25" customHeight="1">
+    <row r="545" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A545" s="20"/>
       <c r="C545" s="21"/>
       <c r="D545" s="21"/>
       <c r="E545" s="21"/>
     </row>
-    <row r="546" spans="1:5" ht="14.25" customHeight="1">
+    <row r="546" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A546" s="20"/>
       <c r="C546" s="21"/>
       <c r="D546" s="21"/>
       <c r="E546" s="21"/>
     </row>
-    <row r="547" spans="1:5" ht="14.25" customHeight="1">
+    <row r="547" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A547" s="20"/>
       <c r="C547" s="21"/>
       <c r="D547" s="21"/>
       <c r="E547" s="21"/>
     </row>
-    <row r="548" spans="1:5" ht="14.25" customHeight="1">
+    <row r="548" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A548" s="20"/>
       <c r="C548" s="21"/>
       <c r="D548" s="21"/>
       <c r="E548" s="21"/>
     </row>
-    <row r="549" spans="1:5" ht="14.25" customHeight="1">
+    <row r="549" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A549" s="20"/>
       <c r="C549" s="21"/>
       <c r="D549" s="21"/>
       <c r="E549" s="21"/>
     </row>
-    <row r="550" spans="1:5" ht="14.25" customHeight="1">
+    <row r="550" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A550" s="20"/>
       <c r="C550" s="21"/>
       <c r="D550" s="21"/>
       <c r="E550" s="21"/>
     </row>
-    <row r="551" spans="1:5" ht="14.25" customHeight="1">
+    <row r="551" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A551" s="20"/>
       <c r="C551" s="21"/>
       <c r="D551" s="21"/>
       <c r="E551" s="21"/>
     </row>
-    <row r="552" spans="1:5" ht="14.25" customHeight="1">
+    <row r="552" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A552" s="20"/>
       <c r="C552" s="21"/>
       <c r="D552" s="21"/>
       <c r="E552" s="21"/>
     </row>
-    <row r="553" spans="1:5" ht="14.25" customHeight="1">
+    <row r="553" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A553" s="20"/>
       <c r="C553" s="21"/>
       <c r="D553" s="21"/>
       <c r="E553" s="21"/>
     </row>
-    <row r="554" spans="1:5" ht="14.25" customHeight="1">
+    <row r="554" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A554" s="20"/>
       <c r="C554" s="21"/>
       <c r="D554" s="21"/>
       <c r="E554" s="21"/>
     </row>
-    <row r="555" spans="1:5" ht="14.25" customHeight="1">
+    <row r="555" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A555" s="20"/>
       <c r="C555" s="21"/>
       <c r="D555" s="21"/>
       <c r="E555" s="21"/>
     </row>
-    <row r="556" spans="1:5" ht="14.25" customHeight="1">
+    <row r="556" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A556" s="20"/>
       <c r="C556" s="21"/>
       <c r="D556" s="21"/>
       <c r="E556" s="21"/>
     </row>
-    <row r="557" spans="1:5" ht="14.25" customHeight="1">
+    <row r="557" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A557" s="20"/>
       <c r="C557" s="21"/>
       <c r="D557" s="21"/>
       <c r="E557" s="21"/>
     </row>
-    <row r="558" spans="1:5" ht="14.25" customHeight="1">
+    <row r="558" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A558" s="20"/>
       <c r="C558" s="21"/>
       <c r="D558" s="21"/>
       <c r="E558" s="21"/>
     </row>
-    <row r="559" spans="1:5" ht="14.25" customHeight="1">
+    <row r="559" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A559" s="20"/>
       <c r="C559" s="21"/>
       <c r="D559" s="21"/>
       <c r="E559" s="21"/>
     </row>
-    <row r="560" spans="1:5" ht="14.25" customHeight="1">
+    <row r="560" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A560" s="20"/>
       <c r="C560" s="21"/>
       <c r="D560" s="21"/>
       <c r="E560" s="21"/>
     </row>
-    <row r="561" spans="1:5" ht="14.25" customHeight="1">
+    <row r="561" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A561" s="20"/>
       <c r="C561" s="21"/>
       <c r="D561" s="21"/>
       <c r="E561" s="21"/>
     </row>
-    <row r="562" spans="1:5" ht="14.25" customHeight="1">
+    <row r="562" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A562" s="20"/>
       <c r="C562" s="21"/>
       <c r="D562" s="21"/>
       <c r="E562" s="21"/>
     </row>
-    <row r="563" spans="1:5" ht="14.25" customHeight="1">
+    <row r="563" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A563" s="20"/>
       <c r="C563" s="21"/>
       <c r="D563" s="21"/>
       <c r="E563" s="21"/>
     </row>
-    <row r="564" spans="1:5" ht="14.25" customHeight="1">
+    <row r="564" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A564" s="20"/>
       <c r="C564" s="21"/>
       <c r="D564" s="21"/>
       <c r="E564" s="21"/>
     </row>
-    <row r="565" spans="1:5" ht="14.25" customHeight="1">
+    <row r="565" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A565" s="20"/>
       <c r="C565" s="21"/>
       <c r="D565" s="21"/>
       <c r="E565" s="21"/>
     </row>
-    <row r="566" spans="1:5" ht="14.25" customHeight="1">
+    <row r="566" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A566" s="20"/>
       <c r="C566" s="21"/>
       <c r="D566" s="21"/>
       <c r="E566" s="21"/>
     </row>
-    <row r="567" spans="1:5" ht="14.25" customHeight="1">
+    <row r="567" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A567" s="20"/>
       <c r="C567" s="21"/>
       <c r="D567" s="21"/>
       <c r="E567" s="21"/>
     </row>
-    <row r="568" spans="1:5" ht="14.25" customHeight="1">
+    <row r="568" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A568" s="20"/>
       <c r="C568" s="21"/>
       <c r="D568" s="21"/>
       <c r="E568" s="21"/>
     </row>
-    <row r="569" spans="1:5" ht="14.25" customHeight="1">
+    <row r="569" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A569" s="20"/>
       <c r="C569" s="21"/>
       <c r="D569" s="21"/>
       <c r="E569" s="21"/>
     </row>
-    <row r="570" spans="1:5" ht="14.25" customHeight="1">
+    <row r="570" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A570" s="20"/>
       <c r="C570" s="21"/>
       <c r="D570" s="21"/>
       <c r="E570" s="21"/>
     </row>
-    <row r="571" spans="1:5" ht="14.25" customHeight="1">
+    <row r="571" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A571" s="20"/>
       <c r="C571" s="21"/>
       <c r="D571" s="21"/>
       <c r="E571" s="21"/>
     </row>
-    <row r="572" spans="1:5" ht="14.25" customHeight="1">
+    <row r="572" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A572" s="20"/>
       <c r="C572" s="21"/>
       <c r="D572" s="21"/>
       <c r="E572" s="21"/>
     </row>
-    <row r="573" spans="1:5" ht="14.25" customHeight="1">
+    <row r="573" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A573" s="20"/>
       <c r="C573" s="21"/>
       <c r="D573" s="21"/>
       <c r="E573" s="21"/>
     </row>
-    <row r="574" spans="1:5" ht="14.25" customHeight="1">
+    <row r="574" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A574" s="20"/>
       <c r="C574" s="21"/>
       <c r="D574" s="21"/>
       <c r="E574" s="21"/>
     </row>
-    <row r="575" spans="1:5" ht="14.25" customHeight="1">
+    <row r="575" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A575" s="20"/>
       <c r="C575" s="21"/>
       <c r="D575" s="21"/>
       <c r="E575" s="21"/>
     </row>
-    <row r="576" spans="1:5" ht="14.25" customHeight="1">
+    <row r="576" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A576" s="20"/>
       <c r="C576" s="21"/>
       <c r="D576" s="21"/>
       <c r="E576" s="21"/>
     </row>
-    <row r="577" spans="1:5" ht="14.25" customHeight="1">
+    <row r="577" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A577" s="20"/>
       <c r="C577" s="21"/>
       <c r="D577" s="21"/>
       <c r="E577" s="21"/>
     </row>
-    <row r="578" spans="1:5" ht="14.25" customHeight="1">
+    <row r="578" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A578" s="20"/>
       <c r="C578" s="21"/>
       <c r="D578" s="21"/>
       <c r="E578" s="21"/>
     </row>
-    <row r="579" spans="1:5" ht="14.25" customHeight="1">
+    <row r="579" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A579" s="20"/>
       <c r="C579" s="21"/>
       <c r="D579" s="21"/>
       <c r="E579" s="21"/>
     </row>
-    <row r="580" spans="1:5" ht="14.25" customHeight="1">
+    <row r="580" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A580" s="20"/>
       <c r="C580" s="21"/>
       <c r="D580" s="21"/>
       <c r="E580" s="21"/>
     </row>
-    <row r="581" spans="1:5" ht="14.25" customHeight="1">
+    <row r="581" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A581" s="20"/>
       <c r="C581" s="21"/>
       <c r="D581" s="21"/>
       <c r="E581" s="21"/>
     </row>
-    <row r="582" spans="1:5" ht="14.25" customHeight="1">
+    <row r="582" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A582" s="20"/>
       <c r="C582" s="21"/>
       <c r="D582" s="21"/>
       <c r="E582" s="21"/>
     </row>
-    <row r="583" spans="1:5" ht="14.25" customHeight="1">
+    <row r="583" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A583" s="20"/>
       <c r="C583" s="21"/>
       <c r="D583" s="21"/>
       <c r="E583" s="21"/>
     </row>
-    <row r="584" spans="1:5" ht="14.25" customHeight="1">
+    <row r="584" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A584" s="20"/>
       <c r="C584" s="21"/>
       <c r="D584" s="21"/>
       <c r="E584" s="21"/>
     </row>
-    <row r="585" spans="1:5" ht="14.25" customHeight="1">
+    <row r="585" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A585" s="20"/>
       <c r="C585" s="21"/>
       <c r="D585" s="21"/>
       <c r="E585" s="21"/>
     </row>
-    <row r="586" spans="1:5" ht="14.25" customHeight="1">
+    <row r="586" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A586" s="20"/>
       <c r="C586" s="21"/>
       <c r="D586" s="21"/>
       <c r="E586" s="21"/>
     </row>
-    <row r="587" spans="1:5" ht="14.25" customHeight="1">
+    <row r="587" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A587" s="20"/>
       <c r="C587" s="21"/>
       <c r="D587" s="21"/>
       <c r="E587" s="21"/>
     </row>
-    <row r="588" spans="1:5" ht="14.25" customHeight="1">
+    <row r="588" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A588" s="20"/>
       <c r="C588" s="21"/>
       <c r="D588" s="21"/>
       <c r="E588" s="21"/>
     </row>
-    <row r="589" spans="1:5" ht="14.25" customHeight="1">
+    <row r="589" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A589" s="20"/>
       <c r="C589" s="21"/>
       <c r="D589" s="21"/>
       <c r="E589" s="21"/>
     </row>
-    <row r="590" spans="1:5" ht="14.25" customHeight="1">
+    <row r="590" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A590" s="20"/>
       <c r="C590" s="21"/>
       <c r="D590" s="21"/>
       <c r="E590" s="21"/>
     </row>
-    <row r="591" spans="1:5" ht="14.25" customHeight="1">
+    <row r="591" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A591" s="20"/>
       <c r="C591" s="21"/>
       <c r="D591" s="21"/>
       <c r="E591" s="21"/>
     </row>
-    <row r="592" spans="1:5" ht="14.25" customHeight="1">
+    <row r="592" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A592" s="20"/>
       <c r="C592" s="21"/>
       <c r="D592" s="21"/>
       <c r="E592" s="21"/>
     </row>
-    <row r="593" spans="1:5" ht="14.25" customHeight="1">
+    <row r="593" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A593" s="20"/>
       <c r="C593" s="21"/>
       <c r="D593" s="21"/>
       <c r="E593" s="21"/>
     </row>
-    <row r="594" spans="1:5" ht="14.25" customHeight="1">
+    <row r="594" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A594" s="20"/>
       <c r="C594" s="21"/>
       <c r="D594" s="21"/>
       <c r="E594" s="21"/>
     </row>
-    <row r="595" spans="1:5" ht="14.25" customHeight="1">
+    <row r="595" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A595" s="20"/>
       <c r="C595" s="21"/>
       <c r="D595" s="21"/>
       <c r="E595" s="21"/>
     </row>
-    <row r="596" spans="1:5" ht="14.25" customHeight="1">
+    <row r="596" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A596" s="20"/>
       <c r="C596" s="21"/>
       <c r="D596" s="21"/>
       <c r="E596" s="21"/>
     </row>
-    <row r="597" spans="1:5" ht="14.25" customHeight="1">
+    <row r="597" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A597" s="20"/>
       <c r="C597" s="21"/>
       <c r="D597" s="21"/>
       <c r="E597" s="21"/>
     </row>
-    <row r="598" spans="1:5" ht="14.25" customHeight="1">
+    <row r="598" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A598" s="20"/>
       <c r="C598" s="21"/>
       <c r="D598" s="21"/>
       <c r="E598" s="21"/>
     </row>
-    <row r="599" spans="1:5" ht="14.25" customHeight="1">
+    <row r="599" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A599" s="20"/>
       <c r="C599" s="21"/>
       <c r="D599" s="21"/>
       <c r="E599" s="21"/>
     </row>
-    <row r="600" spans="1:5" ht="14.25" customHeight="1">
+    <row r="600" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A600" s="20"/>
       <c r="C600" s="21"/>
       <c r="D600" s="21"/>
       <c r="E600" s="21"/>
     </row>
-    <row r="601" spans="1:5" ht="14.25" customHeight="1">
+    <row r="601" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A601" s="20"/>
       <c r="C601" s="21"/>
       <c r="D601" s="21"/>
       <c r="E601" s="21"/>
     </row>
-    <row r="602" spans="1:5" ht="14.25" customHeight="1">
+    <row r="602" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A602" s="20"/>
       <c r="C602" s="21"/>
       <c r="D602" s="21"/>
       <c r="E602" s="21"/>
     </row>
-    <row r="603" spans="1:5" ht="14.25" customHeight="1">
+    <row r="603" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A603" s="20"/>
       <c r="C603" s="21"/>
       <c r="D603" s="21"/>
       <c r="E603" s="21"/>
     </row>
-    <row r="604" spans="1:5" ht="14.25" customHeight="1">
+    <row r="604" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A604" s="20"/>
       <c r="C604" s="21"/>
       <c r="D604" s="21"/>
       <c r="E604" s="21"/>
     </row>
-    <row r="605" spans="1:5" ht="14.25" customHeight="1">
+    <row r="605" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A605" s="20"/>
       <c r="C605" s="21"/>
       <c r="D605" s="21"/>
       <c r="E605" s="21"/>
     </row>
-    <row r="606" spans="1:5" ht="14.25" customHeight="1">
+    <row r="606" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A606" s="20"/>
       <c r="C606" s="21"/>
       <c r="D606" s="21"/>
       <c r="E606" s="21"/>
     </row>
-    <row r="607" spans="1:5" ht="14.25" customHeight="1">
+    <row r="607" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A607" s="20"/>
       <c r="C607" s="21"/>
       <c r="D607" s="21"/>
       <c r="E607" s="21"/>
     </row>
-    <row r="608" spans="1:5" ht="14.25" customHeight="1">
+    <row r="608" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A608" s="20"/>
       <c r="C608" s="21"/>
       <c r="D608" s="21"/>
       <c r="E608" s="21"/>
     </row>
-    <row r="609" spans="1:5" ht="14.25" customHeight="1">
+    <row r="609" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A609" s="20"/>
       <c r="C609" s="21"/>
       <c r="D609" s="21"/>
       <c r="E609" s="21"/>
     </row>
-    <row r="610" spans="1:5" ht="14.25" customHeight="1">
+    <row r="610" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A610" s="20"/>
       <c r="C610" s="21"/>
       <c r="D610" s="21"/>
       <c r="E610" s="21"/>
     </row>
-    <row r="611" spans="1:5" ht="14.25" customHeight="1">
+    <row r="611" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A611" s="20"/>
       <c r="C611" s="21"/>
       <c r="D611" s="21"/>
       <c r="E611" s="21"/>
     </row>
-    <row r="612" spans="1:5" ht="14.25" customHeight="1">
+    <row r="612" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A612" s="20"/>
       <c r="C612" s="21"/>
       <c r="D612" s="21"/>
       <c r="E612" s="21"/>
     </row>
-    <row r="613" spans="1:5" ht="14.25" customHeight="1">
+    <row r="613" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A613" s="20"/>
       <c r="C613" s="21"/>
       <c r="D613" s="21"/>
       <c r="E613" s="21"/>
     </row>
-    <row r="614" spans="1:5" ht="14.25" customHeight="1">
+    <row r="614" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A614" s="20"/>
       <c r="C614" s="21"/>
       <c r="D614" s="21"/>
       <c r="E614" s="21"/>
     </row>
-    <row r="615" spans="1:5" ht="14.25" customHeight="1">
+    <row r="615" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A615" s="20"/>
       <c r="C615" s="21"/>
       <c r="D615" s="21"/>
       <c r="E615" s="21"/>
     </row>
-    <row r="616" spans="1:5" ht="14.25" customHeight="1">
+    <row r="616" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A616" s="20"/>
       <c r="C616" s="21"/>
       <c r="D616" s="21"/>
       <c r="E616" s="21"/>
     </row>
-    <row r="617" spans="1:5" ht="14.25" customHeight="1">
+    <row r="617" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A617" s="20"/>
       <c r="C617" s="21"/>
       <c r="D617" s="21"/>
       <c r="E617" s="21"/>
     </row>
-    <row r="618" spans="1:5" ht="14.25" customHeight="1">
+    <row r="618" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A618" s="20"/>
       <c r="C618" s="21"/>
       <c r="D618" s="21"/>
       <c r="E618" s="21"/>
     </row>
-    <row r="619" spans="1:5" ht="14.25" customHeight="1">
+    <row r="619" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A619" s="20"/>
       <c r="C619" s="21"/>
       <c r="D619" s="21"/>
       <c r="E619" s="21"/>
     </row>
-    <row r="620" spans="1:5" ht="14.25" customHeight="1">
+    <row r="620" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A620" s="20"/>
       <c r="C620" s="21"/>
       <c r="D620" s="21"/>
       <c r="E620" s="21"/>
     </row>
-    <row r="621" spans="1:5" ht="14.25" customHeight="1">
+    <row r="621" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A621" s="20"/>
       <c r="C621" s="21"/>
       <c r="D621" s="21"/>
       <c r="E621" s="21"/>
     </row>
-    <row r="622" spans="1:5" ht="14.25" customHeight="1">
+    <row r="622" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A622" s="20"/>
       <c r="C622" s="21"/>
       <c r="D622" s="21"/>
       <c r="E622" s="21"/>
     </row>
-    <row r="623" spans="1:5" ht="14.25" customHeight="1">
+    <row r="623" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A623" s="20"/>
       <c r="C623" s="21"/>
       <c r="D623" s="21"/>
       <c r="E623" s="21"/>
     </row>
-    <row r="624" spans="1:5" ht="14.25" customHeight="1">
+    <row r="624" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A624" s="20"/>
       <c r="C624" s="21"/>
       <c r="D624" s="21"/>
       <c r="E624" s="21"/>
     </row>
-    <row r="625" spans="1:5" ht="14.25" customHeight="1">
+    <row r="625" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A625" s="20"/>
       <c r="C625" s="21"/>
       <c r="D625" s="21"/>
       <c r="E625" s="21"/>
     </row>
-    <row r="626" spans="1:5" ht="14.25" customHeight="1">
+    <row r="626" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A626" s="20"/>
       <c r="C626" s="21"/>
       <c r="D626" s="21"/>
       <c r="E626" s="21"/>
     </row>
-    <row r="627" spans="1:5" ht="14.25" customHeight="1">
+    <row r="627" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A627" s="20"/>
       <c r="C627" s="21"/>
       <c r="D627" s="21"/>
       <c r="E627" s="21"/>
     </row>
-    <row r="628" spans="1:5" ht="14.25" customHeight="1">
+    <row r="628" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A628" s="20"/>
       <c r="C628" s="21"/>
       <c r="D628" s="21"/>
       <c r="E628" s="21"/>
     </row>
-    <row r="629" spans="1:5" ht="14.25" customHeight="1">
+    <row r="629" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A629" s="20"/>
       <c r="C629" s="21"/>
       <c r="D629" s="21"/>
       <c r="E629" s="21"/>
     </row>
-    <row r="630" spans="1:5" ht="14.25" customHeight="1">
+    <row r="630" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A630" s="20"/>
       <c r="C630" s="21"/>
       <c r="D630" s="21"/>
       <c r="E630" s="21"/>
     </row>
-    <row r="631" spans="1:5" ht="14.25" customHeight="1">
+    <row r="631" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A631" s="20"/>
       <c r="C631" s="21"/>
       <c r="D631" s="21"/>
       <c r="E631" s="21"/>
     </row>
-    <row r="632" spans="1:5" ht="14.25" customHeight="1">
+    <row r="632" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A632" s="20"/>
       <c r="C632" s="21"/>
       <c r="D632" s="21"/>
       <c r="E632" s="21"/>
     </row>
-    <row r="633" spans="1:5" ht="14.25" customHeight="1">
+    <row r="633" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A633" s="20"/>
       <c r="C633" s="21"/>
       <c r="D633" s="21"/>
       <c r="E633" s="21"/>
     </row>
-    <row r="634" spans="1:5" ht="14.25" customHeight="1">
+    <row r="634" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A634" s="20"/>
       <c r="C634" s="21"/>
       <c r="D634" s="21"/>
       <c r="E634" s="21"/>
     </row>
-    <row r="635" spans="1:5" ht="14.25" customHeight="1">
+    <row r="635" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A635" s="20"/>
       <c r="C635" s="21"/>
       <c r="D635" s="21"/>
       <c r="E635" s="21"/>
     </row>
-    <row r="636" spans="1:5" ht="14.25" customHeight="1">
+    <row r="636" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A636" s="20"/>
       <c r="C636" s="21"/>
       <c r="D636" s="21"/>
       <c r="E636" s="21"/>
     </row>
-    <row r="637" spans="1:5" ht="14.25" customHeight="1">
+    <row r="637" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A637" s="20"/>
       <c r="C637" s="21"/>
       <c r="D637" s="21"/>
       <c r="E637" s="21"/>
     </row>
-    <row r="638" spans="1:5" ht="14.25" customHeight="1">
+    <row r="638" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A638" s="20"/>
       <c r="C638" s="21"/>
       <c r="D638" s="21"/>
       <c r="E638" s="21"/>
     </row>
-    <row r="639" spans="1:5" ht="14.25" customHeight="1">
+    <row r="639" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A639" s="20"/>
       <c r="C639" s="21"/>
       <c r="D639" s="21"/>
       <c r="E639" s="21"/>
     </row>
-    <row r="640" spans="1:5" ht="14.25" customHeight="1">
+    <row r="640" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A640" s="20"/>
       <c r="C640" s="21"/>
       <c r="D640" s="21"/>
       <c r="E640" s="21"/>
     </row>
-    <row r="641" spans="1:5" ht="14.25" customHeight="1">
+    <row r="641" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A641" s="20"/>
       <c r="C641" s="21"/>
       <c r="D641" s="21"/>
       <c r="E641" s="21"/>
     </row>
-    <row r="642" spans="1:5" ht="14.25" customHeight="1">
+    <row r="642" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A642" s="20"/>
       <c r="C642" s="21"/>
       <c r="D642" s="21"/>
       <c r="E642" s="21"/>
     </row>
-    <row r="643" spans="1:5" ht="14.25" customHeight="1">
+    <row r="643" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A643" s="20"/>
       <c r="C643" s="21"/>
       <c r="D643" s="21"/>
       <c r="E643" s="21"/>
     </row>
-    <row r="644" spans="1:5" ht="14.25" customHeight="1">
+    <row r="644" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A644" s="20"/>
       <c r="C644" s="21"/>
       <c r="D644" s="21"/>
       <c r="E644" s="21"/>
     </row>
-    <row r="645" spans="1:5" ht="14.25" customHeight="1">
+    <row r="645" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A645" s="20"/>
       <c r="C645" s="21"/>
       <c r="D645" s="21"/>
       <c r="E645" s="21"/>
     </row>
-    <row r="646" spans="1:5" ht="14.25" customHeight="1">
+    <row r="646" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A646" s="20"/>
       <c r="C646" s="21"/>
       <c r="D646" s="21"/>
       <c r="E646" s="21"/>
     </row>
-    <row r="647" spans="1:5" ht="14.25" customHeight="1">
+    <row r="647" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A647" s="20"/>
       <c r="C647" s="21"/>
       <c r="D647" s="21"/>
       <c r="E647" s="21"/>
     </row>
-    <row r="648" spans="1:5" ht="14.25" customHeight="1">
+    <row r="648" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A648" s="20"/>
       <c r="C648" s="21"/>
       <c r="D648" s="21"/>
       <c r="E648" s="21"/>
     </row>
-    <row r="649" spans="1:5" ht="14.25" customHeight="1">
+    <row r="649" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A649" s="20"/>
       <c r="C649" s="21"/>
       <c r="D649" s="21"/>
       <c r="E649" s="21"/>
     </row>
-    <row r="650" spans="1:5" ht="14.25" customHeight="1">
+    <row r="650" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A650" s="20"/>
       <c r="C650" s="21"/>
       <c r="D650" s="21"/>
       <c r="E650" s="21"/>
     </row>
-    <row r="651" spans="1:5" ht="14.25" customHeight="1">
+    <row r="651" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A651" s="20"/>
       <c r="C651" s="21"/>
       <c r="D651" s="21"/>
       <c r="E651" s="21"/>
     </row>
-    <row r="652" spans="1:5" ht="14.25" customHeight="1">
+    <row r="652" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A652" s="20"/>
       <c r="C652" s="21"/>
       <c r="D652" s="21"/>
       <c r="E652" s="21"/>
     </row>
-    <row r="653" spans="1:5" ht="14.25" customHeight="1">
+    <row r="653" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A653" s="20"/>
       <c r="C653" s="21"/>
       <c r="D653" s="21"/>
       <c r="E653" s="21"/>
     </row>
-    <row r="654" spans="1:5" ht="14.25" customHeight="1">
+    <row r="654" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A654" s="20"/>
       <c r="C654" s="21"/>
       <c r="D654" s="21"/>
       <c r="E654" s="21"/>
     </row>
-    <row r="655" spans="1:5" ht="14.25" customHeight="1">
+    <row r="655" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A655" s="20"/>
       <c r="C655" s="21"/>
       <c r="D655" s="21"/>
       <c r="E655" s="21"/>
     </row>
-    <row r="656" spans="1:5" ht="14.25" customHeight="1">
+    <row r="656" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A656" s="20"/>
       <c r="C656" s="21"/>
       <c r="D656" s="21"/>
       <c r="E656" s="21"/>
     </row>
-    <row r="657" spans="1:5" ht="14.25" customHeight="1">
+    <row r="657" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A657" s="20"/>
       <c r="C657" s="21"/>
       <c r="D657" s="21"/>
       <c r="E657" s="21"/>
     </row>
-    <row r="658" spans="1:5" ht="14.25" customHeight="1">
+    <row r="658" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A658" s="20"/>
       <c r="C658" s="21"/>
       <c r="D658" s="21"/>
       <c r="E658" s="21"/>
     </row>
-    <row r="659" spans="1:5" ht="14.25" customHeight="1">
+    <row r="659" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A659" s="20"/>
       <c r="C659" s="21"/>
       <c r="D659" s="21"/>
       <c r="E659" s="21"/>
     </row>
-    <row r="660" spans="1:5" ht="14.25" customHeight="1">
+    <row r="660" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A660" s="20"/>
       <c r="C660" s="21"/>
       <c r="D660" s="21"/>
       <c r="E660" s="21"/>
     </row>
-    <row r="661" spans="1:5" ht="14.25" customHeight="1">
+    <row r="661" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A661" s="20"/>
       <c r="C661" s="21"/>
       <c r="D661" s="21"/>
       <c r="E661" s="21"/>
     </row>
-    <row r="662" spans="1:5" ht="14.25" customHeight="1">
+    <row r="662" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A662" s="20"/>
       <c r="C662" s="21"/>
       <c r="D662" s="21"/>
       <c r="E662" s="21"/>
     </row>
-    <row r="663" spans="1:5" ht="14.25" customHeight="1">
+    <row r="663" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A663" s="20"/>
       <c r="C663" s="21"/>
       <c r="D663" s="21"/>
       <c r="E663" s="21"/>
     </row>
-    <row r="664" spans="1:5" ht="14.25" customHeight="1">
+    <row r="664" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A664" s="20"/>
       <c r="C664" s="21"/>
       <c r="D664" s="21"/>
       <c r="E664" s="21"/>
     </row>
-    <row r="665" spans="1:5" ht="14.25" customHeight="1">
+    <row r="665" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A665" s="20"/>
       <c r="C665" s="21"/>
       <c r="D665" s="21"/>
       <c r="E665" s="21"/>
     </row>
-    <row r="666" spans="1:5" ht="14.25" customHeight="1">
+    <row r="666" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A666" s="20"/>
       <c r="C666" s="21"/>
       <c r="D666" s="21"/>
       <c r="E666" s="21"/>
     </row>
-    <row r="667" spans="1:5" ht="14.25" customHeight="1">
+    <row r="667" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A667" s="20"/>
       <c r="C667" s="21"/>
       <c r="D667" s="21"/>
       <c r="E667" s="21"/>
     </row>
-    <row r="668" spans="1:5" ht="14.25" customHeight="1">
+    <row r="668" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A668" s="20"/>
       <c r="C668" s="21"/>
       <c r="D668" s="21"/>
       <c r="E668" s="21"/>
     </row>
-    <row r="669" spans="1:5" ht="14.25" customHeight="1">
+    <row r="669" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A669" s="20"/>
       <c r="C669" s="21"/>
       <c r="D669" s="21"/>
       <c r="E669" s="21"/>
     </row>
-    <row r="670" spans="1:5" ht="14.25" customHeight="1">
+    <row r="670" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A670" s="20"/>
       <c r="C670" s="21"/>
       <c r="D670" s="21"/>
       <c r="E670" s="21"/>
     </row>
-    <row r="671" spans="1:5" ht="14.25" customHeight="1">
+    <row r="671" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A671" s="20"/>
       <c r="C671" s="21"/>
       <c r="D671" s="21"/>
       <c r="E671" s="21"/>
     </row>
-    <row r="672" spans="1:5" ht="14.25" customHeight="1">
+    <row r="672" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A672" s="20"/>
       <c r="C672" s="21"/>
       <c r="D672" s="21"/>
       <c r="E672" s="21"/>
     </row>
-    <row r="673" spans="1:5" ht="14.25" customHeight="1">
+    <row r="673" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A673" s="20"/>
       <c r="C673" s="21"/>
       <c r="D673" s="21"/>
       <c r="E673" s="21"/>
     </row>
-    <row r="674" spans="1:5" ht="14.25" customHeight="1">
+    <row r="674" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A674" s="20"/>
       <c r="C674" s="21"/>
       <c r="D674" s="21"/>
       <c r="E674" s="21"/>
     </row>
-    <row r="675" spans="1:5" ht="14.25" customHeight="1">
+    <row r="675" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A675" s="20"/>
       <c r="C675" s="21"/>
       <c r="D675" s="21"/>
       <c r="E675" s="21"/>
     </row>
-    <row r="676" spans="1:5" ht="14.25" customHeight="1">
+    <row r="676" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A676" s="20"/>
       <c r="C676" s="21"/>
       <c r="D676" s="21"/>
       <c r="E676" s="21"/>
     </row>
-    <row r="677" spans="1:5" ht="14.25" customHeight="1">
+    <row r="677" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A677" s="20"/>
       <c r="C677" s="21"/>
       <c r="D677" s="21"/>
       <c r="E677" s="21"/>
     </row>
-    <row r="678" spans="1:5" ht="14.25" customHeight="1">
+    <row r="678" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A678" s="20"/>
       <c r="C678" s="21"/>
       <c r="D678" s="21"/>
       <c r="E678" s="21"/>
     </row>
-    <row r="679" spans="1:5" ht="14.25" customHeight="1">
+    <row r="679" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A679" s="20"/>
       <c r="C679" s="21"/>
       <c r="D679" s="21"/>
       <c r="E679" s="21"/>
     </row>
-    <row r="680" spans="1:5" ht="14.25" customHeight="1">
+    <row r="680" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A680" s="20"/>
       <c r="C680" s="21"/>
       <c r="D680" s="21"/>
       <c r="E680" s="21"/>
     </row>
-    <row r="681" spans="1:5" ht="14.25" customHeight="1">
+    <row r="681" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A681" s="20"/>
       <c r="C681" s="21"/>
       <c r="D681" s="21"/>
       <c r="E681" s="21"/>
     </row>
-    <row r="682" spans="1:5" ht="14.25" customHeight="1">
+    <row r="682" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A682" s="20"/>
       <c r="C682" s="21"/>
       <c r="D682" s="21"/>
       <c r="E682" s="21"/>
     </row>
-    <row r="683" spans="1:5" ht="14.25" customHeight="1">
+    <row r="683" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A683" s="20"/>
       <c r="C683" s="21"/>
       <c r="D683" s="21"/>
       <c r="E683" s="21"/>
     </row>
-    <row r="684" spans="1:5" ht="14.25" customHeight="1">
+    <row r="684" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A684" s="20"/>
       <c r="C684" s="21"/>
       <c r="D684" s="21"/>
       <c r="E684" s="21"/>
     </row>
-    <row r="685" spans="1:5" ht="14.25" customHeight="1">
+    <row r="685" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A685" s="20"/>
       <c r="C685" s="21"/>
       <c r="D685" s="21"/>
       <c r="E685" s="21"/>
     </row>
-    <row r="686" spans="1:5" ht="14.25" customHeight="1">
+    <row r="686" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A686" s="20"/>
       <c r="C686" s="21"/>
       <c r="D686" s="21"/>
       <c r="E686" s="21"/>
     </row>
-    <row r="687" spans="1:5" ht="14.25" customHeight="1">
+    <row r="687" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A687" s="20"/>
       <c r="C687" s="21"/>
       <c r="D687" s="21"/>
       <c r="E687" s="21"/>
     </row>
-    <row r="688" spans="1:5" ht="14.25" customHeight="1">
+    <row r="688" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A688" s="20"/>
       <c r="C688" s="21"/>
       <c r="D688" s="21"/>
       <c r="E688" s="21"/>
     </row>
-    <row r="689" spans="1:5" ht="14.25" customHeight="1">
+    <row r="689" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A689" s="20"/>
       <c r="C689" s="21"/>
       <c r="D689" s="21"/>
       <c r="E689" s="21"/>
     </row>
-    <row r="690" spans="1:5" ht="14.25" customHeight="1">
+    <row r="690" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A690" s="20"/>
       <c r="C690" s="21"/>
       <c r="D690" s="21"/>
       <c r="E690" s="21"/>
     </row>
-    <row r="691" spans="1:5" ht="14.25" customHeight="1">
+    <row r="691" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A691" s="20"/>
       <c r="C691" s="21"/>
       <c r="D691" s="21"/>
       <c r="E691" s="21"/>
     </row>
-    <row r="692" spans="1:5" ht="14.25" customHeight="1">
+    <row r="692" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A692" s="20"/>
       <c r="C692" s="21"/>
       <c r="D692" s="21"/>
       <c r="E692" s="21"/>
     </row>
-    <row r="693" spans="1:5" ht="14.25" customHeight="1">
+    <row r="693" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A693" s="20"/>
       <c r="C693" s="21"/>
       <c r="D693" s="21"/>
       <c r="E693" s="21"/>
     </row>
-    <row r="694" spans="1:5" ht="14.25" customHeight="1">
+    <row r="694" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A694" s="20"/>
       <c r="C694" s="21"/>
       <c r="D694" s="21"/>
       <c r="E694" s="21"/>
     </row>
-    <row r="695" spans="1:5" ht="14.25" customHeight="1">
+    <row r="695" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A695" s="20"/>
       <c r="C695" s="21"/>
       <c r="D695" s="21"/>
       <c r="E695" s="21"/>
     </row>
-    <row r="696" spans="1:5" ht="14.25" customHeight="1">
+    <row r="696" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A696" s="20"/>
       <c r="C696" s="21"/>
       <c r="D696" s="21"/>
       <c r="E696" s="21"/>
     </row>
-    <row r="697" spans="1:5" ht="14.25" customHeight="1">
+    <row r="697" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A697" s="20"/>
       <c r="C697" s="21"/>
       <c r="D697" s="21"/>
       <c r="E697" s="21"/>
     </row>
-    <row r="698" spans="1:5" ht="14.25" customHeight="1">
+    <row r="698" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A698" s="20"/>
       <c r="C698" s="21"/>
       <c r="D698" s="21"/>
       <c r="E698" s="21"/>
     </row>
-    <row r="699" spans="1:5" ht="14.25" customHeight="1">
+    <row r="699" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A699" s="20"/>
       <c r="C699" s="21"/>
       <c r="D699" s="21"/>
       <c r="E699" s="21"/>
     </row>
-    <row r="700" spans="1:5" ht="14.25" customHeight="1">
+    <row r="700" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A700" s="20"/>
       <c r="C700" s="21"/>
       <c r="D700" s="21"/>
       <c r="E700" s="21"/>
     </row>
-    <row r="701" spans="1:5" ht="14.25" customHeight="1">
+    <row r="701" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A701" s="20"/>
       <c r="C701" s="21"/>
       <c r="D701" s="21"/>
       <c r="E701" s="21"/>
     </row>
-    <row r="702" spans="1:5" ht="14.25" customHeight="1">
+    <row r="702" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A702" s="20"/>
       <c r="C702" s="21"/>
       <c r="D702" s="21"/>
       <c r="E702" s="21"/>
     </row>
-    <row r="703" spans="1:5" ht="14.25" customHeight="1">
+    <row r="703" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A703" s="20"/>
       <c r="C703" s="21"/>
       <c r="D703" s="21"/>
       <c r="E703" s="21"/>
     </row>
-    <row r="704" spans="1:5" ht="14.25" customHeight="1">
+    <row r="704" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A704" s="20"/>
       <c r="C704" s="21"/>
       <c r="D704" s="21"/>
       <c r="E704" s="21"/>
     </row>
-    <row r="705" spans="1:5" ht="14.25" customHeight="1">
+    <row r="705" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A705" s="20"/>
       <c r="C705" s="21"/>
       <c r="D705" s="21"/>
       <c r="E705" s="21"/>
     </row>
-    <row r="706" spans="1:5" ht="14.25" customHeight="1">
+    <row r="706" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A706" s="20"/>
       <c r="C706" s="21"/>
       <c r="D706" s="21"/>
       <c r="E706" s="21"/>
     </row>
-    <row r="707" spans="1:5" ht="14.25" customHeight="1">
+    <row r="707" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A707" s="20"/>
       <c r="C707" s="21"/>
       <c r="D707" s="21"/>
       <c r="E707" s="21"/>
     </row>
-    <row r="708" spans="1:5" ht="14.25" customHeight="1">
+    <row r="708" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A708" s="20"/>
       <c r="C708" s="21"/>
       <c r="D708" s="21"/>
       <c r="E708" s="21"/>
     </row>
-    <row r="709" spans="1:5" ht="14.25" customHeight="1">
+    <row r="709" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A709" s="20"/>
       <c r="C709" s="21"/>
       <c r="D709" s="21"/>
       <c r="E709" s="21"/>
     </row>
-    <row r="710" spans="1:5" ht="14.25" customHeight="1">
+    <row r="710" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A710" s="20"/>
       <c r="C710" s="21"/>
       <c r="D710" s="21"/>
       <c r="E710" s="21"/>
     </row>
-    <row r="711" spans="1:5" ht="14.25" customHeight="1">
+    <row r="711" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A711" s="20"/>
       <c r="C711" s="21"/>
       <c r="D711" s="21"/>
       <c r="E711" s="21"/>
     </row>
-    <row r="712" spans="1:5" ht="14.25" customHeight="1">
+    <row r="712" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A712" s="20"/>
       <c r="C712" s="21"/>
       <c r="D712" s="21"/>
       <c r="E712" s="21"/>
     </row>
-    <row r="713" spans="1:5" ht="14.25" customHeight="1">
+    <row r="713" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A713" s="20"/>
       <c r="C713" s="21"/>
       <c r="D713" s="21"/>
       <c r="E713" s="21"/>
     </row>
-    <row r="714" spans="1:5" ht="14.25" customHeight="1">
+    <row r="714" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A714" s="20"/>
       <c r="C714" s="21"/>
       <c r="D714" s="21"/>
       <c r="E714" s="21"/>
     </row>
-    <row r="715" spans="1:5" ht="14.25" customHeight="1">
+    <row r="715" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A715" s="20"/>
       <c r="C715" s="21"/>
       <c r="D715" s="21"/>
       <c r="E715" s="21"/>
     </row>
-    <row r="716" spans="1:5" ht="14.25" customHeight="1">
+    <row r="716" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A716" s="20"/>
       <c r="C716" s="21"/>
       <c r="D716" s="21"/>
       <c r="E716" s="21"/>
     </row>
-    <row r="717" spans="1:5" ht="14.25" customHeight="1">
+    <row r="717" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A717" s="20"/>
       <c r="C717" s="21"/>
       <c r="D717" s="21"/>
       <c r="E717" s="21"/>
     </row>
-    <row r="718" spans="1:5" ht="14.25" customHeight="1">
+    <row r="718" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A718" s="20"/>
       <c r="C718" s="21"/>
       <c r="D718" s="21"/>
       <c r="E718" s="21"/>
     </row>
-    <row r="719" spans="1:5" ht="14.25" customHeight="1">
+    <row r="719" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A719" s="20"/>
       <c r="C719" s="21"/>
       <c r="D719" s="21"/>
       <c r="E719" s="21"/>
     </row>
-    <row r="720" spans="1:5" ht="14.25" customHeight="1">
+    <row r="720" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A720" s="20"/>
       <c r="C720" s="21"/>
       <c r="D720" s="21"/>
       <c r="E720" s="21"/>
     </row>
-    <row r="721" spans="1:5" ht="14.25" customHeight="1">
+    <row r="721" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A721" s="20"/>
       <c r="C721" s="21"/>
       <c r="D721" s="21"/>
       <c r="E721" s="21"/>
     </row>
-    <row r="722" spans="1:5" ht="14.25" customHeight="1">
+    <row r="722" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A722" s="20"/>
       <c r="C722" s="21"/>
       <c r="D722" s="21"/>
       <c r="E722" s="21"/>
     </row>
-    <row r="723" spans="1:5" ht="14.25" customHeight="1">
+    <row r="723" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A723" s="20"/>
       <c r="C723" s="21"/>
       <c r="D723" s="21"/>
       <c r="E723" s="21"/>
     </row>
-    <row r="724" spans="1:5" ht="14.25" customHeight="1">
+    <row r="724" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A724" s="20"/>
       <c r="C724" s="21"/>
       <c r="D724" s="21"/>
       <c r="E724" s="21"/>
     </row>
-    <row r="725" spans="1:5" ht="14.25" customHeight="1">
+    <row r="725" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A725" s="20"/>
       <c r="C725" s="21"/>
       <c r="D725" s="21"/>
       <c r="E725" s="21"/>
     </row>
-    <row r="726" spans="1:5" ht="14.25" customHeight="1">
+    <row r="726" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A726" s="20"/>
       <c r="C726" s="21"/>
       <c r="D726" s="21"/>
       <c r="E726" s="21"/>
     </row>
-    <row r="727" spans="1:5" ht="14.25" customHeight="1">
+    <row r="727" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A727" s="20"/>
       <c r="C727" s="21"/>
       <c r="D727" s="21"/>
       <c r="E727" s="21"/>
     </row>
-    <row r="728" spans="1:5" ht="14.25" customHeight="1">
+    <row r="728" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A728" s="20"/>
       <c r="C728" s="21"/>
       <c r="D728" s="21"/>
       <c r="E728" s="21"/>
     </row>
-    <row r="729" spans="1:5" ht="14.25" customHeight="1">
+    <row r="729" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A729" s="20"/>
       <c r="C729" s="21"/>
       <c r="D729" s="21"/>
       <c r="E729" s="21"/>
     </row>
-    <row r="730" spans="1:5" ht="14.25" customHeight="1">
+    <row r="730" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A730" s="20"/>
       <c r="C730" s="21"/>
       <c r="D730" s="21"/>
       <c r="E730" s="21"/>
     </row>
-    <row r="731" spans="1:5" ht="14.25" customHeight="1">
+    <row r="731" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A731" s="20"/>
       <c r="C731" s="21"/>
       <c r="D731" s="21"/>
       <c r="E731" s="21"/>
     </row>
-    <row r="732" spans="1:5" ht="14.25" customHeight="1">
+    <row r="732" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A732" s="20"/>
       <c r="C732" s="21"/>
       <c r="D732" s="21"/>
       <c r="E732" s="21"/>
     </row>
-    <row r="733" spans="1:5" ht="14.25" customHeight="1">
+    <row r="733" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A733" s="20"/>
       <c r="C733" s="21"/>
       <c r="D733" s="21"/>
       <c r="E733" s="21"/>
     </row>
-    <row r="734" spans="1:5" ht="14.25" customHeight="1">
+    <row r="734" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A734" s="20"/>
       <c r="C734" s="21"/>
       <c r="D734" s="21"/>
       <c r="E734" s="21"/>
     </row>
-    <row r="735" spans="1:5" ht="14.25" customHeight="1">
+    <row r="735" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A735" s="20"/>
       <c r="C735" s="21"/>
       <c r="D735" s="21"/>
       <c r="E735" s="21"/>
     </row>
-    <row r="736" spans="1:5" ht="14.25" customHeight="1">
+    <row r="736" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A736" s="20"/>
       <c r="C736" s="21"/>
       <c r="D736" s="21"/>
       <c r="E736" s="21"/>
     </row>
-    <row r="737" spans="1:5" ht="14.25" customHeight="1">
+    <row r="737" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A737" s="20"/>
       <c r="C737" s="21"/>
       <c r="D737" s="21"/>
       <c r="E737" s="21"/>
     </row>
-    <row r="738" spans="1:5" ht="14.25" customHeight="1">
+    <row r="738" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A738" s="20"/>
       <c r="C738" s="21"/>
       <c r="D738" s="21"/>
       <c r="E738" s="21"/>
     </row>
-    <row r="739" spans="1:5" ht="14.25" customHeight="1">
+    <row r="739" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A739" s="20"/>
       <c r="C739" s="21"/>
       <c r="D739" s="21"/>
       <c r="E739" s="21"/>
     </row>
-    <row r="740" spans="1:5" ht="14.25" customHeight="1">
+    <row r="740" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A740" s="20"/>
       <c r="C740" s="21"/>
       <c r="D740" s="21"/>
       <c r="E740" s="21"/>
     </row>
-    <row r="741" spans="1:5" ht="14.25" customHeight="1">
+    <row r="741" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A741" s="20"/>
       <c r="C741" s="21"/>
       <c r="D741" s="21"/>
       <c r="E741" s="21"/>
     </row>
-    <row r="742" spans="1:5" ht="14.25" customHeight="1">
+    <row r="742" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A742" s="20"/>
       <c r="C742" s="21"/>
       <c r="D742" s="21"/>
       <c r="E742" s="21"/>
     </row>
-    <row r="743" spans="1:5" ht="14.25" customHeight="1">
+    <row r="743" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A743" s="20"/>
       <c r="C743" s="21"/>
       <c r="D743" s="21"/>
       <c r="E743" s="21"/>
     </row>
-    <row r="744" spans="1:5" ht="14.25" customHeight="1">
+    <row r="744" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A744" s="20"/>
       <c r="C744" s="21"/>
       <c r="D744" s="21"/>
       <c r="E744" s="21"/>
     </row>
-    <row r="745" spans="1:5" ht="14.25" customHeight="1">
+    <row r="745" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A745" s="20"/>
       <c r="C745" s="21"/>
       <c r="D745" s="21"/>
       <c r="E745" s="21"/>
     </row>
-    <row r="746" spans="1:5" ht="14.25" customHeight="1">
+    <row r="746" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A746" s="20"/>
       <c r="C746" s="21"/>
       <c r="D746" s="21"/>
       <c r="E746" s="21"/>
     </row>
-    <row r="747" spans="1:5" ht="14.25" customHeight="1">
+    <row r="747" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A747" s="20"/>
       <c r="C747" s="21"/>
       <c r="D747" s="21"/>
       <c r="E747" s="21"/>
     </row>
-    <row r="748" spans="1:5" ht="14.25" customHeight="1">
+    <row r="748" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A748" s="20"/>
       <c r="C748" s="21"/>
       <c r="D748" s="21"/>
       <c r="E748" s="21"/>
     </row>
-    <row r="749" spans="1:5" ht="14.25" customHeight="1">
+    <row r="749" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A749" s="20"/>
       <c r="C749" s="21"/>
       <c r="D749" s="21"/>
       <c r="E749" s="21"/>
     </row>
-    <row r="750" spans="1:5" ht="14.25" customHeight="1">
+    <row r="750" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A750" s="20"/>
       <c r="C750" s="21"/>
       <c r="D750" s="21"/>
       <c r="E750" s="21"/>
     </row>
-    <row r="751" spans="1:5" ht="14.25" customHeight="1">
+    <row r="751" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A751" s="20"/>
       <c r="C751" s="21"/>
       <c r="D751" s="21"/>
       <c r="E751" s="21"/>
     </row>
-    <row r="752" spans="1:5" ht="14.25" customHeight="1">
+    <row r="752" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A752" s="20"/>
       <c r="C752" s="21"/>
       <c r="D752" s="21"/>
       <c r="E752" s="21"/>
     </row>
-    <row r="753" spans="1:5" ht="14.25" customHeight="1">
+    <row r="753" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A753" s="20"/>
       <c r="C753" s="21"/>
       <c r="D753" s="21"/>
       <c r="E753" s="21"/>
     </row>
-    <row r="754" spans="1:5" ht="14.25" customHeight="1">
+    <row r="754" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A754" s="20"/>
       <c r="C754" s="21"/>
       <c r="D754" s="21"/>
       <c r="E754" s="21"/>
     </row>
-    <row r="755" spans="1:5" ht="14.25" customHeight="1">
+    <row r="755" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A755" s="20"/>
       <c r="C755" s="21"/>
       <c r="D755" s="21"/>
       <c r="E755" s="21"/>
     </row>
-    <row r="756" spans="1:5" ht="14.25" customHeight="1">
+    <row r="756" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A756" s="20"/>
       <c r="C756" s="21"/>
       <c r="D756" s="21"/>
       <c r="E756" s="21"/>
     </row>
-    <row r="757" spans="1:5" ht="14.25" customHeight="1">
+    <row r="757" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A757" s="20"/>
       <c r="C757" s="21"/>
       <c r="D757" s="21"/>
       <c r="E757" s="21"/>
     </row>
-    <row r="758" spans="1:5" ht="14.25" customHeight="1">
+    <row r="758" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A758" s="20"/>
       <c r="C758" s="21"/>
       <c r="D758" s="21"/>
       <c r="E758" s="21"/>
     </row>
-    <row r="759" spans="1:5" ht="14.25" customHeight="1">
+    <row r="759" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A759" s="20"/>
       <c r="C759" s="21"/>
       <c r="D759" s="21"/>
       <c r="E759" s="21"/>
     </row>
-    <row r="760" spans="1:5" ht="14.25" customHeight="1">
+    <row r="760" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A760" s="20"/>
       <c r="C760" s="21"/>
       <c r="D760" s="21"/>
       <c r="E760" s="21"/>
     </row>
-    <row r="761" spans="1:5" ht="14.25" customHeight="1">
+    <row r="761" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A761" s="20"/>
       <c r="C761" s="21"/>
       <c r="D761" s="21"/>
       <c r="E761" s="21"/>
     </row>
-    <row r="762" spans="1:5" ht="14.25" customHeight="1">
+    <row r="762" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A762" s="20"/>
       <c r="C762" s="21"/>
       <c r="D762" s="21"/>
       <c r="E762" s="21"/>
     </row>
-    <row r="763" spans="1:5" ht="14.25" customHeight="1">
+    <row r="763" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A763" s="20"/>
       <c r="C763" s="21"/>
       <c r="D763" s="21"/>
       <c r="E763" s="21"/>
     </row>
-    <row r="764" spans="1:5" ht="14.25" customHeight="1">
+    <row r="764" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A764" s="20"/>
       <c r="C764" s="21"/>
       <c r="D764" s="21"/>
       <c r="E764" s="21"/>
     </row>
-    <row r="765" spans="1:5" ht="14.25" customHeight="1">
+    <row r="765" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A765" s="20"/>
       <c r="C765" s="21"/>
       <c r="D765" s="21"/>
       <c r="E765" s="21"/>
     </row>
-    <row r="766" spans="1:5" ht="14.25" customHeight="1">
+    <row r="766" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A766" s="20"/>
       <c r="C766" s="21"/>
       <c r="D766" s="21"/>
       <c r="E766" s="21"/>
     </row>
-    <row r="767" spans="1:5" ht="14.25" customHeight="1">
+    <row r="767" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A767" s="20"/>
       <c r="C767" s="21"/>
       <c r="D767" s="21"/>
       <c r="E767" s="21"/>
     </row>
-    <row r="768" spans="1:5" ht="14.25" customHeight="1">
+    <row r="768" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A768" s="20"/>
       <c r="C768" s="21"/>
       <c r="D768" s="21"/>
       <c r="E768" s="21"/>
     </row>
-    <row r="769" spans="1:5" ht="14.25" customHeight="1">
+    <row r="769" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A769" s="20"/>
       <c r="C769" s="21"/>
       <c r="D769" s="21"/>
       <c r="E769" s="21"/>
     </row>
-    <row r="770" spans="1:5" ht="14.25" customHeight="1">
+    <row r="770" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A770" s="20"/>
       <c r="C770" s="21"/>
       <c r="D770" s="21"/>
       <c r="E770" s="21"/>
     </row>
-    <row r="771" spans="1:5" ht="14.25" customHeight="1">
+    <row r="771" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A771" s="20"/>
       <c r="C771" s="21"/>
       <c r="D771" s="21"/>
       <c r="E771" s="21"/>
     </row>
-    <row r="772" spans="1:5" ht="14.25" customHeight="1">
+    <row r="772" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A772" s="20"/>
       <c r="C772" s="21"/>
       <c r="D772" s="21"/>
       <c r="E772" s="21"/>
     </row>
-    <row r="773" spans="1:5" ht="14.25" customHeight="1">
+    <row r="773" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A773" s="20"/>
       <c r="C773" s="21"/>
       <c r="D773" s="21"/>
       <c r="E773" s="21"/>
     </row>
-    <row r="774" spans="1:5" ht="14.25" customHeight="1">
+    <row r="774" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A774" s="20"/>
       <c r="C774" s="21"/>
       <c r="D774" s="21"/>
       <c r="E774" s="21"/>
     </row>
-    <row r="775" spans="1:5" ht="14.25" customHeight="1">
+    <row r="775" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A775" s="20"/>
       <c r="C775" s="21"/>
       <c r="D775" s="21"/>
       <c r="E775" s="21"/>
     </row>
-    <row r="776" spans="1:5" ht="14.25" customHeight="1">
+    <row r="776" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A776" s="20"/>
       <c r="C776" s="21"/>
       <c r="D776" s="21"/>
       <c r="E776" s="21"/>
     </row>
-    <row r="777" spans="1:5" ht="14.25" customHeight="1">
+    <row r="777" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A777" s="20"/>
       <c r="C777" s="21"/>
       <c r="D777" s="21"/>
       <c r="E777" s="21"/>
     </row>
-    <row r="778" spans="1:5" ht="14.25" customHeight="1">
+    <row r="778" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A778" s="20"/>
       <c r="C778" s="21"/>
       <c r="D778" s="21"/>
       <c r="E778" s="21"/>
     </row>
-    <row r="779" spans="1:5" ht="14.25" customHeight="1">
+    <row r="779" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A779" s="20"/>
       <c r="C779" s="21"/>
       <c r="D779" s="21"/>
       <c r="E779" s="21"/>
     </row>
-    <row r="780" spans="1:5" ht="14.25" customHeight="1">
+    <row r="780" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A780" s="20"/>
       <c r="C780" s="21"/>
       <c r="D780" s="21"/>
       <c r="E780" s="21"/>
     </row>
-    <row r="781" spans="1:5" ht="14.25" customHeight="1">
+    <row r="781" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A781" s="20"/>
       <c r="C781" s="21"/>
       <c r="D781" s="21"/>
       <c r="E781" s="21"/>
     </row>
-    <row r="782" spans="1:5" ht="14.25" customHeight="1">
+    <row r="782" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A782" s="20"/>
       <c r="C782" s="21"/>
       <c r="D782" s="21"/>
       <c r="E782" s="21"/>
     </row>
-    <row r="783" spans="1:5" ht="14.25" customHeight="1">
+    <row r="783" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A783" s="20"/>
       <c r="C783" s="21"/>
       <c r="D783" s="21"/>
       <c r="E783" s="21"/>
     </row>
-    <row r="784" spans="1:5" ht="14.25" customHeight="1">
+    <row r="784" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A784" s="20"/>
       <c r="C784" s="21"/>
       <c r="D784" s="21"/>
       <c r="E784" s="21"/>
     </row>
-    <row r="785" spans="1:5" ht="14.25" customHeight="1">
+    <row r="785" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A785" s="20"/>
       <c r="C785" s="21"/>
       <c r="D785" s="21"/>
       <c r="E785" s="21"/>
     </row>
-    <row r="786" spans="1:5" ht="14.25" customHeight="1">
+    <row r="786" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A786" s="20"/>
       <c r="C786" s="21"/>
       <c r="D786" s="21"/>
       <c r="E786" s="21"/>
     </row>
-    <row r="787" spans="1:5" ht="14.25" customHeight="1">
+    <row r="787" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A787" s="20"/>
       <c r="C787" s="21"/>
       <c r="D787" s="21"/>
       <c r="E787" s="21"/>
     </row>
-    <row r="788" spans="1:5" ht="14.25" customHeight="1">
+    <row r="788" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A788" s="20"/>
       <c r="C788" s="21"/>
       <c r="D788" s="21"/>
       <c r="E788" s="21"/>
     </row>
-    <row r="789" spans="1:5" ht="14.25" customHeight="1">
+    <row r="789" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A789" s="20"/>
       <c r="C789" s="21"/>
       <c r="D789" s="21"/>
       <c r="E789" s="21"/>
     </row>
-    <row r="790" spans="1:5" ht="14.25" customHeight="1">
+    <row r="790" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A790" s="20"/>
       <c r="C790" s="21"/>
       <c r="D790" s="21"/>
       <c r="E790" s="21"/>
     </row>
-    <row r="791" spans="1:5" ht="14.25" customHeight="1">
+    <row r="791" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A791" s="20"/>
       <c r="C791" s="21"/>
       <c r="D791" s="21"/>
       <c r="E791" s="21"/>
     </row>
-    <row r="792" spans="1:5" ht="14.25" customHeight="1">
+    <row r="792" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A792" s="20"/>
       <c r="C792" s="21"/>
       <c r="D792" s="21"/>
       <c r="E792" s="21"/>
     </row>
-    <row r="793" spans="1:5" ht="14.25" customHeight="1">
+    <row r="793" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A793" s="20"/>
       <c r="C793" s="21"/>
       <c r="D793" s="21"/>
       <c r="E793" s="21"/>
     </row>
-    <row r="794" spans="1:5" ht="14.25" customHeight="1">
+    <row r="794" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A794" s="20"/>
       <c r="C794" s="21"/>
       <c r="D794" s="21"/>
       <c r="E794" s="21"/>
     </row>
-    <row r="795" spans="1:5" ht="14.25" customHeight="1">
+    <row r="795" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A795" s="20"/>
       <c r="C795" s="21"/>
       <c r="D795" s="21"/>
       <c r="E795" s="21"/>
     </row>
-    <row r="796" spans="1:5" ht="14.25" customHeight="1">
+    <row r="796" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A796" s="20"/>
       <c r="C796" s="21"/>
       <c r="D796" s="21"/>
       <c r="E796" s="21"/>
     </row>
-    <row r="797" spans="1:5" ht="14.25" customHeight="1">
+    <row r="797" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A797" s="20"/>
       <c r="C797" s="21"/>
       <c r="D797" s="21"/>
       <c r="E797" s="21"/>
     </row>
-    <row r="798" spans="1:5" ht="14.25" customHeight="1">
+    <row r="798" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A798" s="20"/>
       <c r="C798" s="21"/>
       <c r="D798" s="21"/>
       <c r="E798" s="21"/>
     </row>
-    <row r="799" spans="1:5" ht="14.25" customHeight="1">
+    <row r="799" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A799" s="20"/>
       <c r="C799" s="21"/>
       <c r="D799" s="21"/>
       <c r="E799" s="21"/>
     </row>
-    <row r="800" spans="1:5" ht="14.25" customHeight="1">
+    <row r="800" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A800" s="20"/>
       <c r="C800" s="21"/>
       <c r="D800" s="21"/>
       <c r="E800" s="21"/>
     </row>
-    <row r="801" spans="1:5" ht="14.25" customHeight="1">
+    <row r="801" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A801" s="20"/>
       <c r="C801" s="21"/>
       <c r="D801" s="21"/>
       <c r="E801" s="21"/>
     </row>
-    <row r="802" spans="1:5" ht="14.25" customHeight="1">
+    <row r="802" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A802" s="20"/>
       <c r="C802" s="21"/>
       <c r="D802" s="21"/>
       <c r="E802" s="21"/>
     </row>
-    <row r="803" spans="1:5" ht="14.25" customHeight="1">
+    <row r="803" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A803" s="20"/>
       <c r="C803" s="21"/>
       <c r="D803" s="21"/>
       <c r="E803" s="21"/>
     </row>
-    <row r="804" spans="1:5" ht="14.25" customHeight="1">
+    <row r="804" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A804" s="20"/>
       <c r="C804" s="21"/>
       <c r="D804" s="21"/>
       <c r="E804" s="21"/>
     </row>
-    <row r="805" spans="1:5" ht="14.25" customHeight="1">
+    <row r="805" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A805" s="20"/>
       <c r="C805" s="21"/>
       <c r="D805" s="21"/>
       <c r="E805" s="21"/>
     </row>
-    <row r="806" spans="1:5" ht="14.25" customHeight="1">
+    <row r="806" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A806" s="20"/>
       <c r="C806" s="21"/>
       <c r="D806" s="21"/>
       <c r="E806" s="21"/>
     </row>
-    <row r="807" spans="1:5" ht="14.25" customHeight="1">
+    <row r="807" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A807" s="20"/>
       <c r="C807" s="21"/>
       <c r="D807" s="21"/>
       <c r="E807" s="21"/>
     </row>
-    <row r="808" spans="1:5" ht="14.25" customHeight="1">
+    <row r="808" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A808" s="20"/>
       <c r="C808" s="21"/>
       <c r="D808" s="21"/>
       <c r="E808" s="21"/>
     </row>
-    <row r="809" spans="1:5" ht="14.25" customHeight="1">
+    <row r="809" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A809" s="20"/>
       <c r="C809" s="21"/>
       <c r="D809" s="21"/>
       <c r="E809" s="21"/>
     </row>
-    <row r="810" spans="1:5" ht="14.25" customHeight="1">
+    <row r="810" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A810" s="20"/>
       <c r="C810" s="21"/>
       <c r="D810" s="21"/>
       <c r="E810" s="21"/>
     </row>
-    <row r="811" spans="1:5" ht="14.25" customHeight="1">
+    <row r="811" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A811" s="20"/>
       <c r="C811" s="21"/>
       <c r="D811" s="21"/>
       <c r="E811" s="21"/>
     </row>
-    <row r="812" spans="1:5" ht="14.25" customHeight="1">
+    <row r="812" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A812" s="20"/>
       <c r="C812" s="21"/>
       <c r="D812" s="21"/>
       <c r="E812" s="21"/>
     </row>
-    <row r="813" spans="1:5" ht="14.25" customHeight="1">
+    <row r="813" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A813" s="20"/>
       <c r="C813" s="21"/>
       <c r="D813" s="21"/>
       <c r="E813" s="21"/>
     </row>
-    <row r="814" spans="1:5" ht="14.25" customHeight="1">
+    <row r="814" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A814" s="20"/>
       <c r="C814" s="21"/>
       <c r="D814" s="21"/>
       <c r="E814" s="21"/>
     </row>
-    <row r="815" spans="1:5" ht="14.25" customHeight="1">
+    <row r="815" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A815" s="20"/>
       <c r="C815" s="21"/>
       <c r="D815" s="21"/>
       <c r="E815" s="21"/>
     </row>
-    <row r="816" spans="1:5" ht="14.25" customHeight="1">
+    <row r="816" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A816" s="20"/>
       <c r="C816" s="21"/>
       <c r="D816" s="21"/>
       <c r="E816" s="21"/>
     </row>
-    <row r="817" spans="1:5" ht="14.25" customHeight="1">
+    <row r="817" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A817" s="20"/>
       <c r="C817" s="21"/>
       <c r="D817" s="21"/>
       <c r="E817" s="21"/>
     </row>
-    <row r="818" spans="1:5" ht="14.25" customHeight="1">
+    <row r="818" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A818" s="20"/>
       <c r="C818" s="21"/>
       <c r="D818" s="21"/>
       <c r="E818" s="21"/>
     </row>
-    <row r="819" spans="1:5" ht="14.25" customHeight="1">
+    <row r="819" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A819" s="20"/>
       <c r="C819" s="21"/>
       <c r="D819" s="21"/>
       <c r="E819" s="21"/>
     </row>
-    <row r="820" spans="1:5" ht="14.25" customHeight="1">
+    <row r="820" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A820" s="20"/>
       <c r="C820" s="21"/>
       <c r="D820" s="21"/>
       <c r="E820" s="21"/>
     </row>
-    <row r="821" spans="1:5" ht="14.25" customHeight="1">
+    <row r="821" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A821" s="20"/>
       <c r="C821" s="21"/>
       <c r="D821" s="21"/>
       <c r="E821" s="21"/>
     </row>
-    <row r="822" spans="1:5" ht="14.25" customHeight="1">
+    <row r="822" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A822" s="20"/>
       <c r="C822" s="21"/>
       <c r="D822" s="21"/>
       <c r="E822" s="21"/>
     </row>
-    <row r="823" spans="1:5" ht="14.25" customHeight="1">
+    <row r="823" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A823" s="20"/>
       <c r="C823" s="21"/>
       <c r="D823" s="21"/>
       <c r="E823" s="21"/>
     </row>
-    <row r="824" spans="1:5" ht="14.25" customHeight="1">
+    <row r="824" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A824" s="20"/>
       <c r="C824" s="21"/>
       <c r="D824" s="21"/>
       <c r="E824" s="21"/>
     </row>
-    <row r="825" spans="1:5" ht="14.25" customHeight="1">
+    <row r="825" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A825" s="20"/>
       <c r="C825" s="21"/>
       <c r="D825" s="21"/>
       <c r="E825" s="21"/>
     </row>
-    <row r="826" spans="1:5" ht="14.25" customHeight="1">
+    <row r="826" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A826" s="20"/>
       <c r="C826" s="21"/>
       <c r="D826" s="21"/>
       <c r="E826" s="21"/>
     </row>
-    <row r="827" spans="1:5" ht="14.25" customHeight="1">
+    <row r="827" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A827" s="20"/>
       <c r="C827" s="21"/>
       <c r="D827" s="21"/>
       <c r="E827" s="21"/>
     </row>
-    <row r="828" spans="1:5" ht="14.25" customHeight="1">
+    <row r="828" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A828" s="20"/>
       <c r="C828" s="21"/>
       <c r="D828" s="21"/>
       <c r="E828" s="21"/>
     </row>
-    <row r="829" spans="1:5" ht="14.25" customHeight="1">
+    <row r="829" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A829" s="20"/>
       <c r="C829" s="21"/>
       <c r="D829" s="21"/>
       <c r="E829" s="21"/>
     </row>
-    <row r="830" spans="1:5" ht="14.25" customHeight="1">
+    <row r="830" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A830" s="20"/>
       <c r="C830" s="21"/>
       <c r="D830" s="21"/>
       <c r="E830" s="21"/>
     </row>
-    <row r="831" spans="1:5" ht="14.25" customHeight="1">
+    <row r="831" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A831" s="20"/>
       <c r="C831" s="21"/>
       <c r="D831" s="21"/>
       <c r="E831" s="21"/>
     </row>
-    <row r="832" spans="1:5" ht="14.25" customHeight="1">
+    <row r="832" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A832" s="20"/>
       <c r="C832" s="21"/>
       <c r="D832" s="21"/>
       <c r="E832" s="21"/>
     </row>
-    <row r="833" spans="1:5" ht="14.25" customHeight="1">
+    <row r="833" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A833" s="20"/>
       <c r="C833" s="21"/>
       <c r="D833" s="21"/>
       <c r="E833" s="21"/>
     </row>
-    <row r="834" spans="1:5" ht="14.25" customHeight="1">
+    <row r="834" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A834" s="20"/>
       <c r="C834" s="21"/>
       <c r="D834" s="21"/>
       <c r="E834" s="21"/>
     </row>
-    <row r="835" spans="1:5" ht="14.25" customHeight="1">
+    <row r="835" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A835" s="20"/>
       <c r="C835" s="21"/>
       <c r="D835" s="21"/>
       <c r="E835" s="21"/>
     </row>
-    <row r="836" spans="1:5" ht="14.25" customHeight="1">
+    <row r="836" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A836" s="20"/>
       <c r="C836" s="21"/>
       <c r="D836" s="21"/>
       <c r="E836" s="21"/>
     </row>
-    <row r="837" spans="1:5" ht="14.25" customHeight="1">
+    <row r="837" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A837" s="20"/>
       <c r="C837" s="21"/>
       <c r="D837" s="21"/>
       <c r="E837" s="21"/>
     </row>
-    <row r="838" spans="1:5" ht="14.25" customHeight="1">
+    <row r="838" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A838" s="20"/>
       <c r="C838" s="21"/>
       <c r="D838" s="21"/>
       <c r="E838" s="21"/>
     </row>
-    <row r="839" spans="1:5" ht="14.25" customHeight="1">
+    <row r="839" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A839" s="20"/>
       <c r="C839" s="21"/>
       <c r="D839" s="21"/>
       <c r="E839" s="21"/>
     </row>
-    <row r="840" spans="1:5" ht="14.25" customHeight="1">
+    <row r="840" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A840" s="20"/>
       <c r="C840" s="21"/>
       <c r="D840" s="21"/>
       <c r="E840" s="21"/>
     </row>
-    <row r="841" spans="1:5" ht="14.25" customHeight="1">
+    <row r="841" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A841" s="20"/>
       <c r="C841" s="21"/>
       <c r="D841" s="21"/>
       <c r="E841" s="21"/>
     </row>
-    <row r="842" spans="1:5" ht="14.25" customHeight="1">
+    <row r="842" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A842" s="20"/>
       <c r="C842" s="21"/>
       <c r="D842" s="21"/>
       <c r="E842" s="21"/>
     </row>
-    <row r="843" spans="1:5" ht="14.25" customHeight="1">
+    <row r="843" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A843" s="20"/>
       <c r="C843" s="21"/>
       <c r="D843" s="21"/>
       <c r="E843" s="21"/>
     </row>
-    <row r="844" spans="1:5" ht="14.25" customHeight="1">
+    <row r="844" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A844" s="20"/>
       <c r="C844" s="21"/>
       <c r="D844" s="21"/>
       <c r="E844" s="21"/>
     </row>
-    <row r="845" spans="1:5" ht="14.25" customHeight="1">
+    <row r="845" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A845" s="20"/>
       <c r="C845" s="21"/>
       <c r="D845" s="21"/>
       <c r="E845" s="21"/>
     </row>
-    <row r="846" spans="1:5" ht="14.25" customHeight="1">
+    <row r="846" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A846" s="20"/>
       <c r="C846" s="21"/>
       <c r="D846" s="21"/>
       <c r="E846" s="21"/>
     </row>
-    <row r="847" spans="1:5" ht="14.25" customHeight="1">
+    <row r="847" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A847" s="20"/>
       <c r="C847" s="21"/>
       <c r="D847" s="21"/>
       <c r="E847" s="21"/>
     </row>
-    <row r="848" spans="1:5" ht="14.25" customHeight="1">
+    <row r="848" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A848" s="20"/>
       <c r="C848" s="21"/>
       <c r="D848" s="21"/>
       <c r="E848" s="21"/>
     </row>
-    <row r="849" spans="1:5" ht="14.25" customHeight="1">
+    <row r="849" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A849" s="20"/>
       <c r="C849" s="21"/>
       <c r="D849" s="21"/>
       <c r="E849" s="21"/>
     </row>
-    <row r="850" spans="1:5" ht="14.25" customHeight="1">
+    <row r="850" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A850" s="20"/>
       <c r="C850" s="21"/>
       <c r="D850" s="21"/>
       <c r="E850" s="21"/>
     </row>
-    <row r="851" spans="1:5" ht="14.25" customHeight="1">
+    <row r="851" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A851" s="20"/>
       <c r="C851" s="21"/>
       <c r="D851" s="21"/>
       <c r="E851" s="21"/>
     </row>
-    <row r="852" spans="1:5" ht="14.25" customHeight="1">
+    <row r="852" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A852" s="20"/>
       <c r="C852" s="21"/>
       <c r="D852" s="21"/>
       <c r="E852" s="21"/>
     </row>
-    <row r="853" spans="1:5" ht="14.25" customHeight="1">
+    <row r="853" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A853" s="20"/>
       <c r="C853" s="21"/>
       <c r="D853" s="21"/>
       <c r="E853" s="21"/>
     </row>
-    <row r="854" spans="1:5" ht="14.25" customHeight="1">
+    <row r="854" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A854" s="20"/>
       <c r="C854" s="21"/>
       <c r="D854" s="21"/>
       <c r="E854" s="21"/>
     </row>
-    <row r="855" spans="1:5" ht="14.25" customHeight="1">
+    <row r="855" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A855" s="20"/>
       <c r="C855" s="21"/>
       <c r="D855" s="21"/>
       <c r="E855" s="21"/>
     </row>
-    <row r="856" spans="1:5" ht="14.25" customHeight="1">
+    <row r="856" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A856" s="20"/>
       <c r="C856" s="21"/>
       <c r="D856" s="21"/>
       <c r="E856" s="21"/>
     </row>
-    <row r="857" spans="1:5" ht="14.25" customHeight="1">
+    <row r="857" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A857" s="20"/>
       <c r="C857" s="21"/>
       <c r="D857" s="21"/>
       <c r="E857" s="21"/>
     </row>
-    <row r="858" spans="1:5" ht="14.25" customHeight="1">
+    <row r="858" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A858" s="20"/>
       <c r="C858" s="21"/>
       <c r="D858" s="21"/>
       <c r="E858" s="21"/>
     </row>
-    <row r="859" spans="1:5" ht="14.25" customHeight="1">
+    <row r="859" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A859" s="20"/>
       <c r="C859" s="21"/>
       <c r="D859" s="21"/>
       <c r="E859" s="21"/>
     </row>
-    <row r="860" spans="1:5" ht="14.25" customHeight="1">
+    <row r="860" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A860" s="20"/>
       <c r="C860" s="21"/>
       <c r="D860" s="21"/>
       <c r="E860" s="21"/>
     </row>
-    <row r="861" spans="1:5" ht="14.25" customHeight="1">
+    <row r="861" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A861" s="20"/>
       <c r="C861" s="21"/>
       <c r="D861" s="21"/>
       <c r="E861" s="21"/>
     </row>
-    <row r="862" spans="1:5" ht="14.25" customHeight="1">
+    <row r="862" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A862" s="20"/>
       <c r="C862" s="21"/>
       <c r="D862" s="21"/>
       <c r="E862" s="21"/>
     </row>
-    <row r="863" spans="1:5" ht="14.25" customHeight="1">
+    <row r="863" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A863" s="20"/>
       <c r="C863" s="21"/>
       <c r="D863" s="21"/>
       <c r="E863" s="21"/>
     </row>
-    <row r="864" spans="1:5" ht="14.25" customHeight="1">
+    <row r="864" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A864" s="20"/>
       <c r="C864" s="21"/>
       <c r="D864" s="21"/>
       <c r="E864" s="21"/>
     </row>
-    <row r="865" spans="1:5" ht="14.25" customHeight="1">
+    <row r="865" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A865" s="20"/>
       <c r="C865" s="21"/>
       <c r="D865" s="21"/>
       <c r="E865" s="21"/>
     </row>
-    <row r="866" spans="1:5" ht="14.25" customHeight="1">
+    <row r="866" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A866" s="20"/>
       <c r="C866" s="21"/>
       <c r="D866" s="21"/>
       <c r="E866" s="21"/>
     </row>
-    <row r="867" spans="1:5" ht="14.25" customHeight="1">
+    <row r="867" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A867" s="20"/>
       <c r="C867" s="21"/>
       <c r="D867" s="21"/>
       <c r="E867" s="21"/>
     </row>
-    <row r="868" spans="1:5" ht="14.25" customHeight="1">
+    <row r="868" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A868" s="20"/>
       <c r="C868" s="21"/>
       <c r="D868" s="21"/>
       <c r="E868" s="21"/>
     </row>
-    <row r="869" spans="1:5" ht="14.25" customHeight="1">
+    <row r="869" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A869" s="20"/>
       <c r="C869" s="21"/>
       <c r="D869" s="21"/>
       <c r="E869" s="21"/>
     </row>
-    <row r="870" spans="1:5" ht="14.25" customHeight="1">
+    <row r="870" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A870" s="20"/>
       <c r="C870" s="21"/>
       <c r="D870" s="21"/>
       <c r="E870" s="21"/>
     </row>
-    <row r="871" spans="1:5" ht="14.25" customHeight="1">
+    <row r="871" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A871" s="20"/>
       <c r="C871" s="21"/>
       <c r="D871" s="21"/>
       <c r="E871" s="21"/>
     </row>
-    <row r="872" spans="1:5" ht="14.25" customHeight="1"/>
-    <row r="873" spans="1:5" ht="14.25" customHeight="1"/>
-    <row r="874" spans="1:5" ht="14.25" customHeight="1"/>
-    <row r="875" spans="1:5" ht="14.25" customHeight="1"/>
-    <row r="876" spans="1:5" ht="14.25" customHeight="1"/>
-    <row r="877" spans="1:5" ht="14.25" customHeight="1"/>
-    <row r="878" spans="1:5" ht="14.25" customHeight="1"/>
-    <row r="879" spans="1:5" ht="14.25" customHeight="1"/>
-    <row r="880" spans="1:5" ht="14.25" customHeight="1"/>
-    <row r="881" ht="14.25" customHeight="1"/>
-    <row r="882" ht="14.25" customHeight="1"/>
-    <row r="883" ht="14.25" customHeight="1"/>
-    <row r="884" ht="14.25" customHeight="1"/>
-    <row r="885" ht="14.25" customHeight="1"/>
-    <row r="886" ht="14.25" customHeight="1"/>
-    <row r="887" ht="14.25" customHeight="1"/>
-    <row r="888" ht="14.25" customHeight="1"/>
-    <row r="889" ht="14.25" customHeight="1"/>
-    <row r="890" ht="14.25" customHeight="1"/>
-    <row r="891" ht="14.25" customHeight="1"/>
-    <row r="892" ht="14.25" customHeight="1"/>
-    <row r="893" ht="14.25" customHeight="1"/>
-    <row r="894" ht="14.25" customHeight="1"/>
-    <row r="895" ht="14.25" customHeight="1"/>
-    <row r="896" ht="14.25" customHeight="1"/>
-    <row r="897" ht="14.25" customHeight="1"/>
-    <row r="898" ht="14.25" customHeight="1"/>
-    <row r="899" ht="14.25" customHeight="1"/>
-    <row r="900" ht="14.25" customHeight="1"/>
-    <row r="901" ht="14.25" customHeight="1"/>
-    <row r="902" ht="14.25" customHeight="1"/>
-    <row r="903" ht="14.25" customHeight="1"/>
-    <row r="904" ht="14.25" customHeight="1"/>
-    <row r="905" ht="14.25" customHeight="1"/>
-    <row r="906" ht="14.25" customHeight="1"/>
-    <row r="907" ht="14.25" customHeight="1"/>
-    <row r="908" ht="14.25" customHeight="1"/>
-    <row r="909" ht="14.25" customHeight="1"/>
-    <row r="910" ht="14.25" customHeight="1"/>
-    <row r="911" ht="14.25" customHeight="1"/>
-    <row r="912" ht="14.25" customHeight="1"/>
-    <row r="913" ht="14.25" customHeight="1"/>
-    <row r="914" ht="14.25" customHeight="1"/>
-    <row r="915" ht="14.25" customHeight="1"/>
-    <row r="916" ht="14.25" customHeight="1"/>
-    <row r="917" ht="14.25" customHeight="1"/>
-    <row r="918" ht="14.25" customHeight="1"/>
-    <row r="919" ht="14.25" customHeight="1"/>
-    <row r="920" ht="14.25" customHeight="1"/>
-    <row r="921" ht="14.25" customHeight="1"/>
-    <row r="922" ht="14.25" customHeight="1"/>
-    <row r="923" ht="14.25" customHeight="1"/>
-    <row r="924" ht="14.25" customHeight="1"/>
-    <row r="925" ht="14.25" customHeight="1"/>
-    <row r="926" ht="14.25" customHeight="1"/>
-    <row r="927" ht="14.25" customHeight="1"/>
-    <row r="928" ht="14.25" customHeight="1"/>
-    <row r="929" ht="14.25" customHeight="1"/>
-    <row r="930" ht="14.25" customHeight="1"/>
-    <row r="931" ht="14.25" customHeight="1"/>
-    <row r="932" ht="14.25" customHeight="1"/>
-    <row r="933" ht="14.25" customHeight="1"/>
-    <row r="934" ht="14.25" customHeight="1"/>
-    <row r="935" ht="14.25" customHeight="1"/>
-    <row r="936" ht="14.25" customHeight="1"/>
-    <row r="937" ht="14.25" customHeight="1"/>
-    <row r="938" ht="14.25" customHeight="1"/>
-    <row r="939" ht="14.25" customHeight="1"/>
-    <row r="940" ht="14.25" customHeight="1"/>
-    <row r="941" ht="14.25" customHeight="1"/>
-    <row r="942" ht="14.25" customHeight="1"/>
-    <row r="943" ht="14.25" customHeight="1"/>
-    <row r="944" ht="14.25" customHeight="1"/>
-    <row r="945" ht="14.25" customHeight="1"/>
-    <row r="946" ht="14.25" customHeight="1"/>
-    <row r="947" ht="14.25" customHeight="1"/>
-    <row r="948" ht="14.25" customHeight="1"/>
-    <row r="949" ht="14.25" customHeight="1"/>
-    <row r="950" ht="14.25" customHeight="1"/>
-    <row r="951" ht="14.25" customHeight="1"/>
-    <row r="952" ht="14.25" customHeight="1"/>
-    <row r="953" ht="14.25" customHeight="1"/>
-    <row r="954" ht="14.25" customHeight="1"/>
-    <row r="955" ht="14.25" customHeight="1"/>
-    <row r="956" ht="14.25" customHeight="1"/>
-    <row r="957" ht="14.25" customHeight="1"/>
-    <row r="958" ht="14.25" customHeight="1"/>
-    <row r="959" ht="14.25" customHeight="1"/>
-    <row r="960" ht="14.25" customHeight="1"/>
-    <row r="961" ht="14.25" customHeight="1"/>
-    <row r="962" ht="14.25" customHeight="1"/>
-    <row r="963" ht="14.25" customHeight="1"/>
-    <row r="964" ht="14.25" customHeight="1"/>
-    <row r="965" ht="14.25" customHeight="1"/>
-    <row r="966" ht="14.25" customHeight="1"/>
-    <row r="967" ht="14.25" customHeight="1"/>
-    <row r="968" ht="14.25" customHeight="1"/>
-    <row r="969" ht="14.25" customHeight="1"/>
-    <row r="970" ht="14.25" customHeight="1"/>
-    <row r="971" ht="14.25" customHeight="1"/>
-    <row r="972" ht="14.25" customHeight="1"/>
-    <row r="973" ht="14.25" customHeight="1"/>
-    <row r="974" ht="14.25" customHeight="1"/>
-    <row r="975" ht="14.25" customHeight="1"/>
-    <row r="976" ht="14.25" customHeight="1"/>
-    <row r="977" ht="14.25" customHeight="1"/>
-    <row r="978" ht="14.25" customHeight="1"/>
-    <row r="979" ht="14.25" customHeight="1"/>
-    <row r="980" ht="14.25" customHeight="1"/>
-    <row r="981" ht="14.25" customHeight="1"/>
-    <row r="982" ht="14.25" customHeight="1"/>
-    <row r="983" ht="14.25" customHeight="1"/>
-    <row r="984" ht="14.25" customHeight="1"/>
-    <row r="985" ht="14.25" customHeight="1"/>
-    <row r="986" ht="14.25" customHeight="1"/>
-    <row r="987" ht="14.25" customHeight="1"/>
-    <row r="988" ht="14.25" customHeight="1"/>
-    <row r="989" ht="14.25" customHeight="1"/>
-    <row r="990" ht="14.25" customHeight="1"/>
-    <row r="991" ht="14.25" customHeight="1"/>
-    <row r="992" ht="14.25" customHeight="1"/>
-    <row r="993" ht="14.25" customHeight="1"/>
-    <row r="994" ht="14.25" customHeight="1"/>
-    <row r="995" ht="14.25" customHeight="1"/>
-    <row r="996" ht="14.25" customHeight="1"/>
-    <row r="997" ht="14.25" customHeight="1"/>
-    <row r="998" ht="14.25" customHeight="1"/>
+    <row r="872" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="873" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="874" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="875" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="876" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="877" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="878" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="879" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="880" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="881" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="882" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="883" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="884" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="885" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="886" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="887" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="888" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="889" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="890" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="891" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="892" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="893" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="894" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="895" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="896" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="897" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="898" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="899" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="900" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="901" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="902" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="903" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="904" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="905" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="906" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="907" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="908" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="909" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="910" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="911" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="912" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="913" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="914" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="915" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="916" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="917" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="918" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="919" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="920" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="921" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="922" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="923" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="924" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="925" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="926" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="927" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="928" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="929" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="930" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="931" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="932" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="933" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="934" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="935" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="936" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="937" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="938" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="939" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="940" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="941" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="942" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="943" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="944" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="945" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="946" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="947" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="948" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="949" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="950" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="951" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="952" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="953" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="954" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="955" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="956" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="957" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="958" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="959" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="960" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="961" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="962" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="963" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="964" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="965" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="966" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="967" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="968" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="969" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="970" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="971" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="972" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="973" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="974" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="975" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="976" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="977" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="978" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="979" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="980" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="981" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="982" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="983" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="984" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="985" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="986" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="987" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="988" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="989" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="990" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="991" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="992" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="993" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="994" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="995" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="996" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="997" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="998" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="H1:J1"/>

--- a/Cash Book/Expenditure Mian Anjum Saeed.xlsx
+++ b/Cash Book/Expenditure Mian Anjum Saeed.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Mian-Industries\Cash Book\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8745041-3C31-4ADE-BEF1-31E155C5E02E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D769A212-DF02-4528-8E1C-D3C2D2ADF2FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -798,8 +798,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z998"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R11" sqref="R11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
